--- a/compilado.xlsx
+++ b/compilado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucca\OneDrive\Documentos\outros\fiap\challenger2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1473E64A-6573-4DBC-9D33-59EF70128643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C93B56-D3B7-4688-9C97-F4FFECF44404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{0FF5994A-2654-4427-96C6-E863E9E949F1}"/>
   </bookViews>
@@ -3951,8 +3951,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:T306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7:T306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4221,8 +4221,8 @@
         <v>1152</v>
       </c>
       <c r="T7" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO t_restaurante (","id_restaurante,  ","ds_img_restaurante,  ","nm_restaurante,  ","nr_rating_restaurante,  ","ds_tipo_restaurante,  ","nr_dist_restaurante,  ","ds_prazo_restaurante,  ","ds_frete_restaurante,  ","ds_desc_restaurante,  ","ds_url_restaurante, ","nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  """,C7,""", """,A7,""", """,E7,""", """,G7,""", """,I7,""", """,K7,""", """,M7,""", """,O7,""", """,Q7,""", """,S7,""");")</f>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/6155bc4d-c7a6-4951-9d8d-2b17a79e448a/202105101533_Hvu2_i.png", "O Fornês - Pizzaria Barra", "4.7", "Pizza", "1.1 km", "20-30 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/o-fornes---pizzaria-barra-barra-da-tijuca/6155bc4d-c7a6-4951-9d8d-2b17a79e448a", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <f>_xlfn.CONCAT("INSERT INTO t_restaurante (","id_rest,  ","ds_img_rest,  ","nm_rest,  ","nr_rat_rest,  ","ds_tipo_rest,  ","nr_dist_rest,  ","ds_prazo_rest,  ","ds_frete_rest,  ","ds_desc_rest,  ","ds_url_rest, ","nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  '",C7,"', '",SUBSTITUTE(A7,"'",""),"', '",E7,"', '",G7,"', '",I7,"', '",K7,"', '",M7,"', '",O7,"', '",Q7,"', '",S7,"');")</f>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/6155bc4d-c7a6-4951-9d8d-2b17a79e448a/202105101533_Hvu2_i.png', 'O Fornês - Pizzaria Barra', '4.7', 'Pizza', '1.1 km', '20-30 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/o-fornes---pizzaria-barra-barra-da-tijuca/6155bc4d-c7a6-4951-9d8d-2b17a79e448a', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -4293,8 +4293,8 @@
         <v>1152</v>
       </c>
       <c r="T8" t="str">
-        <f t="shared" ref="T8:T71" si="5">_xlfn.CONCAT("INSERT INTO t_restaurante (","id_restaurante,  ","ds_img_restaurante,  ","nm_restaurante,  ","nr_rating_restaurante,  ","ds_tipo_restaurante,  ","nr_dist_restaurante,  ","ds_prazo_restaurante,  ","ds_frete_restaurante,  ","ds_desc_restaurante,  ","ds_url_restaurante, ","nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  """,C8,""", """,A8,""", """,E8,""", """,G8,""", """,I8,""", """,K8,""", """,M8,""", """,O8,""", """,Q8,""", """,S8,""");")</f>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/7b225e14-3310-4283-9c7f-298c4bd23a83/202102040103_lhi2_.jpeg", "Atillio Pizza Premium - Barra", "4.8", "Pizza", "4.8 km", "35-45 min", "Grátis", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/atillio-pizza-premium---barra-jacarepagua/7b225e14-3310-4283-9c7f-298c4bd23a83", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <f t="shared" ref="T8:T71" si="5">_xlfn.CONCAT("INSERT INTO t_restaurante (","id_rest,  ","ds_img_rest,  ","nm_rest,  ","nr_rat_rest,  ","ds_tipo_rest,  ","nr_dist_rest,  ","ds_prazo_rest,  ","ds_frete_rest,  ","ds_desc_rest,  ","ds_url_rest, ","nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  '",C8,"', '",SUBSTITUTE(A8,"'",""),"', '",E8,"', '",G8,"', '",I8,"', '",K8,"', '",M8,"', '",O8,"', '",Q8,"', '",S8,"');")</f>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/7b225e14-3310-4283-9c7f-298c4bd23a83/202102040103_lhi2_.jpeg', 'Atillio Pizza Premium - Barra', '4.8', 'Pizza', '4.8 km', '35-45 min', 'Grátis', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/atillio-pizza-premium---barra-jacarepagua/7b225e14-3310-4283-9c7f-298c4bd23a83', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="T9" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/701e4a7f-f3a0-47c0-bd23-8bff0885970d/202105180940_SfFR_i.png", "Vezpa Pizzas - Olegário", "4.6", "Pizza", "3.2 km", "55-65 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/vezpa-pizzas---olegario-barra-da-tijuca/701e4a7f-f3a0-47c0-bd23-8bff0885970d", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/701e4a7f-f3a0-47c0-bd23-8bff0885970d/202105180940_SfFR_i.png', 'Vezpa Pizzas - Olegário', '4.6', 'Pizza', '3.2 km', '55-65 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/vezpa-pizzas---olegario-barra-da-tijuca/701e4a7f-f3a0-47c0-bd23-8bff0885970d', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="T10" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/abf92106-9743-425d-9d4f-faa0a29ee307/202101061616_7b9F_.jpeg", "Forneria Original - Jardim Oceânico", "4.7", "Pizza", "3.0 km", "29-39 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/forneria-original---jardim-oceanico-barra-da-tijuca/abf92106-9743-425d-9d4f-faa0a29ee307", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/abf92106-9743-425d-9d4f-faa0a29ee307/202101061616_7b9F_.jpeg', 'Forneria Original - Jardim Oceânico', '4.7', 'Pizza', '3.0 km', '29-39 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/forneria-original---jardim-oceanico-barra-da-tijuca/abf92106-9743-425d-9d4f-faa0a29ee307', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="T11" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/b3ca4c80-905b-429e-9963-01ae33d4caf2/202105241947_KKF8_i.png", "Suburbanos Pizza Rústica - Barra", "4.6", "Pizza", "2.9 km", "20-30 min", "R$ 0,02", "Cupom de R$ 5 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/suburbanos-pizza-rustica---barra-barra-da-tijuca/b3ca4c80-905b-429e-9963-01ae33d4caf2", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/b3ca4c80-905b-429e-9963-01ae33d4caf2/202105241947_KKF8_i.png', 'Suburbanos Pizza Rústica - Barra', '4.6', 'Pizza', '2.9 km', '20-30 min', 'R$ 0,02', 'Cupom de R$ 5 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/suburbanos-pizza-rustica---barra-barra-da-tijuca/b3ca4c80-905b-429e-9963-01ae33d4caf2', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="T12" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/84e5daa3-0df1-458a-800d-04dbe88f6c0b/202002121711_yhtu_.jpeg", "Pizza do Rão - Barra da Tijuca", "4.4", "Pizza", "1.4 km", "20-30 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizza-do-rao---barra-da-tijuca-barra-da-tijuca/84e5daa3-0df1-458a-800d-04dbe88f6c0b", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/84e5daa3-0df1-458a-800d-04dbe88f6c0b/202002121711_yhtu_.jpeg', 'Pizza do Rão - Barra da Tijuca', '4.4', 'Pizza', '1.4 km', '20-30 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizza-do-rao---barra-da-tijuca-barra-da-tijuca/84e5daa3-0df1-458a-800d-04dbe88f6c0b', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="T13" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/d8914202-6ee4-4d5a-a256-656cb008fa93/202105251034_BET3_i.png", "Domino’s Pizza - Parque das Rosas", "3.7", "Pizza", "1.6 km", "35-45 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/dominos-pizza---parque-das-rosas-barra-da-tijuca/d8914202-6ee4-4d5a-a256-656cb008fa93", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/d8914202-6ee4-4d5a-a256-656cb008fa93/202105251034_BET3_i.png', 'Domino’s Pizza - Parque das Rosas', '3.7', 'Pizza', '1.6 km', '35-45 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/dominos-pizza---parque-das-rosas-barra-da-tijuca/d8914202-6ee4-4d5a-a256-656cb008fa93', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="T14" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/201901141903_83c30722-0aa4-41f9-a33f-1c4a85a9bbd7.png", "Grassanos Pizzaria Barra I", "4.7", "Pizza", "2.8 km", "20-30 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/grassanos-pizzaria-barra-i-barra-da-tijuca/83c30722-0aa4-41f9-a33f-1c4a85a9bbd7", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/201901141903_83c30722-0aa4-41f9-a33f-1c4a85a9bbd7.png', 'Grassanos Pizzaria Barra I', '4.7', 'Pizza', '2.8 km', '20-30 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/grassanos-pizzaria-barra-i-barra-da-tijuca/83c30722-0aa4-41f9-a33f-1c4a85a9bbd7', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="T15" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/63485663-6d8d-4134-8ea9-a5bf55d67869/202009201732_8VqX_.jpeg", "Mamma Jamma Barra", "4.5", "Pizza", "2.1 km", "45-55 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/mamma-jamma-barra-barra-da-tijuca/63485663-6d8d-4134-8ea9-a5bf55d67869", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/63485663-6d8d-4134-8ea9-a5bf55d67869/202009201732_8VqX_.jpeg', 'Mamma Jamma Barra', '4.5', 'Pizza', '2.1 km', '45-55 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/mamma-jamma-barra-barra-da-tijuca/63485663-6d8d-4134-8ea9-a5bf55d67869', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="T16" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/2c27f75f-2747-4787-9086-d119b622efb6_DOMIN_NTOWN.png", "Domino's Pizza - Downtown", "4.6", "Pizza", "1.6 km", "50-60 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/dominos-pizza---downtown-barra-da-tijuca/799caa75-2441-461c-8f91-194329bde56c", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/2c27f75f-2747-4787-9086-d119b622efb6_DOMIN_NTOWN.png', 'Dominos Pizza - Downtown', '4.6', 'Pizza', '1.6 km', '50-60 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/dominos-pizza---downtown-barra-da-tijuca/799caa75-2441-461c-8f91-194329bde56c', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="T17" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/201806010744_938171c0-6a21-4ea7-867c-7a70a6a3e247.png", "Della Chef Gagliasso", "4.5", "Pizza", "0.8 km", "29-39 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/della-chef-gagliasso-barra-da-tijuca/938171c0-6a21-4ea7-867c-7a70a6a3e247", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/201806010744_938171c0-6a21-4ea7-867c-7a70a6a3e247.png', 'Della Chef Gagliasso', '4.5', 'Pizza', '0.8 km', '29-39 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/della-chef-gagliasso-barra-da-tijuca/938171c0-6a21-4ea7-867c-7a70a6a3e247', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="T18" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/c4510a40-a58b-4126-b032-a20bc550119f/201907261109_z4lK_.jpeg", "Q Marché Pizzaria", "4.6", "Pizza", "5.1 km", "80-90 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/q-marche-pizzaria-barra-da-tijuca/c4510a40-a58b-4126-b032-a20bc550119f", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/c4510a40-a58b-4126-b032-a20bc550119f/201907261109_z4lK_.jpeg', 'Q Marché Pizzaria', '4.6', 'Pizza', '5.1 km', '80-90 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/q-marche-pizzaria-barra-da-tijuca/c4510a40-a58b-4126-b032-a20bc550119f', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="T19" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/8cfcd6dd-e061-47a3-8887-a3f16d2bbb91/201912091507_Svty_i.jpg", "Di Blasi Pizzas Artesanais - Barra", "4.9", "Pizza", "0.8 km", "20-30 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/di-blasi-pizzas-artesanais---barra-barra-da-tijuca/8cfcd6dd-e061-47a3-8887-a3f16d2bbb91", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/8cfcd6dd-e061-47a3-8887-a3f16d2bbb91/201912091507_Svty_i.jpg', 'Di Blasi Pizzas Artesanais - Barra', '4.9', 'Pizza', '0.8 km', '20-30 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/di-blasi-pizzas-artesanais---barra-barra-da-tijuca/8cfcd6dd-e061-47a3-8887-a3f16d2bbb91', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="T20" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/201903161500_412a51e6-71ba-4a08-8911-55d15e21c1cc.jpg", "Forneria Bertozzi - Barra", "5.0", "Pizza", "1.6 km", "30-40 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/forneria-bertozzi---barra-barra-da-tijuca/412a51e6-71ba-4a08-8911-55d15e21c1cc", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/201903161500_412a51e6-71ba-4a08-8911-55d15e21c1cc.jpg', 'Forneria Bertozzi - Barra', '5.0', 'Pizza', '1.6 km', '30-40 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/forneria-bertozzi---barra-barra-da-tijuca/412a51e6-71ba-4a08-8911-55d15e21c1cc', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="T21" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/202006201830_561cc5ed-9fb3-485f-83ce-1d8d71a50e49.png", "Borda &amp; Lenha", "4.7", "Pizza", "0.7 km", "30-40 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/borda--lenha-barra-da-tijuca/561cc5ed-9fb3-485f-83ce-1d8d71a50e49", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/202006201830_561cc5ed-9fb3-485f-83ce-1d8d71a50e49.png', 'Borda &amp; Lenha', '4.7', 'Pizza', '0.7 km', '30-40 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/borda--lenha-barra-da-tijuca/561cc5ed-9fb3-485f-83ce-1d8d71a50e49', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="T22" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/a7f5fbc2-c744-4ee1-bc2d-72ece081da72/202010072326_p7nA_i.png", "Prime Pizza", "4.0", "Pizza", "8.6 km", "60-70 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/prime-pizza-barra-da-tijuca/a7f5fbc2-c744-4ee1-bc2d-72ece081da72", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/a7f5fbc2-c744-4ee1-bc2d-72ece081da72/202010072326_p7nA_i.png', 'Prime Pizza', '4.0', 'Pizza', '8.6 km', '60-70 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/prime-pizza-barra-da-tijuca/a7f5fbc2-c744-4ee1-bc2d-72ece081da72', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="T23" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/6c7fc2aa-2659-40cd-8b16-3cb3ecf9145b/202007161826_flWA_i.png", "Bratza Pizzaria", "4.5", "Pizza", "2.8 km", "20-30 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/bratza-pizzaria-barra-da-tijuca/6c7fc2aa-2659-40cd-8b16-3cb3ecf9145b", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/6c7fc2aa-2659-40cd-8b16-3cb3ecf9145b/202007161826_flWA_i.png', 'Bratza Pizzaria', '4.5', 'Pizza', '2.8 km', '20-30 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/bratza-pizzaria-barra-da-tijuca/6c7fc2aa-2659-40cd-8b16-3cb3ecf9145b', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="T24" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/0aa4f265-e2e0-4f28-b816-40607aad2352/201911081927_obuu_i.png", "Primus Pizzaria", "3.9", "Pizza", "6.5 km", "60-70 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/primus-pizzaria-jacarepagua/0aa4f265-e2e0-4f28-b816-40607aad2352", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/0aa4f265-e2e0-4f28-b816-40607aad2352/201911081927_obuu_i.png', 'Primus Pizzaria', '3.9', 'Pizza', '6.5 km', '60-70 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/primus-pizzaria-jacarepagua/0aa4f265-e2e0-4f28-b816-40607aad2352', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="T25" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/001ac2f4-2d1d-4266-b820-5a05be45948f/202106242029_nXmk_i.jpg", "Aham Forneria - Pizza Barra", "4.9", "Pizza", "0.9 km", "30-40 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/aham-forneria---pizza-barra-barra-da-tijuca/001ac2f4-2d1d-4266-b820-5a05be45948f", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/001ac2f4-2d1d-4266-b820-5a05be45948f/202106242029_nXmk_i.jpg', 'Aham Forneria - Pizza Barra', '4.9', 'Pizza', '0.9 km', '30-40 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/aham-forneria---pizza-barra-barra-da-tijuca/001ac2f4-2d1d-4266-b820-5a05be45948f', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
@@ -5590,7 +5590,7 @@
       </c>
       <c r="T26" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/7577cc5f-7ca2-4336-a273-6009463dbfda/202105180939_6uNY_i.png", "Vezpa Pizzas - Barra da Tijuca", "4.4", "Pizza", "4.9 km", "39-49 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/vezpa-pizzas---barra-da-tijuca-barra-da-tijuca/7577cc5f-7ca2-4336-a273-6009463dbfda", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/7577cc5f-7ca2-4336-a273-6009463dbfda/202105180939_6uNY_i.png', 'Vezpa Pizzas - Barra da Tijuca', '4.4', 'Pizza', '4.9 km', '39-49 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/vezpa-pizzas---barra-da-tijuca-barra-da-tijuca/7577cc5f-7ca2-4336-a273-6009463dbfda', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="T27" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/b983f6ee-b550-4576-93b9-18e31106a2db/202102032143_LaNk_i.png", "Forneria Mafiozza", "4.8", "Pizza", "3.0 km", "30-40 min", "Grátis", "Peça 3 vezes, ganhe R$ 20", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/forneria-mafiozza-barra-da-tijuca/b983f6ee-b550-4576-93b9-18e31106a2db", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/b983f6ee-b550-4576-93b9-18e31106a2db/202102032143_LaNk_i.png', 'Forneria Mafiozza', '4.8', 'Pizza', '3.0 km', '30-40 min', 'Grátis', 'Peça 3 vezes, ganhe R$ 20', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/forneria-mafiozza-barra-da-tijuca/b983f6ee-b550-4576-93b9-18e31106a2db', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="T28" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/4afbe77b-5415-486a-9d12-4ab8d1f0a3fe/201911221904_hxe9_i.png", "Pizza Deli", "4.5", "Pizza", "2.8 km", "20-30 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizza-deli-barra-da-tijuca/4afbe77b-5415-486a-9d12-4ab8d1f0a3fe", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/4afbe77b-5415-486a-9d12-4ab8d1f0a3fe/201911221904_hxe9_i.png', 'Pizza Deli', '4.5', 'Pizza', '2.8 km', '20-30 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizza-deli-barra-da-tijuca/4afbe77b-5415-486a-9d12-4ab8d1f0a3fe', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
@@ -5806,7 +5806,7 @@
       </c>
       <c r="T29" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/9873cd70-4b90-4883-bd9a-ef5ebb23a074/202106081856_WPSV_i.png", "Fitzza - Barra da Tijuca", "4.9", "Pizza", "6.0 km", "50-60 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/fitzza---barra-da-tijuca-barra-da-tijuca/9873cd70-4b90-4883-bd9a-ef5ebb23a074", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/9873cd70-4b90-4883-bd9a-ef5ebb23a074/202106081856_WPSV_i.png', 'Fitzza - Barra da Tijuca', '4.9', 'Pizza', '6.0 km', '50-60 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/fitzza---barra-da-tijuca-barra-da-tijuca/9873cd70-4b90-4883-bd9a-ef5ebb23a074', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
@@ -5878,7 +5878,7 @@
       </c>
       <c r="T30" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/3cad8851-9cfc-44e5-998f-3b1fee5a36f0/201910111124_mweo_i.png", "Nossa Pizzaria", "4.8", "Pizza", "2.1 km", "25-35 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/nossa-pizzaria-barra-da-tijuca/3cad8851-9cfc-44e5-998f-3b1fee5a36f0", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/3cad8851-9cfc-44e5-998f-3b1fee5a36f0/201910111124_mweo_i.png', 'Nossa Pizzaria', '4.8', 'Pizza', '2.1 km', '25-35 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/nossa-pizzaria-barra-da-tijuca/3cad8851-9cfc-44e5-998f-3b1fee5a36f0', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="T31" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/cbabd509-7d52-44a5-9e14-d45599dd6943/202004061222_Adox_i.jpg", "Pizza Makers - Peninsula", "4.2", "Pizza", "2.4 km", "28-38 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizza-makers---peninsula-barra-da-tijuca/cbabd509-7d52-44a5-9e14-d45599dd6943", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/cbabd509-7d52-44a5-9e14-d45599dd6943/202004061222_Adox_i.jpg', 'Pizza Makers - Peninsula', '4.2', 'Pizza', '2.4 km', '28-38 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizza-makers---peninsula-barra-da-tijuca/cbabd509-7d52-44a5-9e14-d45599dd6943', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="T32" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/33896683-3a53-4877-89a3-365f7ff93231/202010180319_yIiy_.jpeg", "Mania de Pizza", "4.1", "Pizza", "7.9 km", "30-40 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/mania-de-pizza-curicica/33896683-3a53-4877-89a3-365f7ff93231", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/33896683-3a53-4877-89a3-365f7ff93231/202010180319_yIiy_.jpeg', 'Mania de Pizza', '4.1', 'Pizza', '7.9 km', '30-40 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/mania-de-pizza-curicica/33896683-3a53-4877-89a3-365f7ff93231', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="T33" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/f01eb596-ac65-48c6-b500-48a0768230f6/202011031937_Z2hZ_i.png", "Lievita Pizzas e Pães Rústicos", "4.8", "Pizza", "0.8 km", "45-55 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/lievita-pizzas-e-paes-rusticos-barra-da-tijuca/f01eb596-ac65-48c6-b500-48a0768230f6", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/f01eb596-ac65-48c6-b500-48a0768230f6/202011031937_Z2hZ_i.png', 'Lievita Pizzas e Pães Rústicos', '4.8', 'Pizza', '0.8 km', '45-55 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/lievita-pizzas-e-paes-rusticos-barra-da-tijuca/f01eb596-ac65-48c6-b500-48a0768230f6', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="T34" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/988f633f-8486-49b0-b4e6-3f65ae727c77/202003132145_V7vH_i.png", "J &amp; Clark - Pizzaria Barra", "4.9", "Pizza", "3.2 km", "45-55 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/j--clark---pizzaria-barra-barra-da-tijuca/988f633f-8486-49b0-b4e6-3f65ae727c77", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/988f633f-8486-49b0-b4e6-3f65ae727c77/202003132145_V7vH_i.png', 'J &amp; Clark - Pizzaria Barra', '4.9', 'Pizza', '3.2 km', '45-55 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/j--clark---pizzaria-barra-barra-da-tijuca/988f633f-8486-49b0-b4e6-3f65ae727c77', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -6238,7 +6238,7 @@
       </c>
       <c r="T35" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/8c754c17-416c-4ada-a8b7-8838b1e11b10/202106061856_iltw_i.png", "House Forneria", "4.9", "Pizza", "2.6 km", "45-55 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/house-forneria-barra-da-tijuca/8c754c17-416c-4ada-a8b7-8838b1e11b10", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/8c754c17-416c-4ada-a8b7-8838b1e11b10/202106061856_iltw_i.png', 'House Forneria', '4.9', 'Pizza', '2.6 km', '45-55 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/house-forneria-barra-da-tijuca/8c754c17-416c-4ada-a8b7-8838b1e11b10', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="T36" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/b75fba45-c036-4f5c-b9d0-8fe00d5df141/202001221452_opjC_i.png", "Zz Pizza Elétrica", "4.3", "Pizza", "1.9 km", "32-42 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/zz-pizza-eletrica-barra-da-tijuca/b75fba45-c036-4f5c-b9d0-8fe00d5df141", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/b75fba45-c036-4f5c-b9d0-8fe00d5df141/202001221452_opjC_i.png', 'Zz Pizza Elétrica', '4.3', 'Pizza', '1.9 km', '32-42 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/zz-pizza-eletrica-barra-da-tijuca/b75fba45-c036-4f5c-b9d0-8fe00d5df141', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="T37" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/175a9201-16f0-46a1-af96-f7817d154328/202002031821_O755_i.jpg", "Frontera Barra", "4.5", "Pizza", "2.9 km", "35-45 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/frontera-barra-barra-da-tijuca/175a9201-16f0-46a1-af96-f7817d154328", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/175a9201-16f0-46a1-af96-f7817d154328/202002031821_O755_i.jpg', 'Frontera Barra', '4.5', 'Pizza', '2.9 km', '35-45 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/frontera-barra-barra-da-tijuca/175a9201-16f0-46a1-af96-f7817d154328', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -6454,7 +6454,7 @@
       </c>
       <c r="T38" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/4620e989-b499-41fd-92d8-bafda8d7107f/202105182132_sl3v_i.png", "Pizzou - Veganas Fit e Tradicional", "4.7", "Pizza", "1.1 km", "35-45 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizzou---veganas-fit-e-tradicional-barra-da-tijuca/4620e989-b499-41fd-92d8-bafda8d7107f", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/4620e989-b499-41fd-92d8-bafda8d7107f/202105182132_sl3v_i.png', 'Pizzou - Veganas Fit e Tradicional', '4.7', 'Pizza', '1.1 km', '35-45 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizzou---veganas-fit-e-tradicional-barra-da-tijuca/4620e989-b499-41fd-92d8-bafda8d7107f', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -6526,7 +6526,7 @@
       </c>
       <c r="T39" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/8e6c593f-4f07-49ae-8b03-2e52facfdedc/202101111856_7aKp_i.png", "Associação da Pizza", "4.0", "Pizza", "7.0 km", "80-90 min", "Grátis", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/associacao-da-pizza-jacarepagua/8e6c593f-4f07-49ae-8b03-2e52facfdedc", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/8e6c593f-4f07-49ae-8b03-2e52facfdedc/202101111856_7aKp_i.png', 'Associação da Pizza', '4.0', 'Pizza', '7.0 km', '80-90 min', 'Grátis', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/associacao-da-pizza-jacarepagua/8e6c593f-4f07-49ae-8b03-2e52facfdedc', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="T40" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/ef96b030-a44c-43a9-8706-565023d10225/202103021957_7jtd_.jpeg", "Pizzaria Massa do Papai", "4.5", "Pizza", "5.5 km", "47-57 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizzaria-massa-do-papai-gardenia-azul/ef96b030-a44c-43a9-8706-565023d10225", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/ef96b030-a44c-43a9-8706-565023d10225/202103021957_7jtd_.jpeg', 'Pizzaria Massa do Papai', '4.5', 'Pizza', '5.5 km', '47-57 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizzaria-massa-do-papai-gardenia-azul/ef96b030-a44c-43a9-8706-565023d10225', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -6670,7 +6670,7 @@
       </c>
       <c r="T41" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/e530ddad-c6f0-4615-bc42-abbfc1151964/202102132147_FhxQ_.jpeg", "Pizza Night", "4.7", "Pizza", "2.1 km", "25-35 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizza-night-barra-da-tijuca/e530ddad-c6f0-4615-bc42-abbfc1151964", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/e530ddad-c6f0-4615-bc42-abbfc1151964/202102132147_FhxQ_.jpeg', 'Pizza Night', '4.7', 'Pizza', '2.1 km', '25-35 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizza-night-barra-da-tijuca/e530ddad-c6f0-4615-bc42-abbfc1151964', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="T42" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/8cdc3f73-21ab-4db5-8768-7844576e49cf/202004171551_GRkO_.jpeg", "Forno Napoletano Pizza Artesanal", "4.7", "Pizza", "5.0 km", "30-40 min", "Grátis", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/forno-napoletano-pizza-artesanal-jacarepagua/8cdc3f73-21ab-4db5-8768-7844576e49cf", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/8cdc3f73-21ab-4db5-8768-7844576e49cf/202004171551_GRkO_.jpeg', 'Forno Napoletano Pizza Artesanal', '4.7', 'Pizza', '5.0 km', '30-40 min', 'Grátis', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/forno-napoletano-pizza-artesanal-jacarepagua/8cdc3f73-21ab-4db5-8768-7844576e49cf', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="T43" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/acf6fa32-ee31-441c-8281-08ea2dbc5b06/202004271855_yBxF_i.jpg", "Pizz! Pizza", "4.4", "Pizza", "0.5 km", "35-45 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizz-pizza-barra-da-tijuca/acf6fa32-ee31-441c-8281-08ea2dbc5b06", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/acf6fa32-ee31-441c-8281-08ea2dbc5b06/202004271855_yBxF_i.jpg', 'Pizz! Pizza', '4.4', 'Pizza', '0.5 km', '35-45 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizz-pizza-barra-da-tijuca/acf6fa32-ee31-441c-8281-08ea2dbc5b06', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -6886,7 +6886,7 @@
       </c>
       <c r="T44" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/7449d7e4-2b9f-4e4b-97b3-58953f3ba679/202110201430_dG4Z_i.png", "Pocotó Pizzas - Barra da Tijuca", "4.6", "Pizza", "4.9 km", "44-54 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pocoto-pizzas---barra-da-tijuca-jacarepagua/7449d7e4-2b9f-4e4b-97b3-58953f3ba679", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/7449d7e4-2b9f-4e4b-97b3-58953f3ba679/202110201430_dG4Z_i.png', 'Pocotó Pizzas - Barra da Tijuca', '4.6', 'Pizza', '4.9 km', '44-54 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pocoto-pizzas---barra-da-tijuca-jacarepagua/7449d7e4-2b9f-4e4b-97b3-58953f3ba679', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -6958,7 +6958,7 @@
       </c>
       <c r="T45" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/e7e994d7-b708-4019-ab8a-2aa1c3960ad2/202105101347_WUKa_i.jpg", "Ruzztica", "4.5", "Pizza", "2.3 km", "30-40 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/ruzztica-barra-da-tijuca/e7e994d7-b708-4019-ab8a-2aa1c3960ad2", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/e7e994d7-b708-4019-ab8a-2aa1c3960ad2/202105101347_WUKa_i.jpg', 'Ruzztica', '4.5', 'Pizza', '2.3 km', '30-40 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/ruzztica-barra-da-tijuca/e7e994d7-b708-4019-ab8a-2aa1c3960ad2', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
@@ -7030,7 +7030,7 @@
       </c>
       <c r="T46" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/8f53d56d-e987-4019-b058-1f182fd526b0/202011092114_qDyu_.jpeg", "Babbo", "4.3", "Pizza", "1.1 km", "20-30 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/babbo-barra-da-tijuca/8f53d56d-e987-4019-b058-1f182fd526b0", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/8f53d56d-e987-4019-b058-1f182fd526b0/202011092114_qDyu_.jpeg', 'Babbo', '4.3', 'Pizza', '1.1 km', '20-30 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/babbo-barra-da-tijuca/8f53d56d-e987-4019-b058-1f182fd526b0', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="T47" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/e09879c6-4630-4d56-89ef-b161d29898c1/202103311448_zyFB_i.png", "Lambretta's Pizza", "4.6", "Pizza", "2.1 km", "35-45 min", "Grátis", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/lambrettas-pizza-barra-da-tijuca/e09879c6-4630-4d56-89ef-b161d29898c1", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/e09879c6-4630-4d56-89ef-b161d29898c1/202103311448_zyFB_i.png', 'Lambrettas Pizza', '4.6', 'Pizza', '2.1 km', '35-45 min', 'Grátis', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/lambrettas-pizza-barra-da-tijuca/e09879c6-4630-4d56-89ef-b161d29898c1', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="T48" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/063f119d-fd1a-4316-b228-ffe87ddae999/202106071652_wjsg_i.png", "Nuh Pizza e Pasta", "5.0", "Pizza", "5.6 km", "55-65 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/nuh-pizza-e-pasta-barra-da-tijuca/063f119d-fd1a-4316-b228-ffe87ddae999", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/063f119d-fd1a-4316-b228-ffe87ddae999/202106071652_wjsg_i.png', 'Nuh Pizza e Pasta', '5.0', 'Pizza', '5.6 km', '55-65 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/nuh-pizza-e-pasta-barra-da-tijuca/063f119d-fd1a-4316-b228-ffe87ddae999', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="T49" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/372e2ec5-85fb-4bc6-8636-28dda0790615/202007151850_8EWC_i.jpg", "Pizzas Fonseca", "4.6", "Pizza", "6.2 km", "26-36 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizzas-fonseca-jacarepagua/372e2ec5-85fb-4bc6-8636-28dda0790615", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/372e2ec5-85fb-4bc6-8636-28dda0790615/202007151850_8EWC_i.jpg', 'Pizzas Fonseca', '4.6', 'Pizza', '6.2 km', '26-36 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizzas-fonseca-jacarepagua/372e2ec5-85fb-4bc6-8636-28dda0790615', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="T50" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/16d902f8-5571-44d2-b7ee-03af210cecd5/201908082018_w1eG_.jpeg", "Primu'ss Pizzaria", "2.9", "Pizza", "9.8 km", "60-70 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/primuss-pizzaria-jacarepagua/16d902f8-5571-44d2-b7ee-03af210cecd5", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/16d902f8-5571-44d2-b7ee-03af210cecd5/201908082018_w1eG_.jpeg', 'Primuss Pizzaria', '2.9', 'Pizza', '9.8 km', '60-70 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/primuss-pizzaria-jacarepagua/16d902f8-5571-44d2-b7ee-03af210cecd5', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -7390,7 +7390,7 @@
       </c>
       <c r="T51" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/28435711-f350-4188-8d0e-d017a204ff00/202105261758_bqbH_.jpeg", "Sua Pizza - Downtown", "4.2", "Pizza", "1.9 km", "32-42 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sua-pizza---downtown-barra-da-tijuca/28435711-f350-4188-8d0e-d017a204ff00", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/28435711-f350-4188-8d0e-d017a204ff00/202105261758_bqbH_.jpeg', 'Sua Pizza - Downtown', '4.2', 'Pizza', '1.9 km', '32-42 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sua-pizza---downtown-barra-da-tijuca/28435711-f350-4188-8d0e-d017a204ff00', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="T52" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/88dcfb72-3443-46c6-b479-35388814be01/202108311842_LdmU_i.png", "Fenomena Pizza", "5.0", "Pizza", "2.8 km", "30-40 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/fenomena-pizza-barra-da-tijuca/88dcfb72-3443-46c6-b479-35388814be01", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/88dcfb72-3443-46c6-b479-35388814be01/202108311842_LdmU_i.png', 'Fenomena Pizza', '5.0', 'Pizza', '2.8 km', '30-40 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/fenomena-pizza-barra-da-tijuca/88dcfb72-3443-46c6-b479-35388814be01', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
@@ -7534,7 +7534,7 @@
       </c>
       <c r="T53" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/25cb2760-73ba-4c4c-9b67-fb54aeb66c0e/202104161626_JJM3_i.png", "Patroni - Barra Shopping", "4.3", "Pizza", "2.5 km", "36-46 min", "Grátis", "Cupom de R$ 5 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/patroni---barra-shopping-barra-da-tijuca/25cb2760-73ba-4c4c-9b67-fb54aeb66c0e", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/25cb2760-73ba-4c4c-9b67-fb54aeb66c0e/202104161626_JJM3_i.png', 'Patroni - Barra Shopping', '4.3', 'Pizza', '2.5 km', '36-46 min', 'Grátis', 'Cupom de R$ 5 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/patroni---barra-shopping-barra-da-tijuca/25cb2760-73ba-4c4c-9b67-fb54aeb66c0e', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="T54" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/05d0ec94-96b9-4ceb-a108-9635e1f5ae57/202010141010_et7V_i.jpg", "Forneria Garfo e Pizza", "4.7", "Pizza", "5.3 km", "26-36 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/forneria-garfo-e-pizza-jacarepagua/05d0ec94-96b9-4ceb-a108-9635e1f5ae57", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/05d0ec94-96b9-4ceb-a108-9635e1f5ae57/202010141010_et7V_i.jpg', 'Forneria Garfo e Pizza', '4.7', 'Pizza', '5.3 km', '26-36 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/forneria-garfo-e-pizza-jacarepagua/05d0ec94-96b9-4ceb-a108-9635e1f5ae57', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
@@ -7678,7 +7678,7 @@
       </c>
       <c r="T55" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/d22d11c6-7655-452a-aae4-db9436be702c/202108031640_HKSE_i.jpg", "Pizzaria do Samba", "4.7", "Pizza", "1.1 km", "30-40 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizzaria-do-samba-barra-da-tijuca/d22d11c6-7655-452a-aae4-db9436be702c", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/d22d11c6-7655-452a-aae4-db9436be702c/202108031640_HKSE_i.jpg', 'Pizzaria do Samba', '4.7', 'Pizza', '1.1 km', '30-40 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizzaria-do-samba-barra-da-tijuca/d22d11c6-7655-452a-aae4-db9436be702c', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
@@ -7750,7 +7750,7 @@
       </c>
       <c r="T56" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/e65ca96c-1b5f-48d2-bb3a-252d23d549cc/202109030037_o3iG_.jpeg", "Don Raphaello", "4.8", "Pizza", "8.7 km", "40-50 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/don-raphaello-curicica/e65ca96c-1b5f-48d2-bb3a-252d23d549cc", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/e65ca96c-1b5f-48d2-bb3a-252d23d549cc/202109030037_o3iG_.jpeg', 'Don Raphaello', '4.8', 'Pizza', '8.7 km', '40-50 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/don-raphaello-curicica/e65ca96c-1b5f-48d2-bb3a-252d23d549cc', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
@@ -7822,7 +7822,7 @@
       </c>
       <c r="T57" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/d4085253-2c53-450c-b8c5-ae3e86e557ed/202110150845_EdQj_.jpeg", "D' Roma Forneria", "4.7", "Pizza", "2.1 km", "30-40 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/d-roma-forneria-barra-da-tijuca/d4085253-2c53-450c-b8c5-ae3e86e557ed", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/d4085253-2c53-450c-b8c5-ae3e86e557ed/202110150845_EdQj_.jpeg', 'D Roma Forneria', '4.7', 'Pizza', '2.1 km', '30-40 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/d-roma-forneria-barra-da-tijuca/d4085253-2c53-450c-b8c5-ae3e86e557ed', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="T58" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/f00b0fc4-d47a-40ae-b57b-d3bc4b6b51dc/202109230144_QdXQ_i.jpg", "Pizzaria 021.rj", "4.8", "Pizza", "10.3 km", "45-55 min", "Grátis", "Cupom de R$ 5 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizzaria-021rj-tanque/f00b0fc4-d47a-40ae-b57b-d3bc4b6b51dc", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/f00b0fc4-d47a-40ae-b57b-d3bc4b6b51dc/202109230144_QdXQ_i.jpg', 'Pizzaria 021.rj', '4.8', 'Pizza', '10.3 km', '45-55 min', 'Grátis', 'Cupom de R$ 5 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizzaria-021rj-tanque/f00b0fc4-d47a-40ae-b57b-d3bc4b6b51dc', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -7966,7 +7966,7 @@
       </c>
       <c r="T59" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/70e967b4-b057-4b2d-bf95-dd0a3a843532/202109041304_1GGI_i.jpg", "Succosa Pizzeria Jacarepaguá", "4.9", "Pizza", "7.3 km", "30-40 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/succosa-pizzeria-jacarepagua-freguesia-de-jacarepagua/70e967b4-b057-4b2d-bf95-dd0a3a843532", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/70e967b4-b057-4b2d-bf95-dd0a3a843532/202109041304_1GGI_i.jpg', 'Succosa Pizzeria Jacarepaguá', '4.9', 'Pizza', '7.3 km', '30-40 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/succosa-pizzeria-jacarepagua-freguesia-de-jacarepagua/70e967b4-b057-4b2d-bf95-dd0a3a843532', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
@@ -8038,7 +8038,7 @@
       </c>
       <c r="T60" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/09a6c334-c595-4d61-a557-9e5d0165cb25/202105281049_KoYw_.jpeg", "Sua Pizza - Peninsula", "3.9", "Pizza", "2.0 km", "42-52 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sua-pizza---peninsula-barra-da-tijuca/09a6c334-c595-4d61-a557-9e5d0165cb25", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/09a6c334-c595-4d61-a557-9e5d0165cb25/202105281049_KoYw_.jpeg', 'Sua Pizza - Peninsula', '3.9', 'Pizza', '2.0 km', '42-52 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sua-pizza---peninsula-barra-da-tijuca/09a6c334-c595-4d61-a557-9e5d0165cb25', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="T61" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/1511c485-3d86-4549-8642-6736f71b976a/202010151336_RXPR_i.jpg", "Pensou Pizza", "4.3", "Pizza", "3.5 km", "50-60 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pensou-pizza-itanhanga/1511c485-3d86-4549-8642-6736f71b976a", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/1511c485-3d86-4549-8642-6736f71b976a/202010151336_RXPR_i.jpg', 'Pensou Pizza', '4.3', 'Pizza', '3.5 km', '50-60 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pensou-pizza-itanhanga/1511c485-3d86-4549-8642-6736f71b976a', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
@@ -8182,7 +8182,7 @@
       </c>
       <c r="T62" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/7d11182c-3093-41c4-97a9-5f69d77f5007/202109272210_Dkqc_.jpeg", "Destemida Pizza - Barra da Tijuca", "4.9", "Pizza", "5.8 km", "40-50 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/destemida-pizza---barra-da-tijuca-jacarepagua/7d11182c-3093-41c4-97a9-5f69d77f5007", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/7d11182c-3093-41c4-97a9-5f69d77f5007/202109272210_Dkqc_.jpeg', 'Destemida Pizza - Barra da Tijuca', '4.9', 'Pizza', '5.8 km', '40-50 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/destemida-pizza---barra-da-tijuca-jacarepagua/7d11182c-3093-41c4-97a9-5f69d77f5007', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
@@ -8254,7 +8254,7 @@
       </c>
       <c r="T63" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/315137f5-2698-4723-8a5e-f98669afb7fb/202102011420_4WMm_i.jpg", "Deli Delivery", "4.3", "Pizza", "1.4 km", "40-50 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/deli-delivery-barra-da-tijuca/315137f5-2698-4723-8a5e-f98669afb7fb", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/315137f5-2698-4723-8a5e-f98669afb7fb/202102011420_4WMm_i.jpg', 'Deli Delivery', '4.3', 'Pizza', '1.4 km', '40-50 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/deli-delivery-barra-da-tijuca/315137f5-2698-4723-8a5e-f98669afb7fb', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
@@ -8326,7 +8326,7 @@
       </c>
       <c r="T64" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/6100af95-be9c-4853-be6d-38e15ae031b8/202104270702_ehMb_i.png", "Hospizza", "4.5", "Pizza", "0.7 km", "36-46 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/hospizza-barra-da-tijuca/6100af95-be9c-4853-be6d-38e15ae031b8", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/6100af95-be9c-4853-be6d-38e15ae031b8/202104270702_ehMb_i.png', 'Hospizza', '4.5', 'Pizza', '0.7 km', '36-46 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/hospizza-barra-da-tijuca/6100af95-be9c-4853-be6d-38e15ae031b8', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="T65" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/d644c7bc-fc6f-457e-a4c4-c6ddc656f6ae/202109281520_a29U_i.png", "Audacias Pizzaria", "5.0", "Pizza", "3.2 km", "30-40 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/audacias-pizzaria-barra-da-tijuca/d644c7bc-fc6f-457e-a4c4-c6ddc656f6ae", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/d644c7bc-fc6f-457e-a4c4-c6ddc656f6ae/202109281520_a29U_i.png', 'Audacias Pizzaria', '5.0', 'Pizza', '3.2 km', '30-40 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/audacias-pizzaria-barra-da-tijuca/d644c7bc-fc6f-457e-a4c4-c6ddc656f6ae', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
@@ -8470,7 +8470,7 @@
       </c>
       <c r="T66" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/0e39cf76-0292-4c11-80ab-3c228634ec15/202109161913_AdcE_i.png", "Pizzaria Ocean Garden", "Novo!", "Pizza", "2.1 km", "30-40 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizzaria-ocean-garden-barra-da-tijuca/0e39cf76-0292-4c11-80ab-3c228634ec15", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/0e39cf76-0292-4c11-80ab-3c228634ec15/202109161913_AdcE_i.png', 'Pizzaria Ocean Garden', 'Novo!', 'Pizza', '2.1 km', '30-40 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizzaria-ocean-garden-barra-da-tijuca/0e39cf76-0292-4c11-80ab-3c228634ec15', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="T67" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/a1a35b2e-d400-4088-b100-70530a942f6a/202008042106_70Ny_.jpeg", "Pizzaria Delivery J R", "3.3", "Pizza", "1.9 km", "50-60 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizzaria-delivery-j-r-itanhanga/a1a35b2e-d400-4088-b100-70530a942f6a", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/a1a35b2e-d400-4088-b100-70530a942f6a/202008042106_70Ny_.jpeg', 'Pizzaria Delivery J R', '3.3', 'Pizza', '1.9 km', '50-60 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizzaria-delivery-j-r-itanhanga/a1a35b2e-d400-4088-b100-70530a942f6a', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
@@ -8614,7 +8614,7 @@
       </c>
       <c r="T68" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/28cb60eb-ead3-43ce-bf40-6b06b14acf68/202106261228_20H2_i.png", "Parmê - Barra da Tijuca", "4.5", "Pizza", "3.0 km", "26-36 min", "R$ 8,49", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/parme---barra-da-tijuca-barra-da-tijuca/28cb60eb-ead3-43ce-bf40-6b06b14acf68", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/28cb60eb-ead3-43ce-bf40-6b06b14acf68/202106261228_20H2_i.png', 'Parmê - Barra da Tijuca', '4.5', 'Pizza', '3.0 km', '26-36 min', 'R$ 8,49', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/parme---barra-da-tijuca-barra-da-tijuca/28cb60eb-ead3-43ce-bf40-6b06b14acf68', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
@@ -8686,7 +8686,7 @@
       </c>
       <c r="T69" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/Parm%C3%AA_PARME_IJUCA.PNG", "Parmê Barra da Tijuca", "4.4", "Pizza", "3.0 km", "39-49 min", "R$ 9,80", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/parme-barra-da-tijuca-barra-da-tijuca/0d0ebceb-d639-4f40-bfa6-dfe678570444", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/Parm%C3%AA_PARME_IJUCA.PNG', 'Parmê Barra da Tijuca', '4.4', 'Pizza', '3.0 km', '39-49 min', 'R$ 9,80', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/parme-barra-da-tijuca-barra-da-tijuca/0d0ebceb-d639-4f40-bfa6-dfe678570444', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="T70" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/c7399cf1-ad41-4a48-8f34-e1da756863af/202110011408_2rrn_.jpeg", "Forneria Gagliasso", "4.7", "Pizza", "2.3 km", "25-35 min", "R$ 5,90", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/forneria-gagliasso-barra-da-tijuca/c7399cf1-ad41-4a48-8f34-e1da756863af", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/c7399cf1-ad41-4a48-8f34-e1da756863af/202110011408_2rrn_.jpeg', 'Forneria Gagliasso', '4.7', 'Pizza', '2.3 km', '25-35 min', 'R$ 5,90', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/forneria-gagliasso-barra-da-tijuca/c7399cf1-ad41-4a48-8f34-e1da756863af', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
@@ -8830,7 +8830,7 @@
       </c>
       <c r="T71" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/08269d63-b128-47c7-a4f8-7bd938cc5ef1/202005211412_WlPy_i.jpg", "Pizza Legal", "4.6", "Pizza", "3.5 km", "33-43 min", "R$ 7,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizza-legal-barra-da-tijuca/08269d63-b128-47c7-a4f8-7bd938cc5ef1", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/08269d63-b128-47c7-a4f8-7bd938cc5ef1/202005211412_WlPy_i.jpg', 'Pizza Legal', '4.6', 'Pizza', '3.5 km', '33-43 min', 'R$ 7,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizza-legal-barra-da-tijuca/08269d63-b128-47c7-a4f8-7bd938cc5ef1', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
@@ -8901,8 +8901,8 @@
         <v>1152</v>
       </c>
       <c r="T72" t="str">
-        <f t="shared" ref="T72:T135" si="263">_xlfn.CONCAT("INSERT INTO t_restaurante (","id_restaurante,  ","ds_img_restaurante,  ","nm_restaurante,  ","nr_rating_restaurante,  ","ds_tipo_restaurante,  ","nr_dist_restaurante,  ","ds_prazo_restaurante,  ","ds_frete_restaurante,  ","ds_desc_restaurante,  ","ds_url_restaurante, ","nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  """,C72,""", """,A72,""", """,E72,""", """,G72,""", """,I72,""", """,K72,""", """,M72,""", """,O72,""", """,Q72,""", """,S72,""");")</f>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/839b8a8c-7137-4b52-bd5b-2e14e0106dbf/202011301229_rkVy_.jpeg", "Pura Pizza Fit Casa Shopping", "4.4", "Pizza", "3.2 km", "50-60 min", "R$ 7,99", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pura-pizza-fit-casa-shopping-barra-da-tiuca/839b8a8c-7137-4b52-bd5b-2e14e0106dbf", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <f t="shared" ref="T72:T135" si="263">_xlfn.CONCAT("INSERT INTO t_restaurante (","id_rest,  ","ds_img_rest,  ","nm_rest,  ","nr_rat_rest,  ","ds_tipo_rest,  ","nr_dist_rest,  ","ds_prazo_rest,  ","ds_frete_rest,  ","ds_desc_rest,  ","ds_url_rest, ","nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  '",C72,"', '",SUBSTITUTE(A72,"'",""),"', '",E72,"', '",G72,"', '",I72,"', '",K72,"', '",M72,"', '",O72,"', '",Q72,"', '",S72,"');")</f>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/839b8a8c-7137-4b52-bd5b-2e14e0106dbf/202011301229_rkVy_.jpeg', 'Pura Pizza Fit Casa Shopping', '4.4', 'Pizza', '3.2 km', '50-60 min', 'R$ 7,99', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pura-pizza-fit-casa-shopping-barra-da-tiuca/839b8a8c-7137-4b52-bd5b-2e14e0106dbf', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
@@ -8974,7 +8974,7 @@
       </c>
       <c r="T73" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/202008281332_9c210c8f-5dfe-44bb-a47b-09e90293b3ff.jpg", "Pizza Hut - Jardim Oceânico", "4.5", "Pizza", "3.2 km", "37-47 min", "R$ 13,99", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizza-hut---jardim-oceanico-barra-da-tijuca/9c210c8f-5dfe-44bb-a47b-09e90293b3ff", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/202008281332_9c210c8f-5dfe-44bb-a47b-09e90293b3ff.jpg', 'Pizza Hut - Jardim Oceânico', '4.5', 'Pizza', '3.2 km', '37-47 min', 'R$ 13,99', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizza-hut---jardim-oceanico-barra-da-tijuca/9c210c8f-5dfe-44bb-a47b-09e90293b3ff', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="T74" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/3928143a-e109-4e9b-84b2-bde9f60a0cbd/201901021956_image.jpg", "Habitué Pizzas Fit - Barra", "4.8", "Pizza", "4.5 km", "60-70 min", "R$ 12,00", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/habitue-pizzas-fit---barra-barra-da-tijuca/3928143a-e109-4e9b-84b2-bde9f60a0cbd", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/3928143a-e109-4e9b-84b2-bde9f60a0cbd/201901021956_image.jpg', 'Habitué Pizzas Fit - Barra', '4.8', 'Pizza', '4.5 km', '60-70 min', 'R$ 12,00', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/habitue-pizzas-fit---barra-barra-da-tijuca/3928143a-e109-4e9b-84b2-bde9f60a0cbd', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
@@ -9118,7 +9118,7 @@
       </c>
       <c r="T75" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/99567ebc-d32a-42a5-a3ed-ed6c02b13115/201902182117_marca.jpg", "Fiammetta - Barra", "4.2", "Pizza", "2.5 km", "27-37 min", "R$ 9,99", "Peça 5 vezes, ganhe R$ 30", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/fiammetta---barra-barra-da-tijuca/99567ebc-d32a-42a5-a3ed-ed6c02b13115", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/99567ebc-d32a-42a5-a3ed-ed6c02b13115/201902182117_marca.jpg', 'Fiammetta - Barra', '4.2', 'Pizza', '2.5 km', '27-37 min', 'R$ 9,99', 'Peça 5 vezes, ganhe R$ 30', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/fiammetta---barra-barra-da-tijuca/99567ebc-d32a-42a5-a3ed-ed6c02b13115', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="T76" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/d9e7a31d-a59e-4e79-b100-ab1f0dc41402/202005221325_dGno_i.jpg", "Pizza Legal - Barra", "4.7", "Pizza", "3.5 km", "43-53 min", "R$ 7,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizza-legal---barra-itanhanga/d9e7a31d-a59e-4e79-b100-ab1f0dc41402", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/d9e7a31d-a59e-4e79-b100-ab1f0dc41402/202005221325_dGno_i.jpg', 'Pizza Legal - Barra', '4.7', 'Pizza', '3.5 km', '43-53 min', 'R$ 7,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizza-legal---barra-itanhanga/d9e7a31d-a59e-4e79-b100-ab1f0dc41402', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
@@ -9262,7 +9262,7 @@
       </c>
       <c r="T77" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/1880c2d2-e7ad-4c43-b812-b7e2a64ed56d/202010122248_AhPt_.jpeg", "Bueno Forno", "4.9", "Pizza", "7.1 km", "34-44 min", "R$ 7,00", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/bueno-forno-barra-da-tijuca/1880c2d2-e7ad-4c43-b812-b7e2a64ed56d", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/1880c2d2-e7ad-4c43-b812-b7e2a64ed56d/202010122248_AhPt_.jpeg', 'Bueno Forno', '4.9', 'Pizza', '7.1 km', '34-44 min', 'R$ 7,00', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/bueno-forno-barra-da-tijuca/1880c2d2-e7ad-4c43-b812-b7e2a64ed56d', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="T78" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/35bd18ff-7223-4c49-ac13-bd68075de035/202007151626_K6Cm_i.png", "Patroni - Via Parque", "4.7", "Pizza", "3.8 km", "48-58 min", "R$ 9,49", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/patroni---via-parque-barra-da-tijuca/35bd18ff-7223-4c49-ac13-bd68075de035", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/35bd18ff-7223-4c49-ac13-bd68075de035/202007151626_K6Cm_i.png', 'Patroni - Via Parque', '4.7', 'Pizza', '3.8 km', '48-58 min', 'R$ 9,49', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/patroni---via-parque-barra-da-tijuca/35bd18ff-7223-4c49-ac13-bd68075de035', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -9406,7 +9406,7 @@
       </c>
       <c r="T79" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/4b3ad27a-d351-4f7c-9533-c98630b3f67d/202110241651_7L7l_i.png", "Casa da Pizza Original", "4.8", "Pizza", "8.1 km", "59-69 min", "R$ 7,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/casa-da-pizza-original-curicica/4b3ad27a-d351-4f7c-9533-c98630b3f67d", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/4b3ad27a-d351-4f7c-9533-c98630b3f67d/202110241651_7L7l_i.png', 'Casa da Pizza Original', '4.8', 'Pizza', '8.1 km', '59-69 min', 'R$ 7,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/casa-da-pizza-original-curicica/4b3ad27a-d351-4f7c-9533-c98630b3f67d', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
@@ -9478,7 +9478,7 @@
       </c>
       <c r="T80" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/b0d8fb67-5b48-4372-8289-851fd0c554c7/202008110239_Gtcp_i.jpg", "San's Forneria", "4.5", "Pizza", "7.4 km", "60-70 min", "R$ 7,90", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sans-forneria-jacarepagua/b0d8fb67-5b48-4372-8289-851fd0c554c7", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/b0d8fb67-5b48-4372-8289-851fd0c554c7/202008110239_Gtcp_i.jpg', 'Sans Forneria', '4.5', 'Pizza', '7.4 km', '60-70 min', 'R$ 7,90', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sans-forneria-jacarepagua/b0d8fb67-5b48-4372-8289-851fd0c554c7', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
@@ -9550,7 +9550,7 @@
       </c>
       <c r="T81" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/9fa575b2-c09e-4c7c-af8b-7f09b209771b/202102232138_1bOP_i.jpg", "Empório D'itália Unidade Barra da Tijuca", "4.7", "Pizza", "2.6 km", "45-55 min", "R$ 5,99", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/emporio-ditalia-unidade-barra-da-tijuca-barra-da-tijuca/9fa575b2-c09e-4c7c-af8b-7f09b209771b", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/9fa575b2-c09e-4c7c-af8b-7f09b209771b/202102232138_1bOP_i.jpg', 'Empório Ditália Unidade Barra da Tijuca', '4.7', 'Pizza', '2.6 km', '45-55 min', 'R$ 5,99', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/emporio-ditalia-unidade-barra-da-tijuca-barra-da-tijuca/9fa575b2-c09e-4c7c-af8b-7f09b209771b', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
@@ -9622,7 +9622,7 @@
       </c>
       <c r="T82" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/fffc5272-254a-489c-96d7-d2e860ee2ff2/202010121055_9qVK_i.png", "Oliva D'oro", "4.9", "Pizza", "8.0 km", "45-55 min", "R$ 8,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/oliva-doro-sao-conrado/fffc5272-254a-489c-96d7-d2e860ee2ff2", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/fffc5272-254a-489c-96d7-d2e860ee2ff2/202010121055_9qVK_i.png', 'Oliva Doro', '4.9', 'Pizza', '8.0 km', '45-55 min', 'R$ 8,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/oliva-doro-sao-conrado/fffc5272-254a-489c-96d7-d2e860ee2ff2', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="T83" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/d87c1933-8d97-46ac-838f-84bf40954ac3/202101241419_pS8k_.jpeg", "Fina Pasta - Mundo Novo", "4.5", "Pizza", "5.9 km", "54-64 min", "R$ 8,99", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/fina-pasta---mundo-novo-barra-da-tijuca/d87c1933-8d97-46ac-838f-84bf40954ac3", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/d87c1933-8d97-46ac-838f-84bf40954ac3/202101241419_pS8k_.jpeg', 'Fina Pasta - Mundo Novo', '4.5', 'Pizza', '5.9 km', '54-64 min', 'R$ 8,99', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/fina-pasta---mundo-novo-barra-da-tijuca/d87c1933-8d97-46ac-838f-84bf40954ac3', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="T84" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/0d997c86-f938-4a03-a8f6-85ee18236a54/202004031535_Ud4R_i.png", "Pecorino Pizza Napoletana - Barra Shop.", "4.2", "Pizza", "2.2 km", "37-47 min", "R$ 6,99", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pecorino-pizza-napoletana---barra-shop-barra-da-tijuca/0d997c86-f938-4a03-a8f6-85ee18236a54", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/0d997c86-f938-4a03-a8f6-85ee18236a54/202004031535_Ud4R_i.png', 'Pecorino Pizza Napoletana - Barra Shop.', '4.2', 'Pizza', '2.2 km', '37-47 min', 'R$ 6,99', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pecorino-pizza-napoletana---barra-shop-barra-da-tijuca/0d997c86-f938-4a03-a8f6-85ee18236a54', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
@@ -9838,7 +9838,7 @@
       </c>
       <c r="T85" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/fc86a9ea-f67d-4241-80cd-0cc2967f0ac0/202003211659_gVpQ_i.jpg", "Nonna Per Heaven", "4.5", "Pizza", "6.2 km", "55-65 min", "R$ 12,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/nonna-per-heaven-barra-da-tijuca/fc86a9ea-f67d-4241-80cd-0cc2967f0ac0", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/fc86a9ea-f67d-4241-80cd-0cc2967f0ac0/202003211659_gVpQ_i.jpg', 'Nonna Per Heaven', '4.5', 'Pizza', '6.2 km', '55-65 min', 'R$ 12,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/nonna-per-heaven-barra-da-tijuca/fc86a9ea-f67d-4241-80cd-0cc2967f0ac0', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
@@ -9910,7 +9910,7 @@
       </c>
       <c r="T86" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/d48f1fe1-9513-4599-a651-7356dcbf890b/201905172357_NZVn_i.jpg", "Di Fernando Pizzaria", "4.8", "Pizza", "5.6 km", "49-59 min", "R$ 9,90", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/di-fernando-pizzaria-barra-da-tijuca/d48f1fe1-9513-4599-a651-7356dcbf890b", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/d48f1fe1-9513-4599-a651-7356dcbf890b/201905172357_NZVn_i.jpg', 'Di Fernando Pizzaria', '4.8', 'Pizza', '5.6 km', '49-59 min', 'R$ 9,90', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/di-fernando-pizzaria-barra-da-tijuca/d48f1fe1-9513-4599-a651-7356dcbf890b', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
@@ -9982,7 +9982,7 @@
       </c>
       <c r="T87" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/f2f375d4-f17f-4217-a350-520206619d73/202011120930_Cstu_i.jpg", "Z de Pizza - Barra", "4.0", "Pizza", "3.0 km", "62-72 min", "R$ 7,99", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/z-de-pizza---barra-barra-da-tijuca/f2f375d4-f17f-4217-a350-520206619d73", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/f2f375d4-f17f-4217-a350-520206619d73/202011120930_Cstu_i.jpg', 'Z de Pizza - Barra', '4.0', 'Pizza', '3.0 km', '62-72 min', 'R$ 7,99', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/z-de-pizza---barra-barra-da-tijuca/f2f375d4-f17f-4217-a350-520206619d73', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
@@ -10054,7 +10054,7 @@
       </c>
       <c r="T88" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/cf218185-01a0-47b5-9a74-6fd7bce34d3f/201901311719_28d15.jpg", "Fiesoli Pizzaria", "4.9", "Pizza", "6.8 km", "44-54 min", "R$ 15,00", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/fiesoli-pizzaria-jacarepagua/cf218185-01a0-47b5-9a74-6fd7bce34d3f", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/cf218185-01a0-47b5-9a74-6fd7bce34d3f/201901311719_28d15.jpg', 'Fiesoli Pizzaria', '4.9', 'Pizza', '6.8 km', '44-54 min', 'R$ 15,00', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/fiesoli-pizzaria-jacarepagua/cf218185-01a0-47b5-9a74-6fd7bce34d3f', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
@@ -10126,7 +10126,7 @@
       </c>
       <c r="T89" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/f8d8cad5-f56f-4629-a81d-370ccd55ca8f_PIZZA_IJUC13.jpg", "Pizza Crek - Barra da Tijuca", "4.9", "Pizza", "5.0 km", "46-56 min", "R$ 15,99", "Cupom de R$ 5 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizza-crek---barra-da-tijuca-barra-da-tijuca/5a8ac7a2-cc8b-4c6a-abd4-e3f6cf791845", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/f8d8cad5-f56f-4629-a81d-370ccd55ca8f_PIZZA_IJUC13.jpg', 'Pizza Crek - Barra da Tijuca', '4.9', 'Pizza', '5.0 km', '46-56 min', 'R$ 15,99', 'Cupom de R$ 5 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizza-crek---barra-da-tijuca-barra-da-tijuca/5a8ac7a2-cc8b-4c6a-abd4-e3f6cf791845', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
@@ -10198,7 +10198,7 @@
       </c>
       <c r="T90" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/b7604fc7-6bbc-4857-9caa-bfc32cc67661/202104081221_bs9V_.jpeg", "Pappa Jack Jardim Oceanico", "4.8", "Pizza", "2.1 km", "40-50 min", "R$ 9,80", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pappa-jack-jardim-oceanico-barra-da-tijuca/b7604fc7-6bbc-4857-9caa-bfc32cc67661", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/b7604fc7-6bbc-4857-9caa-bfc32cc67661/202104081221_bs9V_.jpeg', 'Pappa Jack Jardim Oceanico', '4.8', 'Pizza', '2.1 km', '40-50 min', 'R$ 9,80', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pappa-jack-jardim-oceanico-barra-da-tijuca/b7604fc7-6bbc-4857-9caa-bfc32cc67661', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="T91" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/d3339f1f-f467-44be-b756-698e462319d4/202106241933_qpqe_i.png", "Mania de Pizza - Barra", "4.3", "Pizza", "6.3 km", "40-50 min", "R$ 5,99", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/mania-de-pizza---barra-jacarepagua/d3339f1f-f467-44be-b756-698e462319d4", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/d3339f1f-f467-44be-b756-698e462319d4/202106241933_qpqe_i.png', 'Mania de Pizza - Barra', '4.3', 'Pizza', '6.3 km', '40-50 min', 'R$ 5,99', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/mania-de-pizza---barra-jacarepagua/d3339f1f-f467-44be-b756-698e462319d4', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
@@ -10342,7 +10342,7 @@
       </c>
       <c r="T92" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/a04886c8-b494-4485-8bc2-eace29eabc7b/202108111531_bCl7_i.png", "Rezende Pizza", "4.4", "Pizza", "11.8 km", "60-70 min", "R$ 10,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/rezende-pizza-taquara/a04886c8-b494-4485-8bc2-eace29eabc7b", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/a04886c8-b494-4485-8bc2-eace29eabc7b/202108111531_bCl7_i.png', 'Rezende Pizza', '4.4', 'Pizza', '11.8 km', '60-70 min', 'R$ 10,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/rezende-pizza-taquara/a04886c8-b494-4485-8bc2-eace29eabc7b', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
@@ -10414,7 +10414,7 @@
       </c>
       <c r="T93" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/03a8d09e-247c-4f5f-913d-0033e9a22870/202103061627_O6w1_i.jpg", "Mamma Nostra Pizzaria", "4.5", "Pizza", "5.2 km", "60-70 min", "R$ 10,00", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/mamma-nostra-pizzaria-gardenia-azul/03a8d09e-247c-4f5f-913d-0033e9a22870", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/03a8d09e-247c-4f5f-913d-0033e9a22870/202103061627_O6w1_i.jpg', 'Mamma Nostra Pizzaria', '4.5', 'Pizza', '5.2 km', '60-70 min', 'R$ 10,00', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/mamma-nostra-pizzaria-gardenia-azul/03a8d09e-247c-4f5f-913d-0033e9a22870', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
@@ -10486,7 +10486,7 @@
       </c>
       <c r="T94" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/998152bd-ec45-4bc3-b342-1f947cefdc7f/202009291316_8fRz_i.jpg", "Expresso Pizza Itanhangá", "4.6", "Pizza", "4.0 km", "35-45 min", "R$ 8,00", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/expresso-pizza--itanhanga-itanhanga/998152bd-ec45-4bc3-b342-1f947cefdc7f", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/998152bd-ec45-4bc3-b342-1f947cefdc7f/202009291316_8fRz_i.jpg', 'Expresso Pizza Itanhangá', '4.6', 'Pizza', '4.0 km', '35-45 min', 'R$ 8,00', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/expresso-pizza--itanhanga-itanhanga/998152bd-ec45-4bc3-b342-1f947cefdc7f', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
@@ -10558,7 +10558,7 @@
       </c>
       <c r="T95" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/cdee91e4-bbec-404d-9eed-7e2708408395/201908141605_0dcm_i.jpg", "Di Parma Pizza Delivery", "3.8", "Pizza", "9.4 km", "50-60 min", "R$ 14,00", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/di-parma-pizza-delivery-taquara/cdee91e4-bbec-404d-9eed-7e2708408395", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/cdee91e4-bbec-404d-9eed-7e2708408395/201908141605_0dcm_i.jpg', 'Di Parma Pizza Delivery', '3.8', 'Pizza', '9.4 km', '50-60 min', 'R$ 14,00', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/di-parma-pizza-delivery-taquara/cdee91e4-bbec-404d-9eed-7e2708408395', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
@@ -10630,7 +10630,7 @@
       </c>
       <c r="T96" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/ac983d77-5051-4502-a397-e0be98d423d5/202107031939_Np5f_.jpeg", "Pizza Crunchy - Recreio", "4.7", "Pizza", "10.9 km", "56-66 min", "R$ 10,00", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizza-crunchy---recreio-recreio-dos-bandeirantes/ac983d77-5051-4502-a397-e0be98d423d5", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/ac983d77-5051-4502-a397-e0be98d423d5/202107031939_Np5f_.jpeg', 'Pizza Crunchy - Recreio', '4.7', 'Pizza', '10.9 km', '56-66 min', 'R$ 10,00', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizza-crunchy---recreio-recreio-dos-bandeirantes/ac983d77-5051-4502-a397-e0be98d423d5', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
@@ -10702,7 +10702,7 @@
       </c>
       <c r="T97" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/2055c848-fd29-49f0-a642-2cbb2044882d/202006221745_qIns_i.png", "Figurati Pizzaria", "4.8", "Pizza", "10.2 km", "39-49 min", "R$ 10,00", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/figurati-pizzaria-taquara/2055c848-fd29-49f0-a642-2cbb2044882d", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/2055c848-fd29-49f0-a642-2cbb2044882d/202006221745_qIns_i.png', 'Figurati Pizzaria', '4.8', 'Pizza', '10.2 km', '39-49 min', 'R$ 10,00', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/figurati-pizzaria-taquara/2055c848-fd29-49f0-a642-2cbb2044882d', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
@@ -10774,7 +10774,7 @@
       </c>
       <c r="T98" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/9f241705-15e5-4fbe-98a0-b809bcb61e96/202106021455_wxV9_i.jpg", "Turino Express Barra", "4.6", "Pizza", "4.9 km", "34-44 min", "R$ 13,99", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/turino-express-barra-jacarepagua/9f241705-15e5-4fbe-98a0-b809bcb61e96", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/9f241705-15e5-4fbe-98a0-b809bcb61e96/202106021455_wxV9_i.jpg', 'Turino Express Barra', '4.6', 'Pizza', '4.9 km', '34-44 min', 'R$ 13,99', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/turino-express-barra-jacarepagua/9f241705-15e5-4fbe-98a0-b809bcb61e96', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
@@ -10846,7 +10846,7 @@
       </c>
       <c r="T99" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/6ffc72b1-4c42-4085-b3ee-8f4ee46207c0/202102190150_j2ay_i.jpg", "Pizza Gourmet Rio", "4.6", "Pizza", "8.1 km", "59-69 min", "R$ 7,00", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizza-gourmet-rio-curicica/6ffc72b1-4c42-4085-b3ee-8f4ee46207c0", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/6ffc72b1-4c42-4085-b3ee-8f4ee46207c0/202102190150_j2ay_i.jpg', 'Pizza Gourmet Rio', '4.6', 'Pizza', '8.1 km', '59-69 min', 'R$ 7,00', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizza-gourmet-rio-curicica/6ffc72b1-4c42-4085-b3ee-8f4ee46207c0', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
@@ -10918,7 +10918,7 @@
       </c>
       <c r="T100" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/201805051116_6983ed80-8c4b-48f1-b9d7-f23132182862.png", "Pizzaria Falabella", "4.8", "Pizza", "11.5 km", "40-50 min", "R$ 8,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizzaria-falabella-recreio-dos-bandeirantes/6983ed80-8c4b-48f1-b9d7-f23132182862", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/201805051116_6983ed80-8c4b-48f1-b9d7-f23132182862.png', 'Pizzaria Falabella', '4.8', 'Pizza', '11.5 km', '40-50 min', 'R$ 8,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizzaria-falabella-recreio-dos-bandeirantes/6983ed80-8c4b-48f1-b9d7-f23132182862', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="T101" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/201905292134_669b70a0-019f-43ee-aa69-42ac81872552.jpg", "Pizzeria Prego", "4.6", "Pizza", "5.1 km", "45-55 min", "R$ 15,00", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizzeria-prego-jacarepagua/669b70a0-019f-43ee-aa69-42ac81872552", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/201905292134_669b70a0-019f-43ee-aa69-42ac81872552.jpg', 'Pizzeria Prego', '4.6', 'Pizza', '5.1 km', '45-55 min', 'R$ 15,00', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pizzeria-prego-jacarepagua/669b70a0-019f-43ee-aa69-42ac81872552', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
@@ -11062,7 +11062,7 @@
       </c>
       <c r="T102" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/131074ff-bebc-4c46-963d-8bb96ea1538e/202109161853_69fO_i.png", "Vibrazione la Pizzeria - Barra", "4.7", "Pizza", "0.4 km", "51-61 min", "R$ 7,49", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/vibrazione-la-pizzeria---barra-barra-da-tijuca/131074ff-bebc-4c46-963d-8bb96ea1538e", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/131074ff-bebc-4c46-963d-8bb96ea1538e/202109161853_69fO_i.png', 'Vibrazione la Pizzeria - Barra', '4.7', 'Pizza', '0.4 km', '51-61 min', 'R$ 7,49', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/vibrazione-la-pizzeria---barra-barra-da-tijuca/131074ff-bebc-4c46-963d-8bb96ea1538e', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
@@ -11134,7 +11134,7 @@
       </c>
       <c r="T103" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/logo_specialle01.jpg", "Forneria Specialle", "4.9", "Pizza", "9.5 km", "30-40 min", "R$ 8,00", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/forneria-specialle-barra-da-tijuca/f97d6333-0ddc-46aa-9474-09fa4e39239e", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/logo_specialle01.jpg', 'Forneria Specialle', '4.9', 'Pizza', '9.5 km', '30-40 min', 'R$ 8,00', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/forneria-specialle-barra-da-tijuca/f97d6333-0ddc-46aa-9474-09fa4e39239e', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
@@ -11206,7 +11206,7 @@
       </c>
       <c r="T104" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/c19fa246-663f-411d-8631-67cecf3f8da8/202101281457_yQaO_i.png", "Amici Pizzeria", "4.8", "Pizza", "4.9 km", "40-50 min", "R$ 11,90", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/amici-pizzeria-barra-da-tijuca/c19fa246-663f-411d-8631-67cecf3f8da8", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/c19fa246-663f-411d-8631-67cecf3f8da8/202101281457_yQaO_i.png', 'Amici Pizzeria', '4.8', 'Pizza', '4.9 km', '40-50 min', 'R$ 11,90', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/amici-pizzeria-barra-da-tijuca/c19fa246-663f-411d-8631-67cecf3f8da8', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
@@ -11278,7 +11278,7 @@
       </c>
       <c r="T105" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/73eef2bf-5506-48c2-a434-93d9156724b0/202107201808_lGdn_i.png", "Taquara pizza", "3.9", "Pizza", "10.8 km", "40-50 min", "R$ 10,00", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/taquara-pizza-taquara/73eef2bf-5506-48c2-a434-93d9156724b0", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/73eef2bf-5506-48c2-a434-93d9156724b0/202107201808_lGdn_i.png', 'Taquara pizza', '3.9', 'Pizza', '10.8 km', '40-50 min', 'R$ 10,00', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/taquara-pizza-taquara/73eef2bf-5506-48c2-a434-93d9156724b0', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
@@ -11350,7 +11350,7 @@
       </c>
       <c r="T106" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/logo%20verde%20%281_porto_izzas.png", "Porto das Pizzas - Taquara", "3.9", "Pizza", "11.1 km", "60-70 min", "R$ 15,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/porto-das-pizzas---taquara-taquara/f94f2554-4e0f-4c7a-b7fe-bfa703f036da", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/logo%20verde%20%281_porto_izzas.png', 'Porto das Pizzas - Taquara', '3.9', 'Pizza', '11.1 km', '60-70 min', 'R$ 15,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/porto-das-pizzas---taquara-taquara/f94f2554-4e0f-4c7a-b7fe-bfa703f036da', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
@@ -11422,7 +11422,7 @@
       </c>
       <c r="T107" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/201911121449_8b256bf0-8611-434e-a2a9-eae0de39a9dc.png", "O Burguês - Burger Barra da Tijuca", "4.4", "Lanches", "1.2 km", "20-30 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/o-burgues---burger-barra-da-tijuca-barra-da-tijuca/8b256bf0-8611-434e-a2a9-eae0de39a9dc", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/201911121449_8b256bf0-8611-434e-a2a9-eae0de39a9dc.png', 'O Burguês - Burger Barra da Tijuca', '4.4', 'Lanches', '1.2 km', '20-30 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/o-burgues---burger-barra-da-tijuca-barra-da-tijuca/8b256bf0-8611-434e-a2a9-eae0de39a9dc', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
@@ -11494,7 +11494,7 @@
       </c>
       <c r="T108" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/47f079c8-0488-4783-8dc9-3d99ff1ac0ca/201909271652_3n85_i.jpg", "Asa Rio", "3.7", "Lanches", "3.2 km", "63-73 min", "R$ 6,90", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/asa-rio-barra-da-tijuca/47f079c8-0488-4783-8dc9-3d99ff1ac0ca", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/47f079c8-0488-4783-8dc9-3d99ff1ac0ca/201909271652_3n85_i.jpg', 'Asa Rio', '3.7', 'Lanches', '3.2 km', '63-73 min', 'R$ 6,90', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/asa-rio-barra-da-tijuca/47f079c8-0488-4783-8dc9-3d99ff1ac0ca', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
@@ -11566,7 +11566,7 @@
       </c>
       <c r="T109" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/04481085-4d3c-4f8d-b950-8be48ad2c0f7/202004171344_DapW_i.png", "Três Gordos", "4.6", "Lanches", "3.2 km", "46-56 min", "R$ 9,49", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/tres-gordos-barra-da-tijuca/04481085-4d3c-4f8d-b950-8be48ad2c0f7", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/04481085-4d3c-4f8d-b950-8be48ad2c0f7/202004171344_DapW_i.png', 'Três Gordos', '4.6', 'Lanches', '3.2 km', '46-56 min', 'R$ 9,49', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/tres-gordos-barra-da-tijuca/04481085-4d3c-4f8d-b950-8be48ad2c0f7', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
@@ -11638,7 +11638,7 @@
       </c>
       <c r="T110" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/202012151822_a5850515-6b21-47af-99cf-837613bc3c85.png", "Ex-Touro - Burger Barra", "4.7", "Lanches", "1.4 km", "20-30 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/ex-touro---burger-barra-barra-da-tijuca/a5850515-6b21-47af-99cf-837613bc3c85", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/202012151822_a5850515-6b21-47af-99cf-837613bc3c85.png', 'Ex-Touro - Burger Barra', '4.7', 'Lanches', '1.4 km', '20-30 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/ex-touro---burger-barra-barra-da-tijuca/a5850515-6b21-47af-99cf-837613bc3c85', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.3">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="T111" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/e1fe2c10-41c9-4f99-8ffe-8a1dc015f2e6/202002071725_QOqm_i.jpg", "Cabana Burger Barra", "4.7", "Lanches", "2.3 km", "18-28 min", "R$ 9,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/cabana-burger-barra-barra-da-tijuca/e1fe2c10-41c9-4f99-8ffe-8a1dc015f2e6", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/e1fe2c10-41c9-4f99-8ffe-8a1dc015f2e6/202002071725_QOqm_i.jpg', 'Cabana Burger Barra', '4.7', 'Lanches', '2.3 km', '18-28 min', 'R$ 9,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/cabana-burger-barra-barra-da-tijuca/e1fe2c10-41c9-4f99-8ffe-8a1dc015f2e6', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
@@ -11782,7 +11782,7 @@
       </c>
       <c r="T112" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/65649486-8623-47a7-924c-851ea6cd51e4/202103221852_bj9x_i.png", "Rão Burger - Barra da Tijuca", "4.5", "Lanches", "0.4 km", "39-49 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/rao-burger---barra-da-tijuca-barra-da-tijuca/65649486-8623-47a7-924c-851ea6cd51e4", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/65649486-8623-47a7-924c-851ea6cd51e4/202103221852_bj9x_i.png', 'Rão Burger - Barra da Tijuca', '4.5', 'Lanches', '0.4 km', '39-49 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/rao-burger---barra-da-tijuca-barra-da-tijuca/65649486-8623-47a7-924c-851ea6cd51e4', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.3">
@@ -11854,7 +11854,7 @@
       </c>
       <c r="T113" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/431a1fa9-cd1d-4213-8123-03ca312be368/202109281327_emAX_i.jpg", "Hop N Burger - Barra", "4.4", "Lanches", "1.1 km", "29-39 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/hop-n-burger---barra-barra-da-tijuca/431a1fa9-cd1d-4213-8123-03ca312be368", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/431a1fa9-cd1d-4213-8123-03ca312be368/202109281327_emAX_i.jpg', 'Hop N Burger - Barra', '4.4', 'Lanches', '1.1 km', '29-39 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/hop-n-burger---barra-barra-da-tijuca/431a1fa9-cd1d-4213-8123-03ca312be368', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
@@ -11926,7 +11926,7 @@
       </c>
       <c r="T114" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/50205374-d363-4e79-9656-30701d37a072/201910181352_SKY6_i.png", "Boomerang Mix &amp; Pizzas - Barra", "4.5", "Lanches", "0.4 km", "29-39 min", "Grátis", "Peça 3 vezes, ganhe R$ 20", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/boomerang-mix--pizzas---barra-barra-da-tijuca/50205374-d363-4e79-9656-30701d37a072", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/50205374-d363-4e79-9656-30701d37a072/201910181352_SKY6_i.png', 'Boomerang Mix &amp; Pizzas - Barra', '4.5', 'Lanches', '0.4 km', '29-39 min', 'Grátis', 'Peça 3 vezes, ganhe R$ 20', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/boomerang-mix--pizzas---barra-barra-da-tijuca/50205374-d363-4e79-9656-30701d37a072', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
@@ -11998,7 +11998,7 @@
       </c>
       <c r="T115" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/73a28955-d01f-4c89-910f-672951a519af/202012061111_WV3A_i.jpg", "Don Burgone - Burger Barra da Tijuca", "4.4", "Lanches", "0.9 km", "20-30 min", "Grátis", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/don-burgone---burger-barra-da-tijuca-barra-da-tijuca/73a28955-d01f-4c89-910f-672951a519af", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/73a28955-d01f-4c89-910f-672951a519af/202012061111_WV3A_i.jpg', 'Don Burgone - Burger Barra da Tijuca', '4.4', 'Lanches', '0.9 km', '20-30 min', 'Grátis', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/don-burgone---burger-barra-da-tijuca-barra-da-tijuca/73a28955-d01f-4c89-910f-672951a519af', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.3">
@@ -12070,7 +12070,7 @@
       </c>
       <c r="T116" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/3e6c741f-826d-41c6-9b5c-7986af848aee/202009242355_bPKc_i.jpg", "Sandy's Burger", "4.6", "Lanches", "1.6 km", "20-30 min", "Grátis", "Peça 3 vezes, ganhe R$ 20", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sandys-burger-barra-da-tijuca/3e6c741f-826d-41c6-9b5c-7986af848aee", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/3e6c741f-826d-41c6-9b5c-7986af848aee/202009242355_bPKc_i.jpg', 'Sandys Burger', '4.6', 'Lanches', '1.6 km', '20-30 min', 'Grátis', 'Peça 3 vezes, ganhe R$ 20', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sandys-burger-barra-da-tijuca/3e6c741f-826d-41c6-9b5c-7986af848aee', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
@@ -12142,7 +12142,7 @@
       </c>
       <c r="T117" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/603c9c0c-8127-4c28-87cf-1ad3e9f1c84a/201907231833_v6CV_i.jpg", "Alex Lanches", "4.7", "Lanches", "3.4 km", "50-60 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/alex-lanches-itanhanga/603c9c0c-8127-4c28-87cf-1ad3e9f1c84a", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/603c9c0c-8127-4c28-87cf-1ad3e9f1c84a/201907231833_v6CV_i.jpg', 'Alex Lanches', '4.7', 'Lanches', '3.4 km', '50-60 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/alex-lanches-itanhanga/603c9c0c-8127-4c28-87cf-1ad3e9f1c84a', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
@@ -12214,7 +12214,7 @@
       </c>
       <c r="T118" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/aad1268f-5748-4f55-b989-78b523b9f115/201905150755_o6E2_i.jpg", "Mcdonald's - Freeway(frw)", "4.3", "Lanches", "0.7 km", "20-30 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/mcdonalds---freewayfrw-barra-da-tijuca/aad1268f-5748-4f55-b989-78b523b9f115", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/aad1268f-5748-4f55-b989-78b523b9f115/201905150755_o6E2_i.jpg', 'Mcdonalds - Freeway(frw)', '4.3', 'Lanches', '0.7 km', '20-30 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/mcdonalds---freewayfrw-barra-da-tijuca/aad1268f-5748-4f55-b989-78b523b9f115', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
@@ -12286,7 +12286,7 @@
       </c>
       <c r="T119" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/cc2d8331-3070-4fa6-947a-8fcbeac79458/202105051737_2Jj6_i.png", "Bob Beef - Burger Barra", "4.6", "Lanches", "2.6 km", "20-30 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/bob-beef---burger-barra-barra-da-tijuca/cc2d8331-3070-4fa6-947a-8fcbeac79458", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/cc2d8331-3070-4fa6-947a-8fcbeac79458/202105051737_2Jj6_i.png', 'Bob Beef - Burger Barra', '4.6', 'Lanches', '2.6 km', '20-30 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/bob-beef---burger-barra-barra-da-tijuca/cc2d8331-3070-4fa6-947a-8fcbeac79458', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
@@ -12358,7 +12358,7 @@
       </c>
       <c r="T120" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/a8e676ba-a451-4dee-a774-0927b8840b73/202104061938_UyLl_i.png", "Mcdonald's - Av. das Americas (aam)", "4.2", "Lanches", "0.5 km", "15-25 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/mcdonalds---av-das-americas-aam-barra-da-tijuca/a8e676ba-a451-4dee-a774-0927b8840b73", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/a8e676ba-a451-4dee-a774-0927b8840b73/202104061938_UyLl_i.png', 'Mcdonalds - Av. das Americas (aam)', '4.2', 'Lanches', '0.5 km', '15-25 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/mcdonalds---av-das-americas-aam-barra-da-tijuca/a8e676ba-a451-4dee-a774-0927b8840b73', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.3">
@@ -12430,7 +12430,7 @@
       </c>
       <c r="T121" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/ed4374db-9d89-40fa-966c-220fe0dbe75a/202011251709_GRNB_i.png", "Number One Chicken 🍗", "4.8", "Lanches", "3.0 km", "20-30 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/number-one-chicken--barra-da-tijuca/ed4374db-9d89-40fa-966c-220fe0dbe75a", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/ed4374db-9d89-40fa-966c-220fe0dbe75a/202011251709_GRNB_i.png', 'Number One Chicken 🍗', '4.8', 'Lanches', '3.0 km', '20-30 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/number-one-chicken--barra-da-tijuca/ed4374db-9d89-40fa-966c-220fe0dbe75a', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
@@ -12502,7 +12502,7 @@
       </c>
       <c r="T122" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/4348fcdc-b3ed-4097-8171-7ad133f7462b/202012101022_jEqe_.jpeg", "Sheesh! Smash Burgers &amp; Sanduíches", "4.7", "Lanches", "3.0 km", "50-60 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sheesh-smash-burgers--sanduiches-barra-da-tijuca/4348fcdc-b3ed-4097-8171-7ad133f7462b", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/4348fcdc-b3ed-4097-8171-7ad133f7462b/202012101022_jEqe_.jpeg', 'Sheesh! Smash Burgers &amp; Sanduíches', '4.7', 'Lanches', '3.0 km', '50-60 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sheesh-smash-burgers--sanduiches-barra-da-tijuca/4348fcdc-b3ed-4097-8171-7ad133f7462b', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
@@ -12574,7 +12574,7 @@
       </c>
       <c r="T123" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/86b78397-feb3-4098-9303-e06960a855a2/202012102146_KIKC_.jpeg", "Buzza Burguer", "4.6", "Lanches", "5.0 km", "35-45 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/buzza-burguer-jacarepagua/86b78397-feb3-4098-9303-e06960a855a2", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/86b78397-feb3-4098-9303-e06960a855a2/202012102146_KIKC_.jpeg', 'Buzza Burguer', '4.6', 'Lanches', '5.0 km', '35-45 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/buzza-burguer-jacarepagua/86b78397-feb3-4098-9303-e06960a855a2', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
@@ -12646,7 +12646,7 @@
       </c>
       <c r="T124" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/dacef2a0-f0d9-47a9-a4cf-391c5ba9b0a8/201802221533_sss.png", "Corte Hamburgueria Artesanal", "4.3", "Lanches", "5.4 km", "30-40 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/corte-hamburgueria-artesanal-gardenia-azul/dacef2a0-f0d9-47a9-a4cf-391c5ba9b0a8", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/dacef2a0-f0d9-47a9-a4cf-391c5ba9b0a8/201802221533_sss.png', 'Corte Hamburgueria Artesanal', '4.3', 'Lanches', '5.4 km', '30-40 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/corte-hamburgueria-artesanal-gardenia-azul/dacef2a0-f0d9-47a9-a4cf-391c5ba9b0a8', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.3">
@@ -12718,7 +12718,7 @@
       </c>
       <c r="T125" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/1ed22e4d-befe-4a08-a277-0f09e14fe011/202103221400_wg16_i.jpg", "Old School Pub &amp; Burger", "4.7", "Lanches", "11.5 km", "45-55 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/old-school-pub--burger-recreio-dos-bandeirantes/1ed22e4d-befe-4a08-a277-0f09e14fe011", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/1ed22e4d-befe-4a08-a277-0f09e14fe011/202103221400_wg16_i.jpg', 'Old School Pub &amp; Burger', '4.7', 'Lanches', '11.5 km', '45-55 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/old-school-pub--burger-recreio-dos-bandeirantes/1ed22e4d-befe-4a08-a277-0f09e14fe011', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.3">
@@ -12790,7 +12790,7 @@
       </c>
       <c r="T126" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/91f5bed6-b6a7-4cd4-a9a2-c7f093551a12/201908091637_8ZhH_i.jpg", "Petiscando", "4.2", "Lanches", "5.3 km", "60-70 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/petiscando-gardenia-azul/91f5bed6-b6a7-4cd4-a9a2-c7f093551a12", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/91f5bed6-b6a7-4cd4-a9a2-c7f093551a12/201908091637_8ZhH_i.jpg', 'Petiscando', '4.2', 'Lanches', '5.3 km', '60-70 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/petiscando-gardenia-azul/91f5bed6-b6a7-4cd4-a9a2-c7f093551a12', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
@@ -12862,7 +12862,7 @@
       </c>
       <c r="T127" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/7255cc78-b91c-47e6-9b73-e78dd60ee51f/202005160904_cJBh_i.jpg", "Hamburgueria Cariocão", "4.7", "Lanches", "8.5 km", "35-45 min", "Grátis", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/hamburgueria-cariocao-pechincha/7255cc78-b91c-47e6-9b73-e78dd60ee51f", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/7255cc78-b91c-47e6-9b73-e78dd60ee51f/202005160904_cJBh_i.jpg', 'Hamburgueria Cariocão', '4.7', 'Lanches', '8.5 km', '35-45 min', 'Grátis', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/hamburgueria-cariocao-pechincha/7255cc78-b91c-47e6-9b73-e78dd60ee51f', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.3">
@@ -12934,7 +12934,7 @@
       </c>
       <c r="T128" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/a396f8d4-d0c3-4f8a-a2b8-4cf07ca1b2e3/202105181511_4nN3_i.png", "Côrte Hamburgueria Jacarepagua", "4.7", "Lanches", "5.4 km", "30-40 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/corte-hamburgueria-jacarepagua-gardenia-azul/a396f8d4-d0c3-4f8a-a2b8-4cf07ca1b2e3", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/a396f8d4-d0c3-4f8a-a2b8-4cf07ca1b2e3/202105181511_4nN3_i.png', 'Côrte Hamburgueria Jacarepagua', '4.7', 'Lanches', '5.4 km', '30-40 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/corte-hamburgueria-jacarepagua-gardenia-azul/a396f8d4-d0c3-4f8a-a2b8-4cf07ca1b2e3', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
@@ -13006,7 +13006,7 @@
       </c>
       <c r="T129" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/af85209c-365b-40b1-8193-66ef4d6a0971/201911051812_niwN_i.jpg", "Hamburgueria 186", "4.2", "Lanches", "5.3 km", "60-70 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/hamburgueria-186-gardenia-azul/af85209c-365b-40b1-8193-66ef4d6a0971", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/af85209c-365b-40b1-8193-66ef4d6a0971/201911051812_niwN_i.jpg', 'Hamburgueria 186', '4.2', 'Lanches', '5.3 km', '60-70 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/hamburgueria-186-gardenia-azul/af85209c-365b-40b1-8193-66ef4d6a0971', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
@@ -13078,7 +13078,7 @@
       </c>
       <c r="T130" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/4bdd1ef5-8265-4a06-837f-98723b15b95b/202108151713_94uM_i.jpg", "Alex Lanches", "4.7", "Lanches", "2.2 km", "50-60 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/alex-lanches-itanhanga/4bdd1ef5-8265-4a06-837f-98723b15b95b", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/4bdd1ef5-8265-4a06-837f-98723b15b95b/202108151713_94uM_i.jpg', 'Alex Lanches', '4.7', 'Lanches', '2.2 km', '50-60 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/alex-lanches-itanhanga/4bdd1ef5-8265-4a06-837f-98723b15b95b', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.3">
@@ -13150,7 +13150,7 @@
       </c>
       <c r="T131" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/43308744-44b4-4185-a543-a02d3ea6edb5/202106091047_4bcB_i.png", "Le Van Sandwich", "4.5", "Lanches", "2.8 km", "20-30 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/le-van-sandwich-barra-da-tijuca/43308744-44b4-4185-a543-a02d3ea6edb5", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/43308744-44b4-4185-a543-a02d3ea6edb5/202106091047_4bcB_i.png', 'Le Van Sandwich', '4.5', 'Lanches', '2.8 km', '20-30 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/le-van-sandwich-barra-da-tijuca/43308744-44b4-4185-a543-a02d3ea6edb5', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
@@ -13222,7 +13222,7 @@
       </c>
       <c r="T132" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/5879448e-7f8e-48a0-a8a3-baa2de4d9ca4/201911022016_8AqH_i.jpg", "P2 Burger e Grill", "3.7", "Lanches", "5.4 km", "60-70 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/p2-burger-e-grill-gardenia-azul/5879448e-7f8e-48a0-a8a3-baa2de4d9ca4", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/5879448e-7f8e-48a0-a8a3-baa2de4d9ca4/201911022016_8AqH_i.jpg', 'P2 Burger e Grill', '3.7', 'Lanches', '5.4 km', '60-70 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/p2-burger-e-grill-gardenia-azul/5879448e-7f8e-48a0-a8a3-baa2de4d9ca4', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.3">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="T133" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/054d0743-da49-472d-8c84-101b861247a3/202101121811_jQCx_i.jpg", "Dean's Burger", "4.6", "Lanches", "4.3 km", "51-61 min", "Grátis", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/deans-burger-anil/054d0743-da49-472d-8c84-101b861247a3", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/054d0743-da49-472d-8c84-101b861247a3/202101121811_jQCx_i.jpg', 'Deans Burger', '4.6', 'Lanches', '4.3 km', '51-61 min', 'Grátis', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/deans-burger-anil/054d0743-da49-472d-8c84-101b861247a3', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.3">
@@ -13366,7 +13366,7 @@
       </c>
       <c r="T134" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/af565112-d716-42d8-bb7b-3cd9a4be24a7/202109251358_v1MW_.jpeg", "Smash Mood Barra", "Novo!", "Lanches", "1.1 km", "29-39 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/smash-mood-barra-barra-da-tijuca/af565112-d716-42d8-bb7b-3cd9a4be24a7", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/af565112-d716-42d8-bb7b-3cd9a4be24a7/202109251358_v1MW_.jpeg', 'Smash Mood Barra', 'Novo!', 'Lanches', '1.1 km', '29-39 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/smash-mood-barra-barra-da-tijuca/af565112-d716-42d8-bb7b-3cd9a4be24a7', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.3">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="T135" t="str">
         <f t="shared" si="263"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/36623be8-8583-46fb-881e-61cdb588b422/202110081909_URTt_i.jpg", "Prime Burguer", "Novo!", "Lanches", "1.7 km", "40-50 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/prime-burguer-barra-da-tijuca/36623be8-8583-46fb-881e-61cdb588b422", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/36623be8-8583-46fb-881e-61cdb588b422/202110081909_URTt_i.jpg', 'Prime Burguer', 'Novo!', 'Lanches', '1.7 km', '40-50 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/prime-burguer-barra-da-tijuca/36623be8-8583-46fb-881e-61cdb588b422', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
@@ -13509,8 +13509,8 @@
         <v>1152</v>
       </c>
       <c r="T136" t="str">
-        <f t="shared" ref="T136:T199" si="521">_xlfn.CONCAT("INSERT INTO t_restaurante (","id_restaurante,  ","ds_img_restaurante,  ","nm_restaurante,  ","nr_rating_restaurante,  ","ds_tipo_restaurante,  ","nr_dist_restaurante,  ","ds_prazo_restaurante,  ","ds_frete_restaurante,  ","ds_desc_restaurante,  ","ds_url_restaurante, ","nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  """,C136,""", """,A136,""", """,E136,""", """,G136,""", """,I136,""", """,K136,""", """,M136,""", """,O136,""", """,Q136,""", """,S136,""");")</f>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/bc6abde7-cdd1-44be-b1a1-6ae978f1bfee/202110081950_f7GX_i.png", "Monteiro Burguer", "Novo!", "Lanches", "0.6 km", "40-50 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/monteiro-burguer-barra-da-tijuca/bc6abde7-cdd1-44be-b1a1-6ae978f1bfee", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <f t="shared" ref="T136:T199" si="521">_xlfn.CONCAT("INSERT INTO t_restaurante (","id_rest,  ","ds_img_rest,  ","nm_rest,  ","nr_rat_rest,  ","ds_tipo_rest,  ","nr_dist_rest,  ","ds_prazo_rest,  ","ds_frete_rest,  ","ds_desc_rest,  ","ds_url_rest, ","nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  '",C136,"', '",SUBSTITUTE(A136,"'",""),"', '",E136,"', '",G136,"', '",I136,"', '",K136,"', '",M136,"', '",O136,"', '",Q136,"', '",S136,"');")</f>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/bc6abde7-cdd1-44be-b1a1-6ae978f1bfee/202110081950_f7GX_i.png', 'Monteiro Burguer', 'Novo!', 'Lanches', '0.6 km', '40-50 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/monteiro-burguer-barra-da-tijuca/bc6abde7-cdd1-44be-b1a1-6ae978f1bfee', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
@@ -13582,7 +13582,7 @@
       </c>
       <c r="T137" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/b2096327-4b17-4108-af4e-5e153d6e9f93/202102121051_1ucI_i.png", "Burger King - Av. das Américas Barra", "4.3", "Lanches", "0.6 km", "31-41 min", "R$ 4,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/burger-king---av-das-americas-barra-recreio-dos-bandeirantes/b2096327-4b17-4108-af4e-5e153d6e9f93", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/b2096327-4b17-4108-af4e-5e153d6e9f93/202102121051_1ucI_i.png', 'Burger King - Av. das Américas Barra', '4.3', 'Lanches', '0.6 km', '31-41 min', 'R$ 4,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/burger-king---av-das-americas-barra-recreio-dos-bandeirantes/b2096327-4b17-4108-af4e-5e153d6e9f93', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
@@ -13654,7 +13654,7 @@
       </c>
       <c r="T138" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/1c1f21f9-44e0-42ed-9188-bbe7c8325118/202106241341_eDqd_i.png", "1° ⭐ Dubz Burger - Barra da Tijuca", "4.9", "Lanches", "2.6 km", "25-35 min", "R$ 4,99", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/1--dubz-burger---barra-da-tijuca-barra-da-tijuca/1c1f21f9-44e0-42ed-9188-bbe7c8325118", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/1c1f21f9-44e0-42ed-9188-bbe7c8325118/202106241341_eDqd_i.png', '1° ⭐ Dubz Burger - Barra da Tijuca', '4.9', 'Lanches', '2.6 km', '25-35 min', 'R$ 4,99', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/1--dubz-burger---barra-da-tijuca-barra-da-tijuca/1c1f21f9-44e0-42ed-9188-bbe7c8325118', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
@@ -13726,7 +13726,7 @@
       </c>
       <c r="T139" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/Subway_Logoty_SUBWA_RICAS.png", "Subway - Américas", "4.3", "Lanches", "0.9 km", "21-31 min", "R$ 5,49", "Peça 3 vezes, ganhe R$ 20", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/subway---americas-barra-da-tijuca/64581602-3728-4446-99b7-62b45dda9dd8", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/Subway_Logoty_SUBWA_RICAS.png', 'Subway - Américas', '4.3', 'Lanches', '0.9 km', '21-31 min', 'R$ 5,49', 'Peça 3 vezes, ganhe R$ 20', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/subway---americas-barra-da-tijuca/64581602-3728-4446-99b7-62b45dda9dd8', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
@@ -13798,7 +13798,7 @@
       </c>
       <c r="T140" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/80a37aeb-95ed-4e71-a1c9-8dcc0e1c225a/202011240032_eEOu_i.png", "Tt Burger", "4.6", "Lanches", "3.2 km", "20-30 min", "R$ 10,99", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/tt-burger-barra-da-tijuca/80a37aeb-95ed-4e71-a1c9-8dcc0e1c225a", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/80a37aeb-95ed-4e71-a1c9-8dcc0e1c225a/202011240032_eEOu_i.png', 'Tt Burger', '4.6', 'Lanches', '3.2 km', '20-30 min', 'R$ 10,99', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/tt-burger-barra-da-tijuca/80a37aeb-95ed-4e71-a1c9-8dcc0e1c225a', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.3">
@@ -13870,7 +13870,7 @@
       </c>
       <c r="T141" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/04799cb4-5dc2-4017-90ab-72926f594fc4/202109171801_4YOr_i.jpg", "É O' Burger - Barra", "4.3", "Lanches", "0.4 km", "27-37 min", "R$ 6,49", "Peça 5 vezes, ganhe R$ 30", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/e-o-burger---barra-barra-da-tijuca/04799cb4-5dc2-4017-90ab-72926f594fc4", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/04799cb4-5dc2-4017-90ab-72926f594fc4/202109171801_4YOr_i.jpg', 'É O Burger - Barra', '4.3', 'Lanches', '0.4 km', '27-37 min', 'R$ 6,49', 'Peça 5 vezes, ganhe R$ 30', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/e-o-burger---barra-barra-da-tijuca/04799cb4-5dc2-4017-90ab-72926f594fc4', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
@@ -13942,7 +13942,7 @@
       </c>
       <c r="T142" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/aa7c8c7a-b1e8-4f9a-a455-4637e1e802d4_GODOF_BARRA.jpeg", "Godofredo Burger - Barra", "4.4", "Lanches", "3.0 km", "37-47 min", "R$ 6,99", "Cupom de R$ 5 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/godofredo-burger---barra-barra-da-tijuca/f3ee035f-20e2-4f7b-b48f-ebf8e09e68f9", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/aa7c8c7a-b1e8-4f9a-a455-4637e1e802d4_GODOF_BARRA.jpeg', 'Godofredo Burger - Barra', '4.4', 'Lanches', '3.0 km', '37-47 min', 'R$ 6,99', 'Cupom de R$ 5 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/godofredo-burger---barra-barra-da-tijuca/f3ee035f-20e2-4f7b-b48f-ebf8e09e68f9', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.3">
@@ -14014,7 +14014,7 @@
       </c>
       <c r="T143" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/e1069060-6cc7-4455-88ee-0ac384fa4623/202101051918_P69r_i.png", "Três Gordos", "4.8", "Lanches", "6.0 km", "18-28 min", "R$ 8,99", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/tres-gordos-barra-da-tijuca/e1069060-6cc7-4455-88ee-0ac384fa4623", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/e1069060-6cc7-4455-88ee-0ac384fa4623/202101051918_P69r_i.png', 'Três Gordos', '4.8', 'Lanches', '6.0 km', '18-28 min', 'R$ 8,99', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/tres-gordos-barra-da-tijuca/e1069060-6cc7-4455-88ee-0ac384fa4623', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.3">
@@ -14086,7 +14086,7 @@
       </c>
       <c r="T144" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/680c117c-a165-4a59-a265-46e0f95fa12e/202006092023_qFfK_i.png", "Seu Vidal Olegário", "4.4", "Lanches", "3.3 km", "49-59 min", "R$ 5,99", "Peça 3 vezes, ganhe R$ 20", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/seu-vidal-olegario-barra-da-tijuca/680c117c-a165-4a59-a265-46e0f95fa12e", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/680c117c-a165-4a59-a265-46e0f95fa12e/202006092023_qFfK_i.png', 'Seu Vidal Olegário', '4.4', 'Lanches', '3.3 km', '49-59 min', 'R$ 5,99', 'Peça 3 vezes, ganhe R$ 20', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/seu-vidal-olegario-barra-da-tijuca/680c117c-a165-4a59-a265-46e0f95fa12e', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
@@ -14158,7 +14158,7 @@
       </c>
       <c r="T145" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/a09f44f5-ea39-43d6-b7ae-4daa62e78842/202104071138_yKqx_i.jpg", "Aussie Grill - Barra", "4.6", "Lanches", "4.0 km", "60-70 min", "R$ 9,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/aussie-grill---barra-tijuca/a09f44f5-ea39-43d6-b7ae-4daa62e78842", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/a09f44f5-ea39-43d6-b7ae-4daa62e78842/202104071138_yKqx_i.jpg', 'Aussie Grill - Barra', '4.6', 'Lanches', '4.0 km', '60-70 min', 'R$ 9,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/aussie-grill---barra-tijuca/a09f44f5-ea39-43d6-b7ae-4daa62e78842', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.3">
@@ -14230,7 +14230,7 @@
       </c>
       <c r="T146" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/73ca2f53-e721-4528-99c2-5f5abef88dd7/202008102302_lbjR_i.png", "Outback - Barra (casinha)", "4.7", "Lanches", "4.0 km", "55-65 min", "R$ 11,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/outback---barra-casinha-tijuca/73ca2f53-e721-4528-99c2-5f5abef88dd7", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/73ca2f53-e721-4528-99c2-5f5abef88dd7/202008102302_lbjR_i.png', 'Outback - Barra (casinha)', '4.7', 'Lanches', '4.0 km', '55-65 min', 'R$ 11,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/outback---barra-casinha-tijuca/73ca2f53-e721-4528-99c2-5f5abef88dd7', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.3">
@@ -14302,7 +14302,7 @@
       </c>
       <c r="T147" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/476721f7-369a-4c53-9e32-1674b5e5e977/202007131546_W5S5_i.jpg", "Maestria - Barra", "4.2", "Lanches", "3.0 km", "40-50 min", "R$ 6,99", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/maestria---barra-barra-da-tijuca/476721f7-369a-4c53-9e32-1674b5e5e977", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/476721f7-369a-4c53-9e32-1674b5e5e977/202007131546_W5S5_i.jpg', 'Maestria - Barra', '4.2', 'Lanches', '3.0 km', '40-50 min', 'R$ 6,99', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/maestria---barra-barra-da-tijuca/476721f7-369a-4c53-9e32-1674b5e5e977', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
@@ -14374,7 +14374,7 @@
       </c>
       <c r="T148" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/0ece2397-8416-477b-ba95-1eb1dd42da56/202101201458_Q2yP_i.png", "Bob's - Posto Shell Ayrton Senna", "4.5", "Lanches", "5.1 km", "33-43 min", "R$ 15,49", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/bobs---posto-shell-ayrton-senna-jacarepagua/0ece2397-8416-477b-ba95-1eb1dd42da56", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/0ece2397-8416-477b-ba95-1eb1dd42da56/202101201458_Q2yP_i.png', 'Bobs - Posto Shell Ayrton Senna', '4.5', 'Lanches', '5.1 km', '33-43 min', 'R$ 15,49', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/bobs---posto-shell-ayrton-senna-jacarepagua/0ece2397-8416-477b-ba95-1eb1dd42da56', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="T149" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/99a43b20-a238-46aa-8d8a-534d1de0cd8e/201907161938_K7zx_i.jpg", "Ixmésh Burger", "4.8", "Lanches", "7.8 km", "30-40 min", "R$ 6,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/ixmesh-burger-sao-conrado/99a43b20-a238-46aa-8d8a-534d1de0cd8e", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/99a43b20-a238-46aa-8d8a-534d1de0cd8e/201907161938_K7zx_i.jpg', 'Ixmésh Burger', '4.8', 'Lanches', '7.8 km', '30-40 min', 'R$ 6,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/ixmesh-burger-sao-conrado/99a43b20-a238-46aa-8d8a-534d1de0cd8e', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
@@ -14518,7 +14518,7 @@
       </c>
       <c r="T150" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/e761dc98-ce7e-43b9-b45b-2f6034dcc885/202007311056_03en_i.png", "Hnt - Hot N' Tender - Barra Shopping", "3.7", "Lanches", "2.5 km", "45-55 min", "R$ 10,00", "Peça 5 vezes, ganhe R$ 30", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/hnt---hot-n-tender---barra-shopping-barra-da-tijuca/e761dc98-ce7e-43b9-b45b-2f6034dcc885", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/e761dc98-ce7e-43b9-b45b-2f6034dcc885/202007311056_03en_i.png', 'Hnt - Hot N Tender - Barra Shopping', '3.7', 'Lanches', '2.5 km', '45-55 min', 'R$ 10,00', 'Peça 5 vezes, ganhe R$ 30', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/hnt---hot-n-tender---barra-shopping-barra-da-tijuca/e761dc98-ce7e-43b9-b45b-2f6034dcc885', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
@@ -14590,7 +14590,7 @@
       </c>
       <c r="T151" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/963dd104-990c-4716-8db5-ee9c8dcb2de1/202007011741_JiMv_.jpeg", "Meatz Burger N' Beer - Barra", "4.8", "Lanches", "4.7 km", "49-59 min", "R$ 12,49", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/meatz-burger-n-beer---barra-jacarepagua/963dd104-990c-4716-8db5-ee9c8dcb2de1", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/963dd104-990c-4716-8db5-ee9c8dcb2de1/202007011741_JiMv_.jpeg', 'Meatz Burger N Beer - Barra', '4.8', 'Lanches', '4.7 km', '49-59 min', 'R$ 12,49', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/meatz-burger-n-beer---barra-jacarepagua/963dd104-990c-4716-8db5-ee9c8dcb2de1', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="T152" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/1245f763-6b07-4d40-a0e2-4e9e710645cf/202105041328_J5vL_i.png", "Lilie Burger", "4.5", "Lanches", "6.2 km", "35-45 min", "R$ 9,90", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/lilie-burger-barra-da-tijuca/1245f763-6b07-4d40-a0e2-4e9e710645cf", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/1245f763-6b07-4d40-a0e2-4e9e710645cf/202105041328_J5vL_i.png', 'Lilie Burger', '4.5', 'Lanches', '6.2 km', '35-45 min', 'R$ 9,90', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/lilie-burger-barra-da-tijuca/1245f763-6b07-4d40-a0e2-4e9e710645cf', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
@@ -14734,7 +14734,7 @@
       </c>
       <c r="T153" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/a97eb071-7ba4-48ca-b974-bf2052dd2e26/202009011726_2HCf_i.png", "Cachorro Quente da Tia - Olegário", "4.7", "Lanches", "3.2 km", "20-30 min", "R$ 10,49", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/cachorro-quente-da-tia---olegario-barra-da-tijuca/a97eb071-7ba4-48ca-b974-bf2052dd2e26", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/a97eb071-7ba4-48ca-b974-bf2052dd2e26/202009011726_2HCf_i.png', 'Cachorro Quente da Tia - Olegário', '4.7', 'Lanches', '3.2 km', '20-30 min', 'R$ 10,49', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/cachorro-quente-da-tia---olegario-barra-da-tijuca/a97eb071-7ba4-48ca-b974-bf2052dd2e26', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="T154" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/60b44c77-4f74-4842-94a9-ba475194a91a/202104042108_JyFZ_.jpeg", "Hamburgueria Puma Burguer", "4.1", "Lanches", "10.4 km", "60-70 min", "R$ 6,99", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/hamburgueria-puma-burguer-recreio-dos-bandeirantes/60b44c77-4f74-4842-94a9-ba475194a91a", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/60b44c77-4f74-4842-94a9-ba475194a91a/202104042108_JyFZ_.jpeg', 'Hamburgueria Puma Burguer', '4.1', 'Lanches', '10.4 km', '60-70 min', 'R$ 6,99', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/hamburgueria-puma-burguer-recreio-dos-bandeirantes/60b44c77-4f74-4842-94a9-ba475194a91a', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
@@ -14878,7 +14878,7 @@
       </c>
       <c r="T155" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/ede98ec0-dbee-421f-af70-4d0ff7f2c85e/201806131928_logo.jpg", "Ws Burguers", "4.4", "Lanches", "7.7 km", "70-80 min", "R$ 9,00", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/ws-burguers-curicica/ede98ec0-dbee-421f-af70-4d0ff7f2c85e", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/ede98ec0-dbee-421f-af70-4d0ff7f2c85e/201806131928_logo.jpg', 'Ws Burguers', '4.4', 'Lanches', '7.7 km', '70-80 min', 'R$ 9,00', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/ws-burguers-curicica/ede98ec0-dbee-421f-af70-4d0ff7f2c85e', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
@@ -14950,7 +14950,7 @@
       </c>
       <c r="T156" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/71efd111-fa2c-4adb-8a39-92bd82271886/202011060200_nVll_.jpeg", "Santo Allium - Pão de Alho", "4.8", "Lanches", "11.5 km", "40-50 min", "R$ 9,90", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/santo-allium---pao-de-alho-recreio-dos-bandeirantes/71efd111-fa2c-4adb-8a39-92bd82271886", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/71efd111-fa2c-4adb-8a39-92bd82271886/202011060200_nVll_.jpeg', 'Santo Allium - Pão de Alho', '4.8', 'Lanches', '11.5 km', '40-50 min', 'R$ 9,90', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/santo-allium---pao-de-alho-recreio-dos-bandeirantes/71efd111-fa2c-4adb-8a39-92bd82271886', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.3">
@@ -15022,7 +15022,7 @@
       </c>
       <c r="T157" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/15f517fb-52d4-4d6a-899a-cba256deb9d0/202010301727_x08P_i.jpg", "Park 38 Smash Burger", "4.9", "Lanches", "5.6 km", "52-62 min", "R$ 7,99", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/park-38-smash-burger-anil/15f517fb-52d4-4d6a-899a-cba256deb9d0", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/15f517fb-52d4-4d6a-899a-cba256deb9d0/202010301727_x08P_i.jpg', 'Park 38 Smash Burger', '4.9', 'Lanches', '5.6 km', '52-62 min', 'R$ 7,99', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/park-38-smash-burger-anil/15f517fb-52d4-4d6a-899a-cba256deb9d0', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.3">
@@ -15094,7 +15094,7 @@
       </c>
       <c r="T158" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/24af15c1-b5e1-47f9-8b45-ade5df23671a/202009021253_JaVU_i.jpg", "Peddy Burger Barra da Tijuca", "4.1", "Lanches", "3.0 km", "29-39 min", "R$ 5,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/peddy-burger-barra-da-tijuca-barra-da-tijuca/24af15c1-b5e1-47f9-8b45-ade5df23671a", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/24af15c1-b5e1-47f9-8b45-ade5df23671a/202009021253_JaVU_i.jpg', 'Peddy Burger Barra da Tijuca', '4.1', 'Lanches', '3.0 km', '29-39 min', 'R$ 5,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/peddy-burger-barra-da-tijuca-barra-da-tijuca/24af15c1-b5e1-47f9-8b45-ade5df23671a', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
@@ -15166,7 +15166,7 @@
       </c>
       <c r="T159" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/97e6ee0a-be9d-49c1-b2f3-fc252a311506/202011302108_ZYDd_i.jpg", "Kidelícia Batatas", "4.8", "Lanches", "6.3 km", "40-50 min", "R$ 4,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/kidelicia-batatas-freguesia-de-jacarepagua/97e6ee0a-be9d-49c1-b2f3-fc252a311506", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/97e6ee0a-be9d-49c1-b2f3-fc252a311506/202011302108_ZYDd_i.jpg', 'Kidelícia Batatas', '4.8', 'Lanches', '6.3 km', '40-50 min', 'R$ 4,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/kidelicia-batatas-freguesia-de-jacarepagua/97e6ee0a-be9d-49c1-b2f3-fc252a311506', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.3">
@@ -15238,7 +15238,7 @@
       </c>
       <c r="T160" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/d340b9ae-84f5-4045-8c60-2d165bdad457/201904101954_BWwm_.jpeg", "Super Sucos", "4.1", "Lanches", "8.7 km", "90-100 min", "R$ 15,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/super-sucos-rocinha/d340b9ae-84f5-4045-8c60-2d165bdad457", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/d340b9ae-84f5-4045-8c60-2d165bdad457/201904101954_BWwm_.jpeg', 'Super Sucos', '4.1', 'Lanches', '8.7 km', '90-100 min', 'R$ 15,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/super-sucos-rocinha/d340b9ae-84f5-4045-8c60-2d165bdad457', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.3">
@@ -15310,7 +15310,7 @@
       </c>
       <c r="T161" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/dca3cc9a-c19a-4c79-aa43-52c9db13e2ce/202007302217_Hg9b_.jpeg", "Hnt - Hot N' Tender - Riocentro", "4.1", "Lanches", "8.6 km", "40-50 min", "R$ 20,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/hnt---hot-n-tender---riocentro-jacarepagua/dca3cc9a-c19a-4c79-aa43-52c9db13e2ce", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/dca3cc9a-c19a-4c79-aa43-52c9db13e2ce/202007302217_Hg9b_.jpeg', 'Hnt - Hot N Tender - Riocentro', '4.1', 'Lanches', '8.6 km', '40-50 min', 'R$ 20,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/hnt---hot-n-tender---riocentro-jacarepagua/dca3cc9a-c19a-4c79-aa43-52c9db13e2ce', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.3">
@@ -15382,7 +15382,7 @@
       </c>
       <c r="T162" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/b8aef559-3df6-4d24-b050-e3f0cd16f08b/202012161504_uvhv_i.jpg", "Pão de Alho do Braga - Recreio / Barra", "4.8", "Lanches", "10.4 km", "35-45 min", "R$ 10,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pao-de-alho-do-braga---recreio---barra-recreio-dos-bandeirantes/b8aef559-3df6-4d24-b050-e3f0cd16f08b", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/b8aef559-3df6-4d24-b050-e3f0cd16f08b/202012161504_uvhv_i.jpg', 'Pão de Alho do Braga - Recreio / Barra', '4.8', 'Lanches', '10.4 km', '35-45 min', 'R$ 10,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pao-de-alho-do-braga---recreio---barra-recreio-dos-bandeirantes/b8aef559-3df6-4d24-b050-e3f0cd16f08b', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.3">
@@ -15454,7 +15454,7 @@
       </c>
       <c r="T163" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/cdef8209-6349-43d6-b547-f9da674b4fe6/202005101145_Kl9l_i.png", "Lm Lanchonete", "4.8", "Lanches", "2.5 km", "36-46 min", "R$ 5,49", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/lm-lanchonete-barra-da-tijuca/cdef8209-6349-43d6-b547-f9da674b4fe6", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/cdef8209-6349-43d6-b547-f9da674b4fe6/202005101145_Kl9l_i.png', 'Lm Lanchonete', '4.8', 'Lanches', '2.5 km', '36-46 min', 'R$ 5,49', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/lm-lanchonete-barra-da-tijuca/cdef8209-6349-43d6-b547-f9da674b4fe6', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.3">
@@ -15526,7 +15526,7 @@
       </c>
       <c r="T164" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/c1bbf0eb-d500-48f0-a769-634843f6ff3e/201907091646_cBZ5_i.jpg", "Márcio Lanches", "4.9", "Lanches", "6.2 km", "70-80 min", "R$ 11,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/marcio-lanches-cidade-de-deus/c1bbf0eb-d500-48f0-a769-634843f6ff3e", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/c1bbf0eb-d500-48f0-a769-634843f6ff3e/201907091646_cBZ5_i.jpg', 'Márcio Lanches', '4.9', 'Lanches', '6.2 km', '70-80 min', 'R$ 11,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/marcio-lanches-cidade-de-deus/c1bbf0eb-d500-48f0-a769-634843f6ff3e', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.3">
@@ -15598,7 +15598,7 @@
       </c>
       <c r="T165" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/a5dd231f-9385-4a6e-8411-fe89ee4456cd/202102181442_4IgB_.jpeg", "Batatalândia", "4.1", "Lanches", "10.6 km", "34-44 min", "R$ 10,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/batatalandia-recreio-dos-bandeirantes/a5dd231f-9385-4a6e-8411-fe89ee4456cd", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/a5dd231f-9385-4a6e-8411-fe89ee4456cd/202102181442_4IgB_.jpeg', 'Batatalândia', '4.1', 'Lanches', '10.6 km', '34-44 min', 'R$ 10,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/batatalandia-recreio-dos-bandeirantes/a5dd231f-9385-4a6e-8411-fe89ee4456cd', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.3">
@@ -15670,7 +15670,7 @@
       </c>
       <c r="T166" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/007aaf0c-93b1-4818-aff5-027fcc20e8e8/202102201554_iHaW_i.jpg", "Ravi's Jacarepaguá", "4.0", "Lanches", "4.8 km", "46-56 min", "R$ 15,99", "Cupom de R$ 5 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/ravis-jacarepagua-gardenia-azul/007aaf0c-93b1-4818-aff5-027fcc20e8e8", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/007aaf0c-93b1-4818-aff5-027fcc20e8e8/202102201554_iHaW_i.jpg', 'Ravis Jacarepaguá', '4.0', 'Lanches', '4.8 km', '46-56 min', 'R$ 15,99', 'Cupom de R$ 5 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/ravis-jacarepagua-gardenia-azul/007aaf0c-93b1-4818-aff5-027fcc20e8e8', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.3">
@@ -15742,7 +15742,7 @@
       </c>
       <c r="T167" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/e7f694c8-ac54-40ed-89cd-28f32fd7feae/202004071716_yZjQ_i.jpg", "Burguer Du Chef", "4.6", "Lanches", "10.9 km", "60-70 min", "R$ 14,00", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/burguer-du-chef-tanque/e7f694c8-ac54-40ed-89cd-28f32fd7feae", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/e7f694c8-ac54-40ed-89cd-28f32fd7feae/202004071716_yZjQ_i.jpg', 'Burguer Du Chef', '4.6', 'Lanches', '10.9 km', '60-70 min', 'R$ 14,00', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/burguer-du-chef-tanque/e7f694c8-ac54-40ed-89cd-28f32fd7feae', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.3">
@@ -15814,7 +15814,7 @@
       </c>
       <c r="T168" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/e1159453-1961-427b-a277-4f06c91c5d8d/202108232049_sAqr_i.png", "Tom Ticken", "4.7", "Lanches", "3.2 km", "31-41 min", "R$ 10,49", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/tom-ticken-barra-da-tijuca/e1159453-1961-427b-a277-4f06c91c5d8d", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/e1159453-1961-427b-a277-4f06c91c5d8d/202108232049_sAqr_i.png', 'Tom Ticken', '4.7', 'Lanches', '3.2 km', '31-41 min', 'R$ 10,49', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/tom-ticken-barra-da-tijuca/e1159453-1961-427b-a277-4f06c91c5d8d', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.3">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="T169" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/0bf5958a-5954-4863-b797-801de4651d95/202105062120_sVJR_.jpeg", "Max Duda Lanches Artesanais 1987", "4.8", "Lanches", "5.9 km", "58-68 min", "R$ 14,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/max-duda-lanches-artesanais-1987-anil/0bf5958a-5954-4863-b797-801de4651d95", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/0bf5958a-5954-4863-b797-801de4651d95/202105062120_sVJR_.jpeg', 'Max Duda Lanches Artesanais 1987', '4.8', 'Lanches', '5.9 km', '58-68 min', 'R$ 14,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/max-duda-lanches-artesanais-1987-anil/0bf5958a-5954-4863-b797-801de4651d95', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
@@ -15958,7 +15958,7 @@
       </c>
       <c r="T170" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/4212fa5d-c668-428c-be17-4f4f288a129d/202007021959_KBMK_.jpeg", "Pao de Alho do Gordo", "4.7", "Lanches", "8.8 km", "80-90 min", "R$ 14,90", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pao-de-alho-do-gordo-pechincha/4212fa5d-c668-428c-be17-4f4f288a129d", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/4212fa5d-c668-428c-be17-4f4f288a129d/202007021959_KBMK_.jpeg', 'Pao de Alho do Gordo', '4.7', 'Lanches', '8.8 km', '80-90 min', 'R$ 14,90', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/pao-de-alho-do-gordo-pechincha/4212fa5d-c668-428c-be17-4f4f288a129d', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.3">
@@ -16030,7 +16030,7 @@
       </c>
       <c r="T171" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/8849ebcf-0053-46ef-9112-0703281f7456/202003261242_kqJS_.jpeg", "Maioral Burguer", "4.6", "Lanches", "6.6 km", "62-72 min", "R$ 15,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/maioral-burguer-freguesia-jacarepagua/8849ebcf-0053-46ef-9112-0703281f7456", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/8849ebcf-0053-46ef-9112-0703281f7456/202003261242_kqJS_.jpeg', 'Maioral Burguer', '4.6', 'Lanches', '6.6 km', '62-72 min', 'R$ 15,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/maioral-burguer-freguesia-jacarepagua/8849ebcf-0053-46ef-9112-0703281f7456', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
@@ -16102,7 +16102,7 @@
       </c>
       <c r="T172" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/e66682ad-6c61-4091-b424-9ce0207ce480/201903151318_34504.png", "Pateta’s Dog", "4.0", "Lanches", "12.6 km", "42-52 min", "R$ 17,48", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/patetas-dog-recreio-dos-bandeirantes/e66682ad-6c61-4091-b424-9ce0207ce480", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/e66682ad-6c61-4091-b424-9ce0207ce480/201903151318_34504.png', 'Pateta’s Dog', '4.0', 'Lanches', '12.6 km', '42-52 min', 'R$ 17,48', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/patetas-dog-recreio-dos-bandeirantes/e66682ad-6c61-4091-b424-9ce0207ce480', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.3">
@@ -16174,7 +16174,7 @@
       </c>
       <c r="T173" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/6038e9f9-df42-460e-8c9a-3f310cdeb52f/202102180826_5eEk_i.jpg", "Topete Burguer", "4.5", "Lanches", "3.2 km", "36-46 min", "R$ 6,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/topete-burguer-jacarepagua/6038e9f9-df42-460e-8c9a-3f310cdeb52f", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/6038e9f9-df42-460e-8c9a-3f310cdeb52f/202102180826_5eEk_i.jpg', 'Topete Burguer', '4.5', 'Lanches', '3.2 km', '36-46 min', 'R$ 6,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/topete-burguer-jacarepagua/6038e9f9-df42-460e-8c9a-3f310cdeb52f', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.3">
@@ -16246,7 +16246,7 @@
       </c>
       <c r="T174" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/75c7ee1b-9426-4cda-a5a5-6d66e861e110/202101282151_bwUY_.jpeg", "Carango Burger", "4.5", "Lanches", "1.4 km", "40-50 min", "R$ 6,90", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/carango-burger-barra-da-tijuca/75c7ee1b-9426-4cda-a5a5-6d66e861e110", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/75c7ee1b-9426-4cda-a5a5-6d66e861e110/202101282151_bwUY_.jpeg', 'Carango Burger', '4.5', 'Lanches', '1.4 km', '40-50 min', 'R$ 6,90', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/carango-burger-barra-da-tijuca/75c7ee1b-9426-4cda-a5a5-6d66e861e110', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.3">
@@ -16318,7 +16318,7 @@
       </c>
       <c r="T175" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/1da46707-0514-47c7-a653-08b8435e9757/202105051743_cs02_i.jpg", "Js Lanches", "4.0", "Lanches", "3.5 km", "60-70 min", "R$ 8,00", "Peça 3 vezes, ganhe R$ 20", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/js-lanches-itanhanga/1da46707-0514-47c7-a653-08b8435e9757", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/1da46707-0514-47c7-a653-08b8435e9757/202105051743_cs02_i.jpg', 'Js Lanches', '4.0', 'Lanches', '3.5 km', '60-70 min', 'R$ 8,00', 'Peça 3 vezes, ganhe R$ 20', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/js-lanches-itanhanga/1da46707-0514-47c7-a653-08b8435e9757', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.3">
@@ -16390,7 +16390,7 @@
       </c>
       <c r="T176" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/fa081a5a-b85d-4fdb-97d9-1f030343392a/202105010427_aiZs_i.jpg", "Experimente Lanches Curicica", "4.9", "Lanches", "8.3 km", "70-80 min", "R$ 16,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/experimente-lanches-curicica-curicica/fa081a5a-b85d-4fdb-97d9-1f030343392a", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/fa081a5a-b85d-4fdb-97d9-1f030343392a/202105010427_aiZs_i.jpg', 'Experimente Lanches Curicica', '4.9', 'Lanches', '8.3 km', '70-80 min', 'R$ 16,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/experimente-lanches-curicica-curicica/fa081a5a-b85d-4fdb-97d9-1f030343392a', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.3">
@@ -16462,7 +16462,7 @@
       </c>
       <c r="T177" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/bb411940-e11e-4797-95a2-4ddb5c77a68e/202009201519_FhDA_i.jpg", "Cascao Burger Sorvetes e Açai", "4.0", "Lanches", "3.4 km", "40-50 min", "R$ 9,00", "Peça 5 vezes, ganhe R$ 30", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/cascao-burger-sorvetes-e-acai-itanhanga/bb411940-e11e-4797-95a2-4ddb5c77a68e", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/bb411940-e11e-4797-95a2-4ddb5c77a68e/202009201519_FhDA_i.jpg', 'Cascao Burger Sorvetes e Açai', '4.0', 'Lanches', '3.4 km', '40-50 min', 'R$ 9,00', 'Peça 5 vezes, ganhe R$ 30', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/cascao-burger-sorvetes-e-acai-itanhanga/bb411940-e11e-4797-95a2-4ddb5c77a68e', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.3">
@@ -16534,7 +16534,7 @@
       </c>
       <c r="T178" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/5de9aae3-1a18-44c5-962a-537bea6a20b9/201911302149_CYld_i.png", "Play Burger", "4.3", "Lanches", "10.9 km", "60-70 min", "R$ 10,00", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/play-burger-taquara/5de9aae3-1a18-44c5-962a-537bea6a20b9", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/5de9aae3-1a18-44c5-962a-537bea6a20b9/201911302149_CYld_i.png', 'Play Burger', '4.3', 'Lanches', '10.9 km', '60-70 min', 'R$ 10,00', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/play-burger-taquara/5de9aae3-1a18-44c5-962a-537bea6a20b9', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.3">
@@ -16606,7 +16606,7 @@
       </c>
       <c r="T179" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/5199e580-0ac8-4170-8edb-b554800f66c0/202104161405_WE3C_.jpeg", "Monster Burguer e Petiscos", "4.6", "Lanches", "7.0 km", "55-65 min", "R$ 9,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/monster-burguer-e-petiscos-sao-conrado/5199e580-0ac8-4170-8edb-b554800f66c0", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/5199e580-0ac8-4170-8edb-b554800f66c0/202104161405_WE3C_.jpeg', 'Monster Burguer e Petiscos', '4.6', 'Lanches', '7.0 km', '55-65 min', 'R$ 9,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/monster-burguer-e-petiscos-sao-conrado/5199e580-0ac8-4170-8edb-b554800f66c0', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.3">
@@ -16678,7 +16678,7 @@
       </c>
       <c r="T180" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/f6a4b797-e079-4f52-a30e-8323a3345f3d/202108052021_tekc_.jpeg", "The Burger House", "4.6", "Lanches", "11.7 km", "59-69 min", "R$ 11,99", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/the-burger-house-recreio-dos-bandeirantes/f6a4b797-e079-4f52-a30e-8323a3345f3d", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/f6a4b797-e079-4f52-a30e-8323a3345f3d/202108052021_tekc_.jpeg', 'The Burger House', '4.6', 'Lanches', '11.7 km', '59-69 min', 'R$ 11,99', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/the-burger-house-recreio-dos-bandeirantes/f6a4b797-e079-4f52-a30e-8323a3345f3d', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.3">
@@ -16750,7 +16750,7 @@
       </c>
       <c r="T181" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/5226ae3d-caf2-49c1-a513-89211b2fe87a/202009160956_2Rh6_.jpeg", "Churraspão Mix", "5.0", "Lanches", "2.2 km", "48-58 min", "R$ 9,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/churraspao-mix-itanhanga/5226ae3d-caf2-49c1-a513-89211b2fe87a", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/5226ae3d-caf2-49c1-a513-89211b2fe87a/202009160956_2Rh6_.jpeg', 'Churraspão Mix', '5.0', 'Lanches', '2.2 km', '48-58 min', 'R$ 9,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/churraspao-mix-itanhanga/5226ae3d-caf2-49c1-a513-89211b2fe87a', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.3">
@@ -16822,7 +16822,7 @@
       </c>
       <c r="T182" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/b4d05ae4-762f-40ac-ae8c-ddb7c22f2853/202110021417_aqal_i.jpg", "G Burger", "4.7", "Lanches", "3.4 km", "60-70 min", "R$ 9,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/g-burger-itanhanga/b4d05ae4-762f-40ac-ae8c-ddb7c22f2853", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/b4d05ae4-762f-40ac-ae8c-ddb7c22f2853/202110021417_aqal_i.jpg', 'G Burger', '4.7', 'Lanches', '3.4 km', '60-70 min', 'R$ 9,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/g-burger-itanhanga/b4d05ae4-762f-40ac-ae8c-ddb7c22f2853', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.3">
@@ -16894,7 +16894,7 @@
       </c>
       <c r="T183" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/97789b46-91fd-45d2-96e8-c46da0a5845f/202008251527_kGxb_i.jpg", "Empadão da Lili", "4.9", "Lanches", "8.6 km", "46-56 min", "R$ 14,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/empadao-da-lili-camorim/97789b46-91fd-45d2-96e8-c46da0a5845f", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/97789b46-91fd-45d2-96e8-c46da0a5845f/202008251527_kGxb_i.jpg', 'Empadão da Lili', '4.9', 'Lanches', '8.6 km', '46-56 min', 'R$ 14,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/empadao-da-lili-camorim/97789b46-91fd-45d2-96e8-c46da0a5845f', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.3">
@@ -16966,7 +16966,7 @@
       </c>
       <c r="T184" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/2082c15d-9012-45dd-92fc-14645782eb02/202107221836_MBf4_.jpeg", "Brothers Burger", "4.8", "Lanches", "11.4 km", "39-49 min", "R$ 11,99", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/brothers-burger-recreio-dos-bandeirantes/2082c15d-9012-45dd-92fc-14645782eb02", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/2082c15d-9012-45dd-92fc-14645782eb02/202107221836_MBf4_.jpeg', 'Brothers Burger', '4.8', 'Lanches', '11.4 km', '39-49 min', 'R$ 11,99', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/brothers-burger-recreio-dos-bandeirantes/2082c15d-9012-45dd-92fc-14645782eb02', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.3">
@@ -17038,7 +17038,7 @@
       </c>
       <c r="T185" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/ae671a71-d5d3-404c-879a-f4e9a4c8585d/202105262149_g8VA_i.jpg", "Ribas Crepe e Hambúrguer", "4.4", "Lanches", "8.6 km", "45-55 min", "R$ 8,90", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/ribas-crepe-e-hamburguer-gavea/ae671a71-d5d3-404c-879a-f4e9a4c8585d", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/ae671a71-d5d3-404c-879a-f4e9a4c8585d/202105262149_g8VA_i.jpg', 'Ribas Crepe e Hambúrguer', '4.4', 'Lanches', '8.6 km', '45-55 min', 'R$ 8,90', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/ribas-crepe-e-hamburguer-gavea/ae671a71-d5d3-404c-879a-f4e9a4c8585d', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.3">
@@ -17110,7 +17110,7 @@
       </c>
       <c r="T186" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/c6bf8160-8bde-475f-b6f7-93a22b947448/202104161555_Fjl7_i.jpg", "Chega Ae Barra", "4.0", "Lanches", "10.8 km", "49-59 min", "R$ 10,00", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/chega-ae-barra-recreio-dos-bandeirantes/c6bf8160-8bde-475f-b6f7-93a22b947448", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/c6bf8160-8bde-475f-b6f7-93a22b947448/202104161555_Fjl7_i.jpg', 'Chega Ae Barra', '4.0', 'Lanches', '10.8 km', '49-59 min', 'R$ 10,00', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/chega-ae-barra-recreio-dos-bandeirantes/c6bf8160-8bde-475f-b6f7-93a22b947448', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.3">
@@ -17182,7 +17182,7 @@
       </c>
       <c r="T187" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/6df29e3b-95cb-4a70-95a0-b61e0705d367/202103231501_rInX_i.jpg", "Lp Burguer", "4.9", "Lanches", "7.9 km", "50-60 min", "R$ 15,00", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/lp-burguer-taquara/6df29e3b-95cb-4a70-95a0-b61e0705d367", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/6df29e3b-95cb-4a70-95a0-b61e0705d367/202103231501_rInX_i.jpg', 'Lp Burguer', '4.9', 'Lanches', '7.9 km', '50-60 min', 'R$ 15,00', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/lp-burguer-taquara/6df29e3b-95cb-4a70-95a0-b61e0705d367', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.3">
@@ -17254,7 +17254,7 @@
       </c>
       <c r="T188" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/201803270858_eb9f6126-25aa-447c-9e14-59266c8ced1e.png", "Ribas Crepe", "4.8", "Lanches", "8.6 km", "60-70 min", "R$ 8,90", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/ribas-crepe-gavea/eb9f6126-25aa-447c-9e14-59266c8ced1e", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/201803270858_eb9f6126-25aa-447c-9e14-59266c8ced1e.png', 'Ribas Crepe', '4.8', 'Lanches', '8.6 km', '60-70 min', 'R$ 8,90', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/ribas-crepe-gavea/eb9f6126-25aa-447c-9e14-59266c8ced1e', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.3">
@@ -17326,7 +17326,7 @@
       </c>
       <c r="T189" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/d1992599-aebf-47e7-9b6c-9254e731ada6/202109131605_VSAq_i.jpg", "A Hora do Lanche", "4.8", "Lanches", "3.3 km", "40-50 min", "R$ 9,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/a-hora-do-lanche-itanhanga/d1992599-aebf-47e7-9b6c-9254e731ada6", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/d1992599-aebf-47e7-9b6c-9254e731ada6/202109131605_VSAq_i.jpg', 'A Hora do Lanche', '4.8', 'Lanches', '3.3 km', '40-50 min', 'R$ 9,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/a-hora-do-lanche-itanhanga/d1992599-aebf-47e7-9b6c-9254e731ada6', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.3">
@@ -17398,7 +17398,7 @@
       </c>
       <c r="T190" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/44d94f83-fc8b-4770-8bd9-6a0a2e1d7cac/201904281808_HGpD_0.png", "Opção do Lanche/pizzas e Cervejas", "5.0", "Lanches", "6.2 km", "85-95 min", "R$ 13,00", "Cupom de R$ 5 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/opcao-do-lanche-pizzas-e-cervejas-freguesia-de-jacarepagua/44d94f83-fc8b-4770-8bd9-6a0a2e1d7cac", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/44d94f83-fc8b-4770-8bd9-6a0a2e1d7cac/201904281808_HGpD_0.png', 'Opção do Lanche/pizzas e Cervejas', '5.0', 'Lanches', '6.2 km', '85-95 min', 'R$ 13,00', 'Cupom de R$ 5 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/opcao-do-lanche-pizzas-e-cervejas-freguesia-de-jacarepagua/44d94f83-fc8b-4770-8bd9-6a0a2e1d7cac', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.3">
@@ -17470,7 +17470,7 @@
       </c>
       <c r="T191" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/b446061a-62bb-4f80-87d7-7c5547b0382d/202108011718_jJTa_i.jpg", "Siricascudo Lanches - Jacarepaguá", "4.5", "Lanches", "4.5 km", "56-66 min", "R$ 10,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/siricascudo-lanches---jacarepagua-gardenia-azul/b446061a-62bb-4f80-87d7-7c5547b0382d", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/b446061a-62bb-4f80-87d7-7c5547b0382d/202108011718_jJTa_i.jpg', 'Siricascudo Lanches - Jacarepaguá', '4.5', 'Lanches', '4.5 km', '56-66 min', 'R$ 10,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/siricascudo-lanches---jacarepagua-gardenia-azul/b446061a-62bb-4f80-87d7-7c5547b0382d', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.3">
@@ -17542,7 +17542,7 @@
       </c>
       <c r="T192" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/d2492d01-0368-4c23-a585-ed8de15ee1eb/202110161807_fEL4_.jpeg", "Os Crias", "Novo!", "Lanches", "6.3 km", "56-66 min", "R$ 10,00", "Peça 3 vezes, ganhe R$ 20", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/os-crias-cidade-de-deus/d2492d01-0368-4c23-a585-ed8de15ee1eb", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/d2492d01-0368-4c23-a585-ed8de15ee1eb/202110161807_fEL4_.jpeg', 'Os Crias', 'Novo!', 'Lanches', '6.3 km', '56-66 min', 'R$ 10,00', 'Peça 3 vezes, ganhe R$ 20', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/os-crias-cidade-de-deus/d2492d01-0368-4c23-a585-ed8de15ee1eb', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.3">
@@ -17614,7 +17614,7 @@
       </c>
       <c r="T193" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/202003191812_c47400e3-7d55-470a-bfe0-d5f9d482c913.png", "Up Sucos", "4.1", "Lanches", "6.4 km", "41-51 min", "R$ 12,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/up-sucos-barra-da-tijuca/c47400e3-7d55-470a-bfe0-d5f9d482c913", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/202003191812_c47400e3-7d55-470a-bfe0-d5f9d482c913.png', 'Up Sucos', '4.1', 'Lanches', '6.4 km', '41-51 min', 'R$ 12,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/up-sucos-barra-da-tijuca/c47400e3-7d55-470a-bfe0-d5f9d482c913', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.3">
@@ -17686,7 +17686,7 @@
       </c>
       <c r="T194" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/cee84d53-e717-4c35-b6fa-a8779b2aa559/202105201402_uOHs_i.jpg", "Bob Burguer", "4.6", "Lanches", "3.2 km", "57-67 min", "R$ 11,99", "Entrega grátis disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/bob-burguer-jacarepagua/cee84d53-e717-4c35-b6fa-a8779b2aa559", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/cee84d53-e717-4c35-b6fa-a8779b2aa559/202105201402_uOHs_i.jpg', 'Bob Burguer', '4.6', 'Lanches', '3.2 km', '57-67 min', 'R$ 11,99', 'Entrega grátis disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/bob-burguer-jacarepagua/cee84d53-e717-4c35-b6fa-a8779b2aa559', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.3">
@@ -17758,7 +17758,7 @@
       </c>
       <c r="T195" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/44d3b5ae-d71a-452e-9a3d-fdd72bda9776/202109141707_GiPw_i.png", "Vezpa Fatias - Olegário", "Novo!", "Lanches", "3.2 km", "38-48 min", "R$ 11,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/vezpa-fatias---olegario-barra-da-tijuca/44d3b5ae-d71a-452e-9a3d-fdd72bda9776", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/44d3b5ae-d71a-452e-9a3d-fdd72bda9776/202109141707_GiPw_i.png', 'Vezpa Fatias - Olegário', 'Novo!', 'Lanches', '3.2 km', '38-48 min', 'R$ 11,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/vezpa-fatias---olegario-barra-da-tijuca/44d3b5ae-d71a-452e-9a3d-fdd72bda9776', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.3">
@@ -17830,7 +17830,7 @@
       </c>
       <c r="T196" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/cad1cca9-aaac-4ef0-9d50-20955b00cffc/202108051643_1bnL_i.jpg", "Estação Delivery", "4.2", "Lanches", "3.7 km", "80-90 min", "R$ 12,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/estacao-delivery-jacarepagua/cad1cca9-aaac-4ef0-9d50-20955b00cffc", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/cad1cca9-aaac-4ef0-9d50-20955b00cffc/202108051643_1bnL_i.jpg', 'Estação Delivery', '4.2', 'Lanches', '3.7 km', '80-90 min', 'R$ 12,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/estacao-delivery-jacarepagua/cad1cca9-aaac-4ef0-9d50-20955b00cffc', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.3">
@@ -17902,7 +17902,7 @@
       </c>
       <c r="T197" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/9765bef7-ac77-4b4d-8e1f-9b9fb86ca6af/201909261908_2YgR_i.png", "Órbita Burguer Artesanal", "4.0", "Lanches", "12.3 km", "60-70 min", "R$ 20,00", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/orbita-burguer-artesanal-meier/9765bef7-ac77-4b4d-8e1f-9b9fb86ca6af", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/9765bef7-ac77-4b4d-8e1f-9b9fb86ca6af/201909261908_2YgR_i.png', 'Órbita Burguer Artesanal', '4.0', 'Lanches', '12.3 km', '60-70 min', 'R$ 20,00', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/orbita-burguer-artesanal-meier/9765bef7-ac77-4b4d-8e1f-9b9fb86ca6af', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.3">
@@ -17974,7 +17974,7 @@
       </c>
       <c r="T198" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/0815debd-e5b9-47a5-9d16-d46b3f52fd97/202105151913_i7gf_i.jpg", "Robelita Gourmet", "5.0", "Lanches", "5.3 km", "55-65 min", "R$ 12,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/robelita-gourmet-anil/0815debd-e5b9-47a5-9d16-d46b3f52fd97", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/0815debd-e5b9-47a5-9d16-d46b3f52fd97/202105151913_i7gf_i.jpg', 'Robelita Gourmet', '5.0', 'Lanches', '5.3 km', '55-65 min', 'R$ 12,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/robelita-gourmet-anil/0815debd-e5b9-47a5-9d16-d46b3f52fd97', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.3">
@@ -18046,7 +18046,7 @@
       </c>
       <c r="T199" t="str">
         <f t="shared" si="521"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/e397de34-1afa-443b-86fb-e380473a8fb1/202108231913_PICv_i.png", "Tom Ticken", "4.6", "Lanches", "6.0 km", "32-42 min", "R$ 15,99", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/tom-ticken-barra-da-tijuca/e397de34-1afa-443b-86fb-e380473a8fb1", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/e397de34-1afa-443b-86fb-e380473a8fb1/202108231913_PICv_i.png', 'Tom Ticken', '4.6', 'Lanches', '6.0 km', '32-42 min', 'R$ 15,99', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/tom-ticken-barra-da-tijuca/e397de34-1afa-443b-86fb-e380473a8fb1', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.3">
@@ -18117,8 +18117,8 @@
         <v>1152</v>
       </c>
       <c r="T200" t="str">
-        <f t="shared" ref="T200:T263" si="779">_xlfn.CONCAT("INSERT INTO t_restaurante (","id_restaurante,  ","ds_img_restaurante,  ","nm_restaurante,  ","nr_rating_restaurante,  ","ds_tipo_restaurante,  ","nr_dist_restaurante,  ","ds_prazo_restaurante,  ","ds_frete_restaurante,  ","ds_desc_restaurante,  ","ds_url_restaurante, ","nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  """,C200,""", """,A200,""", """,E200,""", """,G200,""", """,I200,""", """,K200,""", """,M200,""", """,O200,""", """,Q200,""", """,S200,""");")</f>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/99ab4f9a-36fa-456f-865d-29433f9270ca/202004231709_UydH_i.jpg", "Mr. Crepe Unidade Pechincha/tanque", "5.0", "Lanches", "9.7 km", "55-65 min", "R$ 18,48", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/mr-crepe-unidade-pechincha-tanque-tanque/99ab4f9a-36fa-456f-865d-29433f9270ca", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <f t="shared" ref="T200:T263" si="779">_xlfn.CONCAT("INSERT INTO t_restaurante (","id_rest,  ","ds_img_rest,  ","nm_rest,  ","nr_rat_rest,  ","ds_tipo_rest,  ","nr_dist_rest,  ","ds_prazo_rest,  ","ds_frete_rest,  ","ds_desc_rest,  ","ds_url_rest, ","nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  '",C200,"', '",SUBSTITUTE(A200,"'",""),"', '",E200,"', '",G200,"', '",I200,"', '",K200,"', '",M200,"', '",O200,"', '",Q200,"', '",S200,"');")</f>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/99ab4f9a-36fa-456f-865d-29433f9270ca/202004231709_UydH_i.jpg', 'Mr. Crepe Unidade Pechincha/tanque', '5.0', 'Lanches', '9.7 km', '55-65 min', 'R$ 18,48', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/mr-crepe-unidade-pechincha-tanque-tanque/99ab4f9a-36fa-456f-865d-29433f9270ca', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.3">
@@ -18190,7 +18190,7 @@
       </c>
       <c r="T201" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/201808161538_068ae69c-f622-4d13-a816-e73a38c85cc2.JPG", "Imperio Burguers", "3.7", "Lanches", "3.8 km", "60-70 min", "R$ 13,00", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/imperio-burguers-rio-das-pedras/068ae69c-f622-4d13-a816-e73a38c85cc2", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/201808161538_068ae69c-f622-4d13-a816-e73a38c85cc2.JPG', 'Imperio Burguers', '3.7', 'Lanches', '3.8 km', '60-70 min', 'R$ 13,00', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/imperio-burguers-rio-das-pedras/068ae69c-f622-4d13-a816-e73a38c85cc2', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.3">
@@ -18262,7 +18262,7 @@
       </c>
       <c r="T202" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/201808251127_5445349f-6f86-4948-b9c2-6010422b7e2b.png", "Órbita Burguer", "3.8", "Lanches", "12.3 km", "60-70 min", "R$ 20,00", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/orbita-burguer-meier/5445349f-6f86-4948-b9c2-6010422b7e2b", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/201808251127_5445349f-6f86-4948-b9c2-6010422b7e2b.png', 'Órbita Burguer', '3.8', 'Lanches', '12.3 km', '60-70 min', 'R$ 20,00', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/orbita-burguer-meier/5445349f-6f86-4948-b9c2-6010422b7e2b', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.3">
@@ -18334,7 +18334,7 @@
       </c>
       <c r="T203" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/10513166-5110-48c2-872c-f4c2683f91c0/201809212020_whats.jpg", "Urbano Hamburgueria", "3.8", "Lanches", "12.3 km", "60-70 min", "R$ 20,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/urbano-hamburgueria-meier/10513166-5110-48c2-872c-f4c2683f91c0", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/10513166-5110-48c2-872c-f4c2683f91c0/201809212020_whats.jpg', 'Urbano Hamburgueria', '3.8', 'Lanches', '12.3 km', '60-70 min', 'R$ 20,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/urbano-hamburgueria-meier/10513166-5110-48c2-872c-f4c2683f91c0', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.3">
@@ -18406,7 +18406,7 @@
       </c>
       <c r="T204" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/f1bf9def-73c7-4a99-aab2-69e15f803032/202103071317_mygP_i.png", "Gostomucho", "Novo!", "Lanches", "9.6 km", "49-59 min", "R$ 16,48", "Cupom de R$ 5 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/gostomucho-barra-da-tijuca/f1bf9def-73c7-4a99-aab2-69e15f803032", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/f1bf9def-73c7-4a99-aab2-69e15f803032/202103071317_mygP_i.png', 'Gostomucho', 'Novo!', 'Lanches', '9.6 km', '49-59 min', 'R$ 16,48', 'Cupom de R$ 5 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/gostomucho-barra-da-tijuca/f1bf9def-73c7-4a99-aab2-69e15f803032', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.3">
@@ -18478,7 +18478,7 @@
       </c>
       <c r="T205" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/c8ff27e9-c0cb-43e9-8bab-9c68b4bccb97/202106081623_w5GC_i.png", "Frida - Hamburgueria Mexicana", "4.8", "Lanches", "9.8 km", "71-81 min", "R$ 22,99", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/frida---hamburgueria-mexicana-taquara/c8ff27e9-c0cb-43e9-8bab-9c68b4bccb97", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/c8ff27e9-c0cb-43e9-8bab-9c68b4bccb97/202106081623_w5GC_i.png', 'Frida - Hamburgueria Mexicana', '4.8', 'Lanches', '9.8 km', '71-81 min', 'R$ 22,99', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/frida---hamburgueria-mexicana-taquara/c8ff27e9-c0cb-43e9-8bab-9c68b4bccb97', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.3">
@@ -18550,7 +18550,7 @@
       </c>
       <c r="T206" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/abd781b8-a860-4441-a1ee-777a22b5f11d/202011060226_vqLq_.jpeg", "Casa do Sanduba", "Novo!", "Lanches", "11.3 km", "50-60 min", "R$ 20,00", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/casa-do-sanduba-recreio-dos-bandeirantes/abd781b8-a860-4441-a1ee-777a22b5f11d", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/abd781b8-a860-4441-a1ee-777a22b5f11d/202011060226_vqLq_.jpeg', 'Casa do Sanduba', 'Novo!', 'Lanches', '11.3 km', '50-60 min', 'R$ 20,00', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/casa-do-sanduba-recreio-dos-bandeirantes/abd781b8-a860-4441-a1ee-777a22b5f11d', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.3">
@@ -18622,7 +18622,7 @@
       </c>
       <c r="T207" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/692a4a31-0bba-43c1-a900-498b43e1d4f0/201905231324_6upc_i.jpg", "Japartiu - Barra da Tijuca", "4.0", "Japonesa", "2.6 km", "30-40 min", "Grátis", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japartiu---barra-da-tijuca-barra-da-tijuca/692a4a31-0bba-43c1-a900-498b43e1d4f0", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/692a4a31-0bba-43c1-a900-498b43e1d4f0/201905231324_6upc_i.jpg', 'Japartiu - Barra da Tijuca', '4.0', 'Japonesa', '2.6 km', '30-40 min', 'Grátis', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japartiu---barra-da-tijuca-barra-da-tijuca/692a4a31-0bba-43c1-a900-498b43e1d4f0', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.3">
@@ -18694,7 +18694,7 @@
       </c>
       <c r="T208" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/12a9b261-8f54-4824-a839-9cfd1836a575/201907081020_8Bw4_.jpeg", "Japartiu Delivery", "4.0", "Japonesa", "2.6 km", "30-40 min", "Grátis", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japartiu-delivery-barra-da-tijuca/12a9b261-8f54-4824-a839-9cfd1836a575", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/12a9b261-8f54-4824-a839-9cfd1836a575/201907081020_8Bw4_.jpeg', 'Japartiu Delivery', '4.0', 'Japonesa', '2.6 km', '30-40 min', 'Grátis', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japartiu-delivery-barra-da-tijuca/12a9b261-8f54-4824-a839-9cfd1836a575', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.3">
@@ -18766,7 +18766,7 @@
       </c>
       <c r="T209" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/08cb71eb-46dc-43a5-ae7d-373a7c325499/201910031209_nsta_.jpeg", "Japan Time - Barra da Tijuca", "4.3", "Japonesa", "2.7 km", "30-40 min", "Grátis", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japan-time---barra-da-tijuca-barra-da-tijuca/08cb71eb-46dc-43a5-ae7d-373a7c325499", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/08cb71eb-46dc-43a5-ae7d-373a7c325499/201910031209_nsta_.jpeg', 'Japan Time - Barra da Tijuca', '4.3', 'Japonesa', '2.7 km', '30-40 min', 'Grátis', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japan-time---barra-da-tijuca-barra-da-tijuca/08cb71eb-46dc-43a5-ae7d-373a7c325499', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.3">
@@ -18838,7 +18838,7 @@
       </c>
       <c r="T210" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/a43066ad-2a63-444e-89d7-2d6918f2d51e/202003051930_jF5C_i.jpg", "Sunomono Barra", "4.7", "Japonesa", "1.0 km", "40-50 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sunomono-barra-barra-da-tijuca/a43066ad-2a63-444e-89d7-2d6918f2d51e", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/a43066ad-2a63-444e-89d7-2d6918f2d51e/202003051930_jF5C_i.jpg', 'Sunomono Barra', '4.7', 'Japonesa', '1.0 km', '40-50 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sunomono-barra-barra-da-tijuca/a43066ad-2a63-444e-89d7-2d6918f2d51e', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.3">
@@ -18910,7 +18910,7 @@
       </c>
       <c r="T211" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/201708181729_bba66204-02fc-477c-a7c0-4b50941bc9ed.png", "Sushi Rão - Barra da Tijuca", "4.3", "Japonesa", "3.1 km", "50-60 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-rao---barra-da-tijuca-barra-da-tijuca/bba66204-02fc-477c-a7c0-4b50941bc9ed", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/201708181729_bba66204-02fc-477c-a7c0-4b50941bc9ed.png', 'Sushi Rão - Barra da Tijuca', '4.3', 'Japonesa', '3.1 km', '50-60 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-rao---barra-da-tijuca-barra-da-tijuca/bba66204-02fc-477c-a7c0-4b50941bc9ed', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.3">
@@ -18982,7 +18982,7 @@
       </c>
       <c r="T212" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/4d386578-a5aa-4e70-b27b-99bcb50df3d8/202103090745_sPVX_i.png", "Let'sushi - Barra da Tijuca", "4.9", "Japonesa", "1.0 km", "40-50 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/letsushi---barra-da-tijuca-barra-da-tijuca/4d386578-a5aa-4e70-b27b-99bcb50df3d8", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/4d386578-a5aa-4e70-b27b-99bcb50df3d8/202103090745_sPVX_i.png', 'Letsushi - Barra da Tijuca', '4.9', 'Japonesa', '1.0 km', '40-50 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/letsushi---barra-da-tijuca-barra-da-tijuca/4d386578-a5aa-4e70-b27b-99bcb50df3d8', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.3">
@@ -19054,7 +19054,7 @@
       </c>
       <c r="T213" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/92d66eb8-ce63-4ecc-9ae2-191851978470/202104301520_JDjB_.jpeg", "Kimura", "4.5", "Japonesa", "0.5 km", "29-39 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/kimura-barra-da-tijuca/92d66eb8-ce63-4ecc-9ae2-191851978470", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/92d66eb8-ce63-4ecc-9ae2-191851978470/202104301520_JDjB_.jpeg', 'Kimura', '4.5', 'Japonesa', '0.5 km', '29-39 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/kimura-barra-da-tijuca/92d66eb8-ce63-4ecc-9ae2-191851978470', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.3">
@@ -19126,7 +19126,7 @@
       </c>
       <c r="T214" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/c743c89f-276e-4636-8fda-78bf7c1e8184/202110252334_buzo_i.jpg", "Sushi Go! - Barra", "4.5", "Japonesa", "2.1 km", "39-49 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-go---barra-barra-da-tijuca/c743c89f-276e-4636-8fda-78bf7c1e8184", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/c743c89f-276e-4636-8fda-78bf7c1e8184/202110252334_buzo_i.jpg', 'Sushi Go! - Barra', '4.5', 'Japonesa', '2.1 km', '39-49 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-go---barra-barra-da-tijuca/c743c89f-276e-4636-8fda-78bf7c1e8184', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.3">
@@ -19198,7 +19198,7 @@
       </c>
       <c r="T215" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/fe372eec-599b-44c5-8848-bda0ab9422b8/201907031611_9Pbp_.jpeg", "Uau Sushi - Barra da Tijuca", "4.2", "Japonesa", "2.7 km", "30-40 min", "Grátis", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/uau-sushi---barra-da-tijuca-barra-da-tijuca/fe372eec-599b-44c5-8848-bda0ab9422b8", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/fe372eec-599b-44c5-8848-bda0ab9422b8/201907031611_9Pbp_.jpeg', 'Uau Sushi - Barra da Tijuca', '4.2', 'Japonesa', '2.7 km', '30-40 min', 'Grátis', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/uau-sushi---barra-da-tijuca-barra-da-tijuca/fe372eec-599b-44c5-8848-bda0ab9422b8', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.3">
@@ -19270,7 +19270,7 @@
       </c>
       <c r="T216" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/b9038cd5-8eee-482b-97bb-27581a42acae/202101251428_YDKA_i.png", "Boomie Sushi &amp; Poke Bowl - Barra", "4.3", "Japonesa", "0.4 km", "29-39 min", "Grátis", "Peça 3 vezes, ganhe R$ 20", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/boomie-sushi--poke-bowl---barra-barra-da-tijuca/b9038cd5-8eee-482b-97bb-27581a42acae", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/b9038cd5-8eee-482b-97bb-27581a42acae/202101251428_YDKA_i.png', 'Boomie Sushi &amp; Poke Bowl - Barra', '4.3', 'Japonesa', '0.4 km', '29-39 min', 'Grátis', 'Peça 3 vezes, ganhe R$ 20', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/boomie-sushi--poke-bowl---barra-barra-da-tijuca/b9038cd5-8eee-482b-97bb-27581a42acae', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.3">
@@ -19342,7 +19342,7 @@
       </c>
       <c r="T217" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/6004b5b6-618c-46af-bb41-4f29d0ca597f/201901091748_logo_.png", "Japaflash Barra - Culinária Japonesa", "3.9", "Japonesa", "1.1 km", "30-40 min", "Grátis", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japaflash-barra---culinaria-japonesa-barra-da-tijuca/6004b5b6-618c-46af-bb41-4f29d0ca597f", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/6004b5b6-618c-46af-bb41-4f29d0ca597f/201901091748_logo_.png', 'Japaflash Barra - Culinária Japonesa', '3.9', 'Japonesa', '1.1 km', '30-40 min', 'Grátis', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japaflash-barra---culinaria-japonesa-barra-da-tijuca/6004b5b6-618c-46af-bb41-4f29d0ca597f', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.3">
@@ -19414,7 +19414,7 @@
       </c>
       <c r="T218" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/9cebd617-a78e-4f76-b7de-808610d7fb4b/202005151709_4s0z_i.jpg", "Tropical Sushi", "4.5", "Japonesa", "3.2 km", "44-54 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/tropical-sushi-barra-da-tijuca/9cebd617-a78e-4f76-b7de-808610d7fb4b", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/9cebd617-a78e-4f76-b7de-808610d7fb4b/202005151709_4s0z_i.jpg', 'Tropical Sushi', '4.5', 'Japonesa', '3.2 km', '44-54 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/tropical-sushi-barra-da-tijuca/9cebd617-a78e-4f76-b7de-808610d7fb4b', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.3">
@@ -19486,7 +19486,7 @@
       </c>
       <c r="T219" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/c2efd008-a4e3-4b4d-90fe-6f07bd2487fd/202108091243_2wgw_i.jpg", "Yori Sushi - Barra", "4.6", "Japonesa", "1.5 km", "40-50 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/yori-sushi---barra-barra-da-tijuca/c2efd008-a4e3-4b4d-90fe-6f07bd2487fd", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/c2efd008-a4e3-4b4d-90fe-6f07bd2487fd/202108091243_2wgw_i.jpg', 'Yori Sushi - Barra', '4.6', 'Japonesa', '1.5 km', '40-50 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/yori-sushi---barra-barra-da-tijuca/c2efd008-a4e3-4b4d-90fe-6f07bd2487fd', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.3">
@@ -19558,7 +19558,7 @@
       </c>
       <c r="T220" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/2021f2f4-5c0d-4012-bd7b-bc18d4f0c86e/202104081159_1S0N_.jpeg", "Kyoto Mania Culinária Japonesa", "4.3", "Japonesa", "3.0 km", "20-30 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/kyoto-mania-culinaria-japonesa-itanhanga/2021f2f4-5c0d-4012-bd7b-bc18d4f0c86e", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/2021f2f4-5c0d-4012-bd7b-bc18d4f0c86e/202104081159_1S0N_.jpeg', 'Kyoto Mania Culinária Japonesa', '4.3', 'Japonesa', '3.0 km', '20-30 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/kyoto-mania-culinaria-japonesa-itanhanga/2021f2f4-5c0d-4012-bd7b-bc18d4f0c86e', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.3">
@@ -19630,7 +19630,7 @@
       </c>
       <c r="T221" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/f752019d-68a4-4a5e-8d27-3fb234753e49/202109091940_gJT4_i.jpg", "Della Japa Gagliasso", "4.5", "Japonesa", "0.9 km", "30-40 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/della-japa-gagliasso-barra-garden/f752019d-68a4-4a5e-8d27-3fb234753e49", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/f752019d-68a4-4a5e-8d27-3fb234753e49/202109091940_gJT4_i.jpg', 'Della Japa Gagliasso', '4.5', 'Japonesa', '0.9 km', '30-40 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/della-japa-gagliasso-barra-garden/f752019d-68a4-4a5e-8d27-3fb234753e49', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.3">
@@ -19702,7 +19702,7 @@
       </c>
       <c r="T222" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/410b8562-4ebc-4484-b733-fdaa4d85fd51/202008031006_0s1P_.jpeg", "House Rio Sushi", "4.8", "Japonesa", "2.6 km", "29-39 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/house-rio-sushi-barra-da-tijuca/410b8562-4ebc-4484-b733-fdaa4d85fd51", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/410b8562-4ebc-4484-b733-fdaa4d85fd51/202008031006_0s1P_.jpeg', 'House Rio Sushi', '4.8', 'Japonesa', '2.6 km', '29-39 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/house-rio-sushi-barra-da-tijuca/410b8562-4ebc-4484-b733-fdaa4d85fd51', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.3">
@@ -19774,7 +19774,7 @@
       </c>
       <c r="T223" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/logo%20zo_zosushi.jpg", "Zo Sushi", "4.8", "Japonesa", "2.1 km", "55-65 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/zo-sushi-barra-da-tijuca/d1c007fb-acc2-49eb-9017-804e4cc1ae20", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/logo%20zo_zosushi.jpg', 'Zo Sushi', '4.8', 'Japonesa', '2.1 km', '55-65 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/zo-sushi-barra-da-tijuca/d1c007fb-acc2-49eb-9017-804e4cc1ae20', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.3">
@@ -19846,7 +19846,7 @@
       </c>
       <c r="T224" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/70b82e0a-ca5f-4805-8bca-4730aff738fb/202002041510_INfy_i.jpg", "Japa Por 1 Real- Barra", "4.5", "Japonesa", "1.1 km", "40-50 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japa-por-1-real--barra-barra-da-tijuca/70b82e0a-ca5f-4805-8bca-4730aff738fb", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/70b82e0a-ca5f-4805-8bca-4730aff738fb/202002041510_INfy_i.jpg', 'Japa Por 1 Real- Barra', '4.5', 'Japonesa', '1.1 km', '40-50 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japa-por-1-real--barra-barra-da-tijuca/70b82e0a-ca5f-4805-8bca-4730aff738fb', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.3">
@@ -19918,7 +19918,7 @@
       </c>
       <c r="T225" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/0b8783d5-f6a4-4bb6-a7b2-08b22c86fbe2/201906271832_hZpB_i.jpg", "Kijapa", "4.8", "Japonesa", "6.9 km", "40-50 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/kijapa-jacarepagua/0b8783d5-f6a4-4bb6-a7b2-08b22c86fbe2", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/0b8783d5-f6a4-4bb6-a7b2-08b22c86fbe2/201906271832_hZpB_i.jpg', 'Kijapa', '4.8', 'Japonesa', '6.9 km', '40-50 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/kijapa-jacarepagua/0b8783d5-f6a4-4bb6-a7b2-08b22c86fbe2', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.3">
@@ -19990,7 +19990,7 @@
       </c>
       <c r="T226" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/f76e1776-f96d-4bf7-9545-69babe876eb9/202102131256_t15T_i.png", "Yo Japa - Recreio", "4.4", "Japonesa", "10.9 km", "45-55 min", "Grátis", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/yo-japa---recreio-recreio-dos-bandeirantes/f76e1776-f96d-4bf7-9545-69babe876eb9", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/f76e1776-f96d-4bf7-9545-69babe876eb9/202102131256_t15T_i.png', 'Yo Japa - Recreio', '4.4', 'Japonesa', '10.9 km', '45-55 min', 'Grátis', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/yo-japa---recreio-recreio-dos-bandeirantes/f76e1776-f96d-4bf7-9545-69babe876eb9', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.3">
@@ -20062,7 +20062,7 @@
       </c>
       <c r="T227" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/ad51dfc2-6609-4277-bb22-9d59107d560a/202104132055_1EIm_.jpeg", "Marlin Sushi", "4.9", "Japonesa", "5.1 km", "40-50 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/marlin-sushi-barra-da-tijuca/ad51dfc2-6609-4277-bb22-9d59107d560a", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/ad51dfc2-6609-4277-bb22-9d59107d560a/202104132055_1EIm_.jpeg', 'Marlin Sushi', '4.9', 'Japonesa', '5.1 km', '40-50 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/marlin-sushi-barra-da-tijuca/ad51dfc2-6609-4277-bb22-9d59107d560a', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.3">
@@ -20134,7 +20134,7 @@
       </c>
       <c r="T228" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/ba15f05b-5e1b-460f-b594-771260f6420d/202005100357_2FN8_i.png", "The Box Sushi - É Rápido e Gostoso, Vem!", "4.3", "Japonesa", "1.1 km", "45-55 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/the-box-sushi---e-rapido-e-gostoso-vem-barra-da-tijuca/ba15f05b-5e1b-460f-b594-771260f6420d", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/ba15f05b-5e1b-460f-b594-771260f6420d/202005100357_2FN8_i.png', 'The Box Sushi - É Rápido e Gostoso, Vem!', '4.3', 'Japonesa', '1.1 km', '45-55 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/the-box-sushi---e-rapido-e-gostoso-vem-barra-da-tijuca/ba15f05b-5e1b-460f-b594-771260f6420d', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.3">
@@ -20206,7 +20206,7 @@
       </c>
       <c r="T229" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/78e7356a-457e-44cf-a215-c4c13bbdafca/202002261858_7MB6_i.jpg", "Sushi da Praça - Barra", "4.4", "Japonesa", "2.2 km", "60-70 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-da-praca---barra-barra-da-tijuca/78e7356a-457e-44cf-a215-c4c13bbdafca", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/78e7356a-457e-44cf-a215-c4c13bbdafca/202002261858_7MB6_i.jpg', 'Sushi da Praça - Barra', '4.4', 'Japonesa', '2.2 km', '60-70 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-da-praca---barra-barra-da-tijuca/78e7356a-457e-44cf-a215-c4c13bbdafca', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
@@ -20278,7 +20278,7 @@
       </c>
       <c r="T230" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/8ef69ff3-e072-4df2-9551-13ef95e57437/202105051439_FagM_i.jpg", "King Sushi Delivery", "4.8", "Japonesa", "1.1 km", "40-50 min", "Grátis", "Peça 3 vezes, ganhe R$ 20", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/king-sushi-delivery-barra-da-tijuca/8ef69ff3-e072-4df2-9551-13ef95e57437", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/8ef69ff3-e072-4df2-9551-13ef95e57437/202105051439_FagM_i.jpg', 'King Sushi Delivery', '4.8', 'Japonesa', '1.1 km', '40-50 min', 'Grátis', 'Peça 3 vezes, ganhe R$ 20', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/king-sushi-delivery-barra-da-tijuca/8ef69ff3-e072-4df2-9551-13ef95e57437', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
@@ -20350,7 +20350,7 @@
       </c>
       <c r="T231" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/201808171541_394fbb4b-bcfa-468d-af42-7e72e9e9d889.JPG", "Makis Place - Barra da Tijuca", "4.7", "Japonesa", "0.8 km", "25-35 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/makis--place---barra-da-tijuca-barra-da-tijuca/394fbb4b-bcfa-468d-af42-7e72e9e9d889", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/201808171541_394fbb4b-bcfa-468d-af42-7e72e9e9d889.JPG', 'Makis Place - Barra da Tijuca', '4.7', 'Japonesa', '0.8 km', '25-35 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/makis--place---barra-da-tijuca-barra-da-tijuca/394fbb4b-bcfa-468d-af42-7e72e9e9d889', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.3">
@@ -20422,7 +20422,7 @@
       </c>
       <c r="T232" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/202010311620_1230fb58-9b7f-4e51-8ba0-5eccc475442e.png", "Japinha Delivery", "4.6", "Japonesa", "1.6 km", "39-49 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japinha-delivery-barra-da-tijuca/1230fb58-9b7f-4e51-8ba0-5eccc475442e", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/202010311620_1230fb58-9b7f-4e51-8ba0-5eccc475442e.png', 'Japinha Delivery', '4.6', 'Japonesa', '1.6 km', '39-49 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japinha-delivery-barra-da-tijuca/1230fb58-9b7f-4e51-8ba0-5eccc475442e', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.3">
@@ -20494,7 +20494,7 @@
       </c>
       <c r="T233" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/48342fbd-e987-4918-8ced-051cd9d81741/202009102003_ZSua_.jpeg", "Japasushi Rio Por 1 Real - Barra", "4.4", "Japonesa", "1.0 km", "28-38 min", "Grátis", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japasushi-rio-por-1-real---barra-barra-da-tijuca/48342fbd-e987-4918-8ced-051cd9d81741", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/48342fbd-e987-4918-8ced-051cd9d81741/202009102003_ZSua_.jpeg', 'Japasushi Rio Por 1 Real - Barra', '4.4', 'Japonesa', '1.0 km', '28-38 min', 'Grátis', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japasushi-rio-por-1-real---barra-barra-da-tijuca/48342fbd-e987-4918-8ced-051cd9d81741', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.3">
@@ -20566,7 +20566,7 @@
       </c>
       <c r="T234" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/f44e3dca-ec9a-4213-a4db-e8dc92c17c0c/202102271026_sUtE_i.png", "1$ushi - Recreio", "4.5", "Japonesa", "10.9 km", "45-55 min", "Grátis", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/1ushi---recreio-recreio-dos-bandeirantes/f44e3dca-ec9a-4213-a4db-e8dc92c17c0c", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/f44e3dca-ec9a-4213-a4db-e8dc92c17c0c/202102271026_sUtE_i.png', '1$ushi - Recreio', '4.5', 'Japonesa', '10.9 km', '45-55 min', 'Grátis', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/1ushi---recreio-recreio-dos-bandeirantes/f44e3dca-ec9a-4213-a4db-e8dc92c17c0c', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.3">
@@ -20638,7 +20638,7 @@
       </c>
       <c r="T235" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/roma_sushiroma.png", "Sushi Roma", "4.6", "Japonesa", "8.7 km", "29-39 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-roma-rocinha/aec7fd4d-28f1-411b-8a7c-40329fe4049f", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/roma_sushiroma.png', 'Sushi Roma', '4.6', 'Japonesa', '8.7 km', '29-39 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-roma-rocinha/aec7fd4d-28f1-411b-8a7c-40329fe4049f', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.3">
@@ -20710,7 +20710,7 @@
       </c>
       <c r="T236" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/de4210da-2c06-4e02-8d85-50da734e4d71/202003212331_bUqx_i.jpg", "Toruk Sushi - Uptown Barra", "4.9", "Japonesa", "5.0 km", "60-70 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/toruk-sushi---uptown-barra-barra-da-tijuca/de4210da-2c06-4e02-8d85-50da734e4d71", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/de4210da-2c06-4e02-8d85-50da734e4d71/202003212331_bUqx_i.jpg', 'Toruk Sushi - Uptown Barra', '4.9', 'Japonesa', '5.0 km', '60-70 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/toruk-sushi---uptown-barra-barra-da-tijuca/de4210da-2c06-4e02-8d85-50da734e4d71', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.3">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="T237" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/bb3b3fa6-b7cc-4407-a6c7-67d44ce3111d/202011231730_lvzz_i.jpg", "Kokka Sushi", "4.6", "Japonesa", "10.4 km", "65-75 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/kokka-sushi-recreio-dos-bandeirantes/bb3b3fa6-b7cc-4407-a6c7-67d44ce3111d", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/bb3b3fa6-b7cc-4407-a6c7-67d44ce3111d/202011231730_lvzz_i.jpg', 'Kokka Sushi', '4.6', 'Japonesa', '10.4 km', '65-75 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/kokka-sushi-recreio-dos-bandeirantes/bb3b3fa6-b7cc-4407-a6c7-67d44ce3111d', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.3">
@@ -20854,7 +20854,7 @@
       </c>
       <c r="T238" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/9f081777-821d-43aa-ad0a-94be56ceb4cd/201906202139_22cR_i.jpg", "Sushi Prime - Rio 2", "4.6", "Japonesa", "4.7 km", "34-44 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-prime---rio-2-jacarepagua/9f081777-821d-43aa-ad0a-94be56ceb4cd", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/9f081777-821d-43aa-ad0a-94be56ceb4cd/201906202139_22cR_i.jpg', 'Sushi Prime - Rio 2', '4.6', 'Japonesa', '4.7 km', '34-44 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-prime---rio-2-jacarepagua/9f081777-821d-43aa-ad0a-94be56ceb4cd', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.3">
@@ -20926,7 +20926,7 @@
       </c>
       <c r="T239" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/0a047f87-2d48-4630-851c-9fde0342ce1f/202103091716_jwZR_i.png", "Home Sushi Home - O Melhor Japonês", "4.9", "Japonesa", "1.1 km", "40-50 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/home-sushi-home---o-melhor-japones-barra-da-tijuca/0a047f87-2d48-4630-851c-9fde0342ce1f", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/0a047f87-2d48-4630-851c-9fde0342ce1f/202103091716_jwZR_i.png', 'Home Sushi Home - O Melhor Japonês', '4.9', 'Japonesa', '1.1 km', '40-50 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/home-sushi-home---o-melhor-japones-barra-da-tijuca/0a047f87-2d48-4630-851c-9fde0342ce1f', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.3">
@@ -20998,7 +20998,7 @@
       </c>
       <c r="T240" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/385f6868-b3a2-46c5-a8bf-28b8cf53fe8d/202012041557_CSNh_.jpeg", "Katsumaru Culinaria Japonesa", "4.5", "Japonesa", "9.3 km", "45-55 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/katsumaru-culinaria-japonesa-rocinha/385f6868-b3a2-46c5-a8bf-28b8cf53fe8d", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/385f6868-b3a2-46c5-a8bf-28b8cf53fe8d/202012041557_CSNh_.jpeg', 'Katsumaru Culinaria Japonesa', '4.5', 'Japonesa', '9.3 km', '45-55 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/katsumaru-culinaria-japonesa-rocinha/385f6868-b3a2-46c5-a8bf-28b8cf53fe8d', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.3">
@@ -21070,7 +21070,7 @@
       </c>
       <c r="T241" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/64c4931f-77b7-4d9f-8a2c-a02c210f25cc/201910272149_T9wT_i.jpg", "Planeta Sushi Downtown", "4.4", "Japonesa", "1.8 km", "50-60 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/planeta-sushi-downtown-barra-da-tijuca/64c4931f-77b7-4d9f-8a2c-a02c210f25cc", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/64c4931f-77b7-4d9f-8a2c-a02c210f25cc/201910272149_T9wT_i.jpg', 'Planeta Sushi Downtown', '4.4', 'Japonesa', '1.8 km', '50-60 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/planeta-sushi-downtown-barra-da-tijuca/64c4931f-77b7-4d9f-8a2c-a02c210f25cc', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.3">
@@ -21142,7 +21142,7 @@
       </c>
       <c r="T242" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/46a9e497-6120-4110-a5d5-5530d99f1864/202101071412_c8fR_.jpeg", "Omakase Sushi", "5.0", "Japonesa", "1.1 km", "35-45 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/omakase-sushi-barra-da-tijuca/46a9e497-6120-4110-a5d5-5530d99f1864", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/46a9e497-6120-4110-a5d5-5530d99f1864/202101071412_c8fR_.jpeg', 'Omakase Sushi', '5.0', 'Japonesa', '1.1 km', '35-45 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/omakase-sushi-barra-da-tijuca/46a9e497-6120-4110-a5d5-5530d99f1864', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.3">
@@ -21214,7 +21214,7 @@
       </c>
       <c r="T243" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/cc5f8d58-37cd-4c3d-92ab-3fb872f6d432/201910161747_XEeB_i.jpg", "Japajato - Barra", "4.2", "Japonesa", "2.5 km", "40-50 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japajato---barra-barra-da-tijuca/cc5f8d58-37cd-4c3d-92ab-3fb872f6d432", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/cc5f8d58-37cd-4c3d-92ab-3fb872f6d432/201910161747_XEeB_i.jpg', 'Japajato - Barra', '4.2', 'Japonesa', '2.5 km', '40-50 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japajato---barra-barra-da-tijuca/cc5f8d58-37cd-4c3d-92ab-3fb872f6d432', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.3">
@@ -21286,7 +21286,7 @@
       </c>
       <c r="T244" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/3d94ef21-1f8b-451c-863d-a9cf190608ce/202109192031_tNic_i.jpg", "Kosuke - Barra", "4.6", "Japonesa", "2.1 km", "49-59 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/kosuke---barra-barra-da-tijuca/3d94ef21-1f8b-451c-863d-a9cf190608ce", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/3d94ef21-1f8b-451c-863d-a9cf190608ce/202109192031_tNic_i.jpg', 'Kosuke - Barra', '4.6', 'Japonesa', '2.1 km', '49-59 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/kosuke---barra-barra-da-tijuca/3d94ef21-1f8b-451c-863d-a9cf190608ce', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.3">
@@ -21358,7 +21358,7 @@
       </c>
       <c r="T245" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/26b4beff-a959-4639-b2d6-ba0272a07763/202005051617_wzje_i.jpg", "Joe Sushi Bar Carioca", "4.6", "Japonesa", "2.2 km", "35-45 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/joe-sushi-bar-carioca-itanhanga/26b4beff-a959-4639-b2d6-ba0272a07763", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/26b4beff-a959-4639-b2d6-ba0272a07763/202005051617_wzje_i.jpg', 'Joe Sushi Bar Carioca', '4.6', 'Japonesa', '2.2 km', '35-45 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/joe-sushi-bar-carioca-itanhanga/26b4beff-a959-4639-b2d6-ba0272a07763', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.3">
@@ -21430,7 +21430,7 @@
       </c>
       <c r="T246" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/543e4b7b-e0e5-4def-9f0a-4619a44857e1/202104270845_FGn3_i.png", "Sushi Prime - Deluxe", "4.7", "Japonesa", "4.8 km", "34-44 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-prime---deluxe-jacarepagua/543e4b7b-e0e5-4def-9f0a-4619a44857e1", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/543e4b7b-e0e5-4def-9f0a-4619a44857e1/202104270845_FGn3_i.png', 'Sushi Prime - Deluxe', '4.7', 'Japonesa', '4.8 km', '34-44 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-prime---deluxe-jacarepagua/543e4b7b-e0e5-4def-9f0a-4619a44857e1', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.3">
@@ -21502,7 +21502,7 @@
       </c>
       <c r="T247" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/4271d9e7-fc88-4dc9-b968-58081eaa45a2/202106142330_KhPQ_.jpeg", "Sushi Maníacos", "4.8", "Japonesa", "1.1 km", "40-50 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-maniacos-barra-da-tijuca/4271d9e7-fc88-4dc9-b968-58081eaa45a2", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/4271d9e7-fc88-4dc9-b968-58081eaa45a2/202106142330_KhPQ_.jpeg', 'Sushi Maníacos', '4.8', 'Japonesa', '1.1 km', '40-50 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-maniacos-barra-da-tijuca/4271d9e7-fc88-4dc9-b968-58081eaa45a2', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.3">
@@ -21574,7 +21574,7 @@
       </c>
       <c r="T248" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/a9d32acb-1290-487b-9402-32c08c8bc345/202109220351_mPyI_i.png", "Sushi Incrivel", "4.0", "Japonesa", "1.1 km", "45-55 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-incrivel-barra-da-tijuca/a9d32acb-1290-487b-9402-32c08c8bc345", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/a9d32acb-1290-487b-9402-32c08c8bc345/202109220351_mPyI_i.png', 'Sushi Incrivel', '4.0', 'Japonesa', '1.1 km', '45-55 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-incrivel-barra-da-tijuca/a9d32acb-1290-487b-9402-32c08c8bc345', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.3">
@@ -21646,7 +21646,7 @@
       </c>
       <c r="T249" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/7ac50a22-0051-4641-a23e-f9d98b53b27f/202107151639_o0hP_i.jpg", "Number One Sushi", "4.6", "Japonesa", "8.8 km", "55-65 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/number-one-sushi-rocinha/7ac50a22-0051-4641-a23e-f9d98b53b27f", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/7ac50a22-0051-4641-a23e-f9d98b53b27f/202107151639_o0hP_i.jpg', 'Number One Sushi', '4.6', 'Japonesa', '8.8 km', '55-65 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/number-one-sushi-rocinha/7ac50a22-0051-4641-a23e-f9d98b53b27f', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.3">
@@ -21718,7 +21718,7 @@
       </c>
       <c r="T250" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/cab580a5-44c1-4d77-909f-4a45eadaf1ca/202004082152_HtPp_.jpeg", "Sushi Makis", "4.8", "Japonesa", "0.7 km", "35-45 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-makis-barra-da-tijuca/cab580a5-44c1-4d77-909f-4a45eadaf1ca", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/cab580a5-44c1-4d77-909f-4a45eadaf1ca/202004082152_HtPp_.jpeg', 'Sushi Makis', '4.8', 'Japonesa', '0.7 km', '35-45 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-makis-barra-da-tijuca/cab580a5-44c1-4d77-909f-4a45eadaf1ca', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.3">
@@ -21790,7 +21790,7 @@
       </c>
       <c r="T251" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/7afe8167-577c-4649-96a4-ff886e92dc6b/201910181148_07CH_i.png", "Rai-yu Izakaya - Barra", "3.8", "Japonesa", "0.4 km", "29-39 min", "Grátis", "Peça 5 vezes, ganhe R$ 30", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/rai-yu-izakaya---barra-barra-da-tijuca/7afe8167-577c-4649-96a4-ff886e92dc6b", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/7afe8167-577c-4649-96a4-ff886e92dc6b/201910181148_07CH_i.png', 'Rai-yu Izakaya - Barra', '3.8', 'Japonesa', '0.4 km', '29-39 min', 'Grátis', 'Peça 5 vezes, ganhe R$ 30', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/rai-yu-izakaya---barra-barra-da-tijuca/7afe8167-577c-4649-96a4-ff886e92dc6b', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.3">
@@ -21862,7 +21862,7 @@
       </c>
       <c r="T252" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/468ebc32-ac9c-42fd-b2e4-63d20274c2d5/202011231702_f687_i.jpg", "Nações Sushi", "4.8", "Japonesa", "10.4 km", "60-70 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/nacoes-sushi-recreio-dos-bandeirantes/468ebc32-ac9c-42fd-b2e4-63d20274c2d5", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/468ebc32-ac9c-42fd-b2e4-63d20274c2d5/202011231702_f687_i.jpg', 'Nações Sushi', '4.8', 'Japonesa', '10.4 km', '60-70 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/nacoes-sushi-recreio-dos-bandeirantes/468ebc32-ac9c-42fd-b2e4-63d20274c2d5', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.3">
@@ -21934,7 +21934,7 @@
       </c>
       <c r="T253" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/475370be-ee2f-4340-9b6d-93ea97cba60f/202104291137_wbns_i.png", "Sushichic - Barra da Tijuca", "4.5", "Japonesa", "3.0 km", "40-50 min", "Grátis", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushichic---barra-da-tijuca-barra-da-tijuca/475370be-ee2f-4340-9b6d-93ea97cba60f", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/475370be-ee2f-4340-9b6d-93ea97cba60f/202104291137_wbns_i.png', 'Sushichic - Barra da Tijuca', '4.5', 'Japonesa', '3.0 km', '40-50 min', 'Grátis', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushichic---barra-da-tijuca-barra-da-tijuca/475370be-ee2f-4340-9b6d-93ea97cba60f', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.3">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="T254" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/b4a5daeb-a1c8-4572-9ec4-6020de3f604f/202105251131_WWr6_i.png", "Tirashi Sushi", "4.7", "Japonesa", "3.4 km", "50-60 min", "Grátis", "Cupom de R$ 20 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/tirashi-sushi-itanhanga/b4a5daeb-a1c8-4572-9ec4-6020de3f604f", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/b4a5daeb-a1c8-4572-9ec4-6020de3f604f/202105251131_WWr6_i.png', 'Tirashi Sushi', '4.7', 'Japonesa', '3.4 km', '50-60 min', 'Grátis', 'Cupom de R$ 20 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/tirashi-sushi-itanhanga/b4a5daeb-a1c8-4572-9ec4-6020de3f604f', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.3">
@@ -22078,7 +22078,7 @@
       </c>
       <c r="T255" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/a33e27d2-32ab-4db4-b3e7-8e76c5d137c7/202106081052_vSyS_i.png", "Japaflash Rio 2 - Culinária Japonesa", "4.3", "Japonesa", "1.1 km", "35-45 min", "Grátis", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japaflash-rio-2---culinaria-japonesa-barra-da-tijuca/a33e27d2-32ab-4db4-b3e7-8e76c5d137c7", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/a33e27d2-32ab-4db4-b3e7-8e76c5d137c7/202106081052_vSyS_i.png', 'Japaflash Rio 2 - Culinária Japonesa', '4.3', 'Japonesa', '1.1 km', '35-45 min', 'Grátis', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japaflash-rio-2---culinaria-japonesa-barra-da-tijuca/a33e27d2-32ab-4db4-b3e7-8e76c5d137c7', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.3">
@@ -22150,7 +22150,7 @@
       </c>
       <c r="T256" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/8a68e174-3d62-49a5-9b53-3c9f4178444f/201905191318_w7b2_i.png", "Sushirang", "Novo!", "Japonesa", "2.8 km", "32-42 min", "Grátis", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushirang-barra-da-tijuca/8a68e174-3d62-49a5-9b53-3c9f4178444f", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/8a68e174-3d62-49a5-9b53-3c9f4178444f/201905191318_w7b2_i.png', 'Sushirang', 'Novo!', 'Japonesa', '2.8 km', '32-42 min', 'Grátis', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushirang-barra-da-tijuca/8a68e174-3d62-49a5-9b53-3c9f4178444f', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.3">
@@ -22222,7 +22222,7 @@
       </c>
       <c r="T257" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/201704071109_70bc7f295d024ce7a9a960d9b726d2b1.jpg", "Akimô Japonês Delivery", "5.0", "Japonesa", "4.5 km", "70-80 min", "Grátis", "Peça 5 vezes, ganhe R$ 30", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/akimo-japones-delivery-anil/70bc7f29-5d02-4ce7-a9a9-60d9b726d2b1", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/201704071109_70bc7f295d024ce7a9a960d9b726d2b1.jpg', 'Akimô Japonês Delivery', '5.0', 'Japonesa', '4.5 km', '70-80 min', 'Grátis', 'Peça 5 vezes, ganhe R$ 30', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/akimo-japones-delivery-anil/70bc7f29-5d02-4ce7-a9a9-60d9b726d2b1', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.3">
@@ -22294,7 +22294,7 @@
       </c>
       <c r="T258" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/201708200950_3997c9c5-df2a-4cd7-8768-12589e4a5509.png", "Gendai - Citta América", "4.4", "Japonesa", "1.4 km", "40-50 min", "R$ 6,50", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/gendai---citta-america-barra-da-tijuca/3997c9c5-df2a-4cd7-8768-12589e4a5509", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/201708200950_3997c9c5-df2a-4cd7-8768-12589e4a5509.png', 'Gendai - Citta América', '4.4', 'Japonesa', '1.4 km', '40-50 min', 'R$ 6,50', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/gendai---citta-america-barra-da-tijuca/3997c9c5-df2a-4cd7-8768-12589e4a5509', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.3">
@@ -22366,7 +22366,7 @@
       </c>
       <c r="T259" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/61c9dd8f-512a-4c33-a4f7-87ebec109ae9/201911091019_YU9I_i.png", "Sushi Carioca - Jardim Oceânico", "4.4", "Japonesa", "2.9 km", "40-50 min", "R$ 5,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-carioca---jardim-oceanico-barra-da-tijuca/61c9dd8f-512a-4c33-a4f7-87ebec109ae9", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/61c9dd8f-512a-4c33-a4f7-87ebec109ae9/201911091019_YU9I_i.png', 'Sushi Carioca - Jardim Oceânico', '4.4', 'Japonesa', '2.9 km', '40-50 min', 'R$ 5,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-carioca---jardim-oceanico-barra-da-tijuca/61c9dd8f-512a-4c33-a4f7-87ebec109ae9', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.3">
@@ -22438,7 +22438,7 @@
       </c>
       <c r="T260" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/202004031124_ebbbb9fd-a6ce-40dd-818a-9f83657b3f91.png", "Gokei - Citta America", "4.7", "Japonesa", "1.4 km", "30-40 min", "R$ 6,50", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/gokei---citta-america-barra-da-tijuca/ebbbb9fd-a6ce-40dd-818a-9f83657b3f91", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/202004031124_ebbbb9fd-a6ce-40dd-818a-9f83657b3f91.png', 'Gokei - Citta America', '4.7', 'Japonesa', '1.4 km', '30-40 min', 'R$ 6,50', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/gokei---citta-america-barra-da-tijuca/ebbbb9fd-a6ce-40dd-818a-9f83657b3f91', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.3">
@@ -22510,7 +22510,7 @@
       </c>
       <c r="T261" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/201907202113_e2532868-9ea5-4a60-960a-8a6e27b4415f.png", "Manekineko Casa Shopping", "4.4", "Japonesa", "3.2 km", "35-45 min", "R$ 8,49", "Peça 5 vezes, ganhe R$ 30", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/manekineko-casa-shopping-barra-da-tiuca/e2532868-9ea5-4a60-960a-8a6e27b4415f", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/201907202113_e2532868-9ea5-4a60-960a-8a6e27b4415f.png', 'Manekineko Casa Shopping', '4.4', 'Japonesa', '3.2 km', '35-45 min', 'R$ 8,49', 'Peça 5 vezes, ganhe R$ 30', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/manekineko-casa-shopping-barra-da-tiuca/e2532868-9ea5-4a60-960a-8a6e27b4415f', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.3">
@@ -22582,7 +22582,7 @@
       </c>
       <c r="T262" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/a0b77475-2a77-44f8-9a9b-6433d8e8711d/202011191255_HyWs_i.jpg", "Mr Maki Barra", "4.7", "Japonesa", "5.0 km", "50-60 min", "R$ 8,90", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/mr-maki-barra-barra-da-tijuca/a0b77475-2a77-44f8-9a9b-6433d8e8711d", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/a0b77475-2a77-44f8-9a9b-6433d8e8711d/202011191255_HyWs_i.jpg', 'Mr Maki Barra', '4.7', 'Japonesa', '5.0 km', '50-60 min', 'R$ 8,90', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/mr-maki-barra-barra-da-tijuca/a0b77475-2a77-44f8-9a9b-6433d8e8711d', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.3">
@@ -22654,7 +22654,7 @@
       </c>
       <c r="T263" t="str">
         <f t="shared" si="779"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/6c1fc8c3-6158-4941-919d-f52f3620d4dd/202103041041_LPx5_i.jpg", "Ginger Sushi", "4.2", "Japonesa", "6.2 km", "50-60 min", "R$ 11,99", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/ginger-sushi-barra-da-tijuca/6c1fc8c3-6158-4941-919d-f52f3620d4dd", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/6c1fc8c3-6158-4941-919d-f52f3620d4dd/202103041041_LPx5_i.jpg', 'Ginger Sushi', '4.2', 'Japonesa', '6.2 km', '50-60 min', 'R$ 11,99', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/ginger-sushi-barra-da-tijuca/6c1fc8c3-6158-4941-919d-f52f3620d4dd', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.3">
@@ -22725,8 +22725,8 @@
         <v>1152</v>
       </c>
       <c r="T264" t="str">
-        <f t="shared" ref="T264:T306" si="1037">_xlfn.CONCAT("INSERT INTO t_restaurante (","id_restaurante,  ","ds_img_restaurante,  ","nm_restaurante,  ","nr_rating_restaurante,  ","ds_tipo_restaurante,  ","nr_dist_restaurante,  ","ds_prazo_restaurante,  ","ds_frete_restaurante,  ","ds_desc_restaurante,  ","ds_url_restaurante, ","nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  """,C264,""", """,A264,""", """,E264,""", """,G264,""", """,I264,""", """,K264,""", """,M264,""", """,O264,""", """,Q264,""", """,S264,""");")</f>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/a7699b34-09ab-4b2d-b6b0-99d15e0d0c73/201911231334_NGMd_i.jpg", "Azuma Sushi", "4.2", "Japonesa", "3.4 km", "40-50 min", "R$ 7,00", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/azuma-sushi-itanhanga/a7699b34-09ab-4b2d-b6b0-99d15e0d0c73", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <f t="shared" ref="T264:T306" si="1037">_xlfn.CONCAT("INSERT INTO t_restaurante (","id_rest,  ","ds_img_rest,  ","nm_rest,  ","nr_rat_rest,  ","ds_tipo_rest,  ","nr_dist_rest,  ","ds_prazo_rest,  ","ds_frete_rest,  ","ds_desc_rest,  ","ds_url_rest, ","nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  '",C264,"', '",SUBSTITUTE(A264,"'",""),"', '",E264,"', '",G264,"', '",I264,"', '",K264,"', '",M264,"', '",O264,"', '",Q264,"', '",S264,"');")</f>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/a7699b34-09ab-4b2d-b6b0-99d15e0d0c73/201911231334_NGMd_i.jpg', 'Azuma Sushi', '4.2', 'Japonesa', '3.4 km', '40-50 min', 'R$ 7,00', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/azuma-sushi-itanhanga/a7699b34-09ab-4b2d-b6b0-99d15e0d0c73', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.3">
@@ -22798,7 +22798,7 @@
       </c>
       <c r="T265" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/53a55c26-d37e-4b78-90c0-ed914e3ec280/202006040527_Lmmk_.jpeg", "Soshi Deluxe", "4.6", "Japonesa", "7.5 km", "45-55 min", "R$ 9,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/soshi-deluxe-barra-da-tijuca/53a55c26-d37e-4b78-90c0-ed914e3ec280", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/53a55c26-d37e-4b78-90c0-ed914e3ec280/202006040527_Lmmk_.jpeg', 'Soshi Deluxe', '4.6', 'Japonesa', '7.5 km', '45-55 min', 'R$ 9,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/soshi-deluxe-barra-da-tijuca/53a55c26-d37e-4b78-90c0-ed914e3ec280', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.3">
@@ -22870,7 +22870,7 @@
       </c>
       <c r="T266" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/69aba9f0-2fb7-43a4-a74b-63887a6c083e/202104071301_WPsn_i.png", "Kalau Poke - Barra", "4.4", "Japonesa", "0.4 km", "20-30 min", "R$ 5,49", "Cupom de R$ 5 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/kalau-poke---barra-barra-da-tijuca/69aba9f0-2fb7-43a4-a74b-63887a6c083e", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/69aba9f0-2fb7-43a4-a74b-63887a6c083e/202104071301_WPsn_i.png', 'Kalau Poke - Barra', '4.4', 'Japonesa', '0.4 km', '20-30 min', 'R$ 5,49', 'Cupom de R$ 5 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/kalau-poke---barra-barra-da-tijuca/69aba9f0-2fb7-43a4-a74b-63887a6c083e', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.3">
@@ -22942,7 +22942,7 @@
       </c>
       <c r="T267" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/ef8279c6-9e58-4ee5-adbb-c17b55cd41a3/202010071016_abBf_i.jpg", "Beishu Sushi Lounge Barra", "4.6", "Japonesa", "5.4 km", "65-75 min", "R$ 9,90", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/beishu-sushi-lounge-barra-barra-da-tijuca/ef8279c6-9e58-4ee5-adbb-c17b55cd41a3", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/ef8279c6-9e58-4ee5-adbb-c17b55cd41a3/202010071016_abBf_i.jpg', 'Beishu Sushi Lounge Barra', '4.6', 'Japonesa', '5.4 km', '65-75 min', 'R$ 9,90', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/beishu-sushi-lounge-barra-barra-da-tijuca/ef8279c6-9e58-4ee5-adbb-c17b55cd41a3', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.3">
@@ -23014,7 +23014,7 @@
       </c>
       <c r="T268" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/201707140939_0f04f215-7a91-4611-b27f-23c51b3eb723.png", "Japagora", "4.8", "Japonesa", "7.8 km", "45-55 min", "R$ 12,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japagora-pechincha/0f04f215-7a91-4611-b27f-23c51b3eb723", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/201707140939_0f04f215-7a91-4611-b27f-23c51b3eb723.png', 'Japagora', '4.8', 'Japonesa', '7.8 km', '45-55 min', 'R$ 12,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japagora-pechincha/0f04f215-7a91-4611-b27f-23c51b3eb723', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.3">
@@ -23086,7 +23086,7 @@
       </c>
       <c r="T269" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/6745f64b-215b-4b38-bfce-d94d54c0a6f0/202001031606_wTiQ_i.png", "Azuma Sushi Gourmet", "4.2", "Japonesa", "3.4 km", "40-50 min", "R$ 7,00", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/azuma-sushi-gourmet-itanhanga/6745f64b-215b-4b38-bfce-d94d54c0a6f0", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/6745f64b-215b-4b38-bfce-d94d54c0a6f0/202001031606_wTiQ_i.png', 'Azuma Sushi Gourmet', '4.2', 'Japonesa', '3.4 km', '40-50 min', 'R$ 7,00', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/azuma-sushi-gourmet-itanhanga/6745f64b-215b-4b38-bfce-d94d54c0a6f0', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.3">
@@ -23158,7 +23158,7 @@
       </c>
       <c r="T270" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/201907202109_5a6fde2f-07e8-488b-9e85-8e97294ecc74.png", "Manekineko Itanhangá", "4.6", "Japonesa", "3.3 km", "34-44 min", "R$ 10,99", "Peça 3 vezes, ganhe R$ 20", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/manekineko-itanhanga-itanhanga/5a6fde2f-07e8-488b-9e85-8e97294ecc74", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/201907202109_5a6fde2f-07e8-488b-9e85-8e97294ecc74.png', 'Manekineko Itanhangá', '4.6', 'Japonesa', '3.3 km', '34-44 min', 'R$ 10,99', 'Peça 3 vezes, ganhe R$ 20', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/manekineko-itanhanga-itanhanga/5a6fde2f-07e8-488b-9e85-8e97294ecc74', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.3">
@@ -23230,7 +23230,7 @@
       </c>
       <c r="T271" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/30a200a3-a9df-4ece-85fb-daaee05e597b/202005051207_g1XD_i.png", "Hachiko Gourmet", "4.7", "Japonesa", "3.1 km", "60-70 min", "R$ 7,00", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/hachiko-gourmet-barra-da-tijuca/30a200a3-a9df-4ece-85fb-daaee05e597b", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/30a200a3-a9df-4ece-85fb-daaee05e597b/202005051207_g1XD_i.png', 'Hachiko Gourmet', '4.7', 'Japonesa', '3.1 km', '60-70 min', 'R$ 7,00', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/hachiko-gourmet-barra-da-tijuca/30a200a3-a9df-4ece-85fb-daaee05e597b', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.3">
@@ -23302,7 +23302,7 @@
       </c>
       <c r="T272" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/b6831b65-6741-4042-b7cb-c0b23eda6f8b/201903190016_yaki3.jpg", "Yakisoba Mania", "4.8", "Japonesa", "7.8 km", "29-39 min", "R$ 12,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/yakisoba-mania-pechincha/b6831b65-6741-4042-b7cb-c0b23eda6f8b", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/b6831b65-6741-4042-b7cb-c0b23eda6f8b/201903190016_yaki3.jpg', 'Yakisoba Mania', '4.8', 'Japonesa', '7.8 km', '29-39 min', 'R$ 12,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/yakisoba-mania-pechincha/b6831b65-6741-4042-b7cb-c0b23eda6f8b', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="273" spans="1:20" x14ac:dyDescent="0.3">
@@ -23374,7 +23374,7 @@
       </c>
       <c r="T273" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/f980f56f-e428-49a5-9215-b76585d66819/202107291946_osHA_i.png", "Maki Japa Express", "4.7", "Japonesa", "5.5 km", "55-65 min", "R$ 9,00", "Cupom de R$ 5 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/maki-japa-express-anil/f980f56f-e428-49a5-9215-b76585d66819", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/f980f56f-e428-49a5-9215-b76585d66819/202107291946_osHA_i.png', 'Maki Japa Express', '4.7', 'Japonesa', '5.5 km', '55-65 min', 'R$ 9,00', 'Cupom de R$ 5 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/maki-japa-express-anil/f980f56f-e428-49a5-9215-b76585d66819', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.3">
@@ -23446,7 +23446,7 @@
       </c>
       <c r="T274" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/06a12dc3-62bd-4563-8b37-cd4c3837c3b8/202010221733_1orf_i.png", "Zui Sushi", "4.8", "Japonesa", "3.0 km", "40-50 min", "R$ 5,00", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/zui-sushi-barra-da-tijuca/06a12dc3-62bd-4563-8b37-cd4c3837c3b8", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/06a12dc3-62bd-4563-8b37-cd4c3837c3b8/202010221733_1orf_i.png', 'Zui Sushi', '4.8', 'Japonesa', '3.0 km', '40-50 min', 'R$ 5,00', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/zui-sushi-barra-da-tijuca/06a12dc3-62bd-4563-8b37-cd4c3837c3b8', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.3">
@@ -23518,7 +23518,7 @@
       </c>
       <c r="T275" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/c837d508-d2f1-41de-bbaa-d863f1e47b51/202003271101_k0zF_i.jpg", "Benkei Sushi - Barra Mall", "4.6", "Japonesa", "5.6 km", "60-70 min", "R$ 12,90", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/benkei-sushi---barra-mall-barra-da-tijuca/c837d508-d2f1-41de-bbaa-d863f1e47b51", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/c837d508-d2f1-41de-bbaa-d863f1e47b51/202003271101_k0zF_i.jpg', 'Benkei Sushi - Barra Mall', '4.6', 'Japonesa', '5.6 km', '60-70 min', 'R$ 12,90', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/benkei-sushi---barra-mall-barra-da-tijuca/c837d508-d2f1-41de-bbaa-d863f1e47b51', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.3">
@@ -23590,7 +23590,7 @@
       </c>
       <c r="T276" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/2666634f-0cb1-40b1-8d1a-dc60545ff8dd/202104141332_SFPy_i.png", "Muii Sushi", "5.0", "Japonesa", "1.4 km", "45-55 min", "R$ 10,00", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/muii-sushi-barra-da-tijuca/2666634f-0cb1-40b1-8d1a-dc60545ff8dd", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/2666634f-0cb1-40b1-8d1a-dc60545ff8dd/202104141332_SFPy_i.png', 'Muii Sushi', '5.0', 'Japonesa', '1.4 km', '45-55 min', 'R$ 10,00', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/muii-sushi-barra-da-tijuca/2666634f-0cb1-40b1-8d1a-dc60545ff8dd', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="277" spans="1:20" x14ac:dyDescent="0.3">
@@ -23662,7 +23662,7 @@
       </c>
       <c r="T277" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/35aaf041-2d19-47b1-93e8-0b10515aa22b/202107161913_E0Lp_.jpeg", "Zalla Culinaria Japonesa", "4.7", "Japonesa", "3.3 km", "50-60 min", "R$ 7,00", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/zalla-culinaria-japonesa-barra-da-tijuca/35aaf041-2d19-47b1-93e8-0b10515aa22b", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/35aaf041-2d19-47b1-93e8-0b10515aa22b/202107161913_E0Lp_.jpeg', 'Zalla Culinaria Japonesa', '4.7', 'Japonesa', '3.3 km', '50-60 min', 'R$ 7,00', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/zalla-culinaria-japonesa-barra-da-tijuca/35aaf041-2d19-47b1-93e8-0b10515aa22b', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.3">
@@ -23734,7 +23734,7 @@
       </c>
       <c r="T278" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/c9c24060-d270-4d10-93d0-b429d9e51348/202107052335_AdRs_.jpeg", "Temaki Fry Olegário-Sushi e Rolls.", "4.7", "Japonesa", "3.2 km", "25-35 min", "R$ 9,99", "Cupom de R$ 5 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/temaki-fry-olegario-sushi-e-rolls-barra-da-tijuca/c9c24060-d270-4d10-93d0-b429d9e51348", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/c9c24060-d270-4d10-93d0-b429d9e51348/202107052335_AdRs_.jpeg', 'Temaki Fry Olegário-Sushi e Rolls.', '4.7', 'Japonesa', '3.2 km', '25-35 min', 'R$ 9,99', 'Cupom de R$ 5 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/temaki-fry-olegario-sushi-e-rolls-barra-da-tijuca/c9c24060-d270-4d10-93d0-b429d9e51348', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="279" spans="1:20" x14ac:dyDescent="0.3">
@@ -23806,7 +23806,7 @@
       </c>
       <c r="T279" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/d83d3c55-cd99-40e3-9f82-9846912aabdd/201907312242_jKyl_i.jpg", "Cariosushi Delivery", "4.6", "Japonesa", "6.4 km", "49-59 min", "R$ 9,90", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/cariosushi-delivery-anil/d83d3c55-cd99-40e3-9f82-9846912aabdd", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/d83d3c55-cd99-40e3-9f82-9846912aabdd/201907312242_jKyl_i.jpg', 'Cariosushi Delivery', '4.6', 'Japonesa', '6.4 km', '49-59 min', 'R$ 9,90', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/cariosushi-delivery-anil/d83d3c55-cd99-40e3-9f82-9846912aabdd', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.3">
@@ -23878,7 +23878,7 @@
       </c>
       <c r="T280" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/891b8ba0-7700-4f2f-9d48-1a2cb75278b5/202004291849_lG5l_.jpeg", "Poke Kube", "4.8", "Japonesa", "7.5 km", "45-55 min", "R$ 11,50", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/poke-kube-barra-da-tijuca/891b8ba0-7700-4f2f-9d48-1a2cb75278b5", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/891b8ba0-7700-4f2f-9d48-1a2cb75278b5/202004291849_lG5l_.jpeg', 'Poke Kube', '4.8', 'Japonesa', '7.5 km', '45-55 min', 'R$ 11,50', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/poke-kube-barra-da-tijuca/891b8ba0-7700-4f2f-9d48-1a2cb75278b5', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.3">
@@ -23950,7 +23950,7 @@
       </c>
       <c r="T281" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/japao%20brasil_japaobrasil.jpg", "Japão Brasil", "4.2", "Japonesa", "5.8 km", "70-80 min", "R$ 8,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japao-brasil-freguesia-jacarepagua/a44afe0d-80c5-4d15-8148-a55167db2b33", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/japao%20brasil_japaobrasil.jpg', 'Japão Brasil', '4.2', 'Japonesa', '5.8 km', '70-80 min', 'R$ 8,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japao-brasil-freguesia-jacarepagua/a44afe0d-80c5-4d15-8148-a55167db2b33', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="282" spans="1:20" x14ac:dyDescent="0.3">
@@ -24022,7 +24022,7 @@
       </c>
       <c r="T282" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/ddfbb3f1-5296-4944-9936-4a665d21aca2/201907280305_HUpT_i.png", "Myama Beach Poke", "4.6", "Japonesa", "7.7 km", "45-55 min", "R$ 4,50", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/myama-beach-poke-barra-da-tijuca/ddfbb3f1-5296-4944-9936-4a665d21aca2", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/ddfbb3f1-5296-4944-9936-4a665d21aca2/201907280305_HUpT_i.png', 'Myama Beach Poke', '4.6', 'Japonesa', '7.7 km', '45-55 min', 'R$ 4,50', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/myama-beach-poke-barra-da-tijuca/ddfbb3f1-5296-4944-9936-4a665d21aca2', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="283" spans="1:20" x14ac:dyDescent="0.3">
@@ -24094,7 +24094,7 @@
       </c>
       <c r="T283" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/185bcdf9-6623-4de6-a5e1-350347d950a5/202009022136_lrBo_i.png", "Mega Sushi - Recreio", "4.5", "Japonesa", "10.6 km", "34-44 min", "R$ 10,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/mega-sushi---recreio-recreio-dos-bandeirantes/185bcdf9-6623-4de6-a5e1-350347d950a5", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/185bcdf9-6623-4de6-a5e1-350347d950a5/202009022136_lrBo_i.png', 'Mega Sushi - Recreio', '4.5', 'Japonesa', '10.6 km', '34-44 min', 'R$ 10,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/mega-sushi---recreio-recreio-dos-bandeirantes/185bcdf9-6623-4de6-a5e1-350347d950a5', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="284" spans="1:20" x14ac:dyDescent="0.3">
@@ -24166,7 +24166,7 @@
       </c>
       <c r="T284" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/68d52493-5941-46f7-9ee3-8fc23a094125/202004291845_6FwP_.jpeg", "Gurû Japô", "4.8", "Japonesa", "7.5 km", "45-55 min", "R$ 8,50", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/guru-japo-barra-da-tijuca/68d52493-5941-46f7-9ee3-8fc23a094125", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/68d52493-5941-46f7-9ee3-8fc23a094125/202004291845_6FwP_.jpeg', 'Gurû Japô', '4.8', 'Japonesa', '7.5 km', '45-55 min', 'R$ 8,50', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/guru-japo-barra-da-tijuca/68d52493-5941-46f7-9ee3-8fc23a094125', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="285" spans="1:20" x14ac:dyDescent="0.3">
@@ -24238,7 +24238,7 @@
       </c>
       <c r="T285" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/27a49a07-2efb-4467-9d1a-c67d68426e0d/202105241753_rPTr_i.png", "Katmandu Barra da Tijuca", "3.7", "Japonesa", "2.5 km", "50-60 min", "R$ 10,00", "Peça 3 vezes, ganhe R$ 20", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/katmandu-barra-da-tijuca-barra-da-tijuca/27a49a07-2efb-4467-9d1a-c67d68426e0d", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/27a49a07-2efb-4467-9d1a-c67d68426e0d/202105241753_rPTr_i.png', 'Katmandu Barra da Tijuca', '3.7', 'Japonesa', '2.5 km', '50-60 min', 'R$ 10,00', 'Peça 3 vezes, ganhe R$ 20', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/katmandu-barra-da-tijuca-barra-da-tijuca/27a49a07-2efb-4467-9d1a-c67d68426e0d', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.3">
@@ -24310,7 +24310,7 @@
       </c>
       <c r="T286" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/d1571730-8466-404b-89fb-2622df1a0275/202109051419_xSvF_.jpeg", "JAPA ON", "4.1", "Japonesa", "6.9 km", "40-50 min", "R$ 5,00", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japa-on-jacarepagua/d1571730-8466-404b-89fb-2622df1a0275", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/d1571730-8466-404b-89fb-2622df1a0275/202109051419_xSvF_.jpeg', 'JAPA ON', '4.1', 'Japonesa', '6.9 km', '40-50 min', 'R$ 5,00', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/japa-on-jacarepagua/d1571730-8466-404b-89fb-2622df1a0275', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.3">
@@ -24382,7 +24382,7 @@
       </c>
       <c r="T287" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/b3bd6b20-08f9-4070-9a06-53ca2a05c8c6/202104220301_zlL5_.jpeg", "Poke Kube", "Novo!", "Japonesa", "5.2 km", "45-55 min", "R$ 5,50", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/poke-kube-barra-da-tijuca/b3bd6b20-08f9-4070-9a06-53ca2a05c8c6", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/b3bd6b20-08f9-4070-9a06-53ca2a05c8c6/202104220301_zlL5_.jpeg', 'Poke Kube', 'Novo!', 'Japonesa', '5.2 km', '45-55 min', 'R$ 5,50', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/poke-kube-barra-da-tijuca/b3bd6b20-08f9-4070-9a06-53ca2a05c8c6', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="288" spans="1:20" x14ac:dyDescent="0.3">
@@ -24454,7 +24454,7 @@
       </c>
       <c r="T288" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/fe14a2ed-a290-4e3c-bc2f-d07d7ca3ff36/202006092006_Ire3_i.png", "Tofu 💎", "4.9", "Japonesa", "7.7 km", "45-55 min", "R$ 9,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/tofu--barra-da-tijuca/fe14a2ed-a290-4e3c-bc2f-d07d7ca3ff36", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/fe14a2ed-a290-4e3c-bc2f-d07d7ca3ff36/202006092006_Ire3_i.png', 'Tofu 💎', '4.9', 'Japonesa', '7.7 km', '45-55 min', 'R$ 9,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/tofu--barra-da-tijuca/fe14a2ed-a290-4e3c-bc2f-d07d7ca3ff36', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.3">
@@ -24526,7 +24526,7 @@
       </c>
       <c r="T289" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/5c141589-2752-48a8-8e18-03466d1b4f97/202004141523_khC0_i.png", "Cariopoke Delivery", "4.7", "Japonesa", "6.4 km", "49-59 min", "R$ 9,90", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/cariopoke-delivery-anil/5c141589-2752-48a8-8e18-03466d1b4f97", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/5c141589-2752-48a8-8e18-03466d1b4f97/202004141523_khC0_i.png', 'Cariopoke Delivery', '4.7', 'Japonesa', '6.4 km', '49-59 min', 'R$ 9,90', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/cariopoke-delivery-anil/5c141589-2752-48a8-8e18-03466d1b4f97', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="290" spans="1:20" x14ac:dyDescent="0.3">
@@ -24598,7 +24598,7 @@
       </c>
       <c r="T290" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/6a9ab948-176b-49f6-ab5f-93d06fd5fb2d/202103312359_Fpni_i.jpg", "Sushi do Silvio", "4.6", "Japonesa", "5.3 km", "75-85 min", "R$ 9,00", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-do-silvio-anil/6a9ab948-176b-49f6-ab5f-93d06fd5fb2d", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/6a9ab948-176b-49f6-ab5f-93d06fd5fb2d/202103312359_Fpni_i.jpg', 'Sushi do Silvio', '4.6', 'Japonesa', '5.3 km', '75-85 min', 'R$ 9,00', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-do-silvio-anil/6a9ab948-176b-49f6-ab5f-93d06fd5fb2d', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.3">
@@ -24670,7 +24670,7 @@
       </c>
       <c r="T291" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/c4fb6695-c820-44ad-97b3-be3c19b3cbfc/202009102046_czxZ_i.jpg", "Torikami", "4.8", "Japonesa", "5.3 km", "39-49 min", "R$ 15,00", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/torikami-gardenia-azul/c4fb6695-c820-44ad-97b3-be3c19b3cbfc", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/c4fb6695-c820-44ad-97b3-be3c19b3cbfc/202009102046_czxZ_i.jpg', 'Torikami', '4.8', 'Japonesa', '5.3 km', '39-49 min', 'R$ 15,00', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/torikami-gardenia-azul/c4fb6695-c820-44ad-97b3-be3c19b3cbfc', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.3">
@@ -24742,7 +24742,7 @@
       </c>
       <c r="T292" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/c1ab5b55-5bce-4f43-8129-4f6e300980c7/202011132045_PPdP_.jpeg", "San Sushi", "4.7", "Japonesa", "6.8 km", "32-42 min", "R$ 15,49", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/san-sushi-jacarepagua/c1ab5b55-5bce-4f43-8129-4f6e300980c7", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/c1ab5b55-5bce-4f43-8129-4f6e300980c7/202011132045_PPdP_.jpeg', 'San Sushi', '4.7', 'Japonesa', '6.8 km', '32-42 min', 'R$ 15,49', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/san-sushi-jacarepagua/c1ab5b55-5bce-4f43-8129-4f6e300980c7', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.3">
@@ -24814,7 +24814,7 @@
       </c>
       <c r="T293" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/202109091605_7c7d2efe-6ec4-4036-9ab9-16fbfb0eecfd.jpg", "Kyoto Mania Barra da Tijuca", "4.7", "Japonesa", "4.5 km", "20-30 min", "R$ 7,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/kyoto-mania-barra-da-tijuca-anil/7c7d2efe-6ec4-4036-9ab9-16fbfb0eecfd", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/202109091605_7c7d2efe-6ec4-4036-9ab9-16fbfb0eecfd.jpg', 'Kyoto Mania Barra da Tijuca', '4.7', 'Japonesa', '4.5 km', '20-30 min', 'R$ 7,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/kyoto-mania-barra-da-tijuca-anil/7c7d2efe-6ec4-4036-9ab9-16fbfb0eecfd', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="294" spans="1:20" x14ac:dyDescent="0.3">
@@ -24886,7 +24886,7 @@
       </c>
       <c r="T294" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/logobrothersu_kimoc_creio.png", "Brother Sushi", "4.8", "Japonesa", "9.1 km", "70-80 min", "R$ 12,90", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/brother-sushi-barra-da-tijuca/1fd4df03-c445-424e-9a8f-1d1fe01491f6", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/logobrothersu_kimoc_creio.png', 'Brother Sushi', '4.8', 'Japonesa', '9.1 km', '70-80 min', 'R$ 12,90', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/brother-sushi-barra-da-tijuca/1fd4df03-c445-424e-9a8f-1d1fe01491f6', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="295" spans="1:20" x14ac:dyDescent="0.3">
@@ -24958,7 +24958,7 @@
       </c>
       <c r="T295" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/7f5c0af4-4b3b-4825-9758-d51c84babbf0/201912110116_1iUE_i.jpg", "Hobby Sushi", "4.7", "Japonesa", "3.6 km", "35-45 min", "R$ 9,00", "Cupom de R$ 5 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/hobby-sushi-anil/7f5c0af4-4b3b-4825-9758-d51c84babbf0", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/7f5c0af4-4b3b-4825-9758-d51c84babbf0/201912110116_1iUE_i.jpg', 'Hobby Sushi', '4.7', 'Japonesa', '3.6 km', '35-45 min', 'R$ 9,00', 'Cupom de R$ 5 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/hobby-sushi-anil/7f5c0af4-4b3b-4825-9758-d51c84babbf0', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.3">
@@ -25030,7 +25030,7 @@
       </c>
       <c r="T296" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/19a0012a-e5f0-4b5b-82ac-c808c4b6dc11/202103041202_zb1J_i.png", "Kentaro Barra", "4.4", "Japonesa", "3.9 km", "45-55 min", "R$ 10,00", "Cupom de R$ 12 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/kentaro-barra-barra-da-tijuca/19a0012a-e5f0-4b5b-82ac-c808c4b6dc11", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/19a0012a-e5f0-4b5b-82ac-c808c4b6dc11/202103041202_zb1J_i.png', 'Kentaro Barra', '4.4', 'Japonesa', '3.9 km', '45-55 min', 'R$ 10,00', 'Cupom de R$ 12 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/kentaro-barra-barra-da-tijuca/19a0012a-e5f0-4b5b-82ac-c808c4b6dc11', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="297" spans="1:20" x14ac:dyDescent="0.3">
@@ -25102,7 +25102,7 @@
       </c>
       <c r="T297" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/58fbebe0-597d-44a2-accb-a91fa94483eb/201906252057_2aoz_.jpeg", "Kobudai", "3.9", "Japonesa", "11.7 km", "110-120 min", "R$ 12,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/kobudai-recreio-dos-bandeirantes/58fbebe0-597d-44a2-accb-a91fa94483eb", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/58fbebe0-597d-44a2-accb-a91fa94483eb/201906252057_2aoz_.jpeg', 'Kobudai', '3.9', 'Japonesa', '11.7 km', '110-120 min', 'R$ 12,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/kobudai-recreio-dos-bandeirantes/58fbebe0-597d-44a2-accb-a91fa94483eb', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.3">
@@ -25174,7 +25174,7 @@
       </c>
       <c r="T298" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/0adf42f4-e6f0-4f64-9365-cecd41dbba0b/202106072119_U9eu_i.jpg", "Hiroshi Sushi Rp", "4.8", "Japonesa", "3.5 km", "60-70 min", "R$ 10,00", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/hiroshi-sushi-rp-itanhanga/0adf42f4-e6f0-4f64-9365-cecd41dbba0b", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/0adf42f4-e6f0-4f64-9365-cecd41dbba0b/202106072119_U9eu_i.jpg', 'Hiroshi Sushi Rp', '4.8', 'Japonesa', '3.5 km', '60-70 min', 'R$ 10,00', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/hiroshi-sushi-rp-itanhanga/0adf42f4-e6f0-4f64-9365-cecd41dbba0b', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="299" spans="1:20" x14ac:dyDescent="0.3">
@@ -25246,7 +25246,7 @@
       </c>
       <c r="T299" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/1c4ddb7d-494d-44bf-8714-bec40a2ccb1b/202107292329_Cj7Y_i.jpg", "VIBE JAPA", "3.7", "Japonesa", "2.3 km", "33-43 min", "R$ 9,99", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/vibe-japa-barra-da-tijuca/1c4ddb7d-494d-44bf-8714-bec40a2ccb1b", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/1c4ddb7d-494d-44bf-8714-bec40a2ccb1b/202107292329_Cj7Y_i.jpg', 'VIBE JAPA', '3.7', 'Japonesa', '2.3 km', '33-43 min', 'R$ 9,99', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/vibe-japa-barra-da-tijuca/1c4ddb7d-494d-44bf-8714-bec40a2ccb1b', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.3">
@@ -25318,7 +25318,7 @@
       </c>
       <c r="T300" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/f75b92ad-6c80-4ffa-8964-573331f45be6/202011020311_77F8_i.jpg", "Yasui Japa Barra", "5.0", "Japonesa", "9.1 km", "70-80 min", "R$ 13,90", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/yasui-japa-barra-barra-da-tijuca/f75b92ad-6c80-4ffa-8964-573331f45be6", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/f75b92ad-6c80-4ffa-8964-573331f45be6/202011020311_77F8_i.jpg', 'Yasui Japa Barra', '5.0', 'Japonesa', '9.1 km', '70-80 min', 'R$ 13,90', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/yasui-japa-barra-barra-da-tijuca/f75b92ad-6c80-4ffa-8964-573331f45be6', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="301" spans="1:20" x14ac:dyDescent="0.3">
@@ -25390,7 +25390,7 @@
       </c>
       <c r="T301" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/7101a8d3-fb3c-4401-a685-9b75c12fb9cd_OSUSHIBAR01.jpeg", "Osushibar", "4.8", "Japonesa", "11.5 km", "60-70 min", "R$ 17,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/osushibar-praca-seca/5f17c134-e5fa-4129-abf4-ef7645427514", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/7101a8d3-fb3c-4401-a685-9b75c12fb9cd_OSUSHIBAR01.jpeg', 'Osushibar', '4.8', 'Japonesa', '11.5 km', '60-70 min', 'R$ 17,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/osushibar-praca-seca/5f17c134-e5fa-4129-abf4-ef7645427514', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="302" spans="1:20" x14ac:dyDescent="0.3">
@@ -25462,7 +25462,7 @@
       </c>
       <c r="T302" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/87f54e40-d34e-48b4-840e-52c109fa5e17/202006081005_HQR8_i.jpg", "Yak a Mak Sushi", "4.8", "Japonesa", "8.3 km", "58-68 min", "R$ 19,98", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/yak-a-mak-sushi-curicica/87f54e40-d34e-48b4-840e-52c109fa5e17", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/87f54e40-d34e-48b4-840e-52c109fa5e17/202006081005_HQR8_i.jpg', 'Yak a Mak Sushi', '4.8', 'Japonesa', '8.3 km', '58-68 min', 'R$ 19,98', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/yak-a-mak-sushi-curicica/87f54e40-d34e-48b4-840e-52c109fa5e17', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="303" spans="1:20" x14ac:dyDescent="0.3">
@@ -25534,7 +25534,7 @@
       </c>
       <c r="T303" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/49ef08b1-9296-492d-b9fe-26fa3a814847/202109081124_2s4b_i.png", "Yo Japa Barra da Tijuca", "4.7", "Japonesa", "1.2 km", "29-39 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/yo-japa-barra-da-tijuca-barra-da-tijuca/49ef08b1-9296-492d-b9fe-26fa3a814847", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/49ef08b1-9296-492d-b9fe-26fa3a814847/202109081124_2s4b_i.png', 'Yo Japa Barra da Tijuca', '4.7', 'Japonesa', '1.2 km', '29-39 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/yo-japa-barra-da-tijuca-barra-da-tijuca/49ef08b1-9296-492d-b9fe-26fa3a814847', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.3">
@@ -25606,7 +25606,7 @@
       </c>
       <c r="T304" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/e599c3cf-a55f-4b87-b2fc-0e178df8cec8/202109262325_NgzB_i.jpg", "Brabo Sushi - Barra", "Novo!", "Japonesa", "2.1 km", "49-59 min", "Grátis", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/brabo-sushi---barra-barra-da-tijuca/e599c3cf-a55f-4b87-b2fc-0e178df8cec8", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/e599c3cf-a55f-4b87-b2fc-0e178df8cec8/202109262325_NgzB_i.jpg', 'Brabo Sushi - Barra', 'Novo!', 'Japonesa', '2.1 km', '49-59 min', 'Grátis', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/brabo-sushi---barra-barra-da-tijuca/e599c3cf-a55f-4b87-b2fc-0e178df8cec8', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="305" spans="1:20" x14ac:dyDescent="0.3">
@@ -25678,7 +25678,7 @@
       </c>
       <c r="T305" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/5e6298b5-0baa-451a-b956-c3426864dc7d/202105070019_XnZ0_i.jpg", "Leke Sushi", "Novo!", "Japonesa", "5.1 km", "52-62 min", "R$ 13,99", "Cupom de R$ 10 disponível", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/leke-sushi-gardenia-azul/5e6298b5-0baa-451a-b956-c3426864dc7d", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/5e6298b5-0baa-451a-b956-c3426864dc7d/202105070019_XnZ0_i.jpg', 'Leke Sushi', 'Novo!', 'Japonesa', '5.1 km', '52-62 min', 'R$ 13,99', 'Cupom de R$ 10 disponível', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/leke-sushi-gardenia-azul/5e6298b5-0baa-451a-b956-c3426864dc7d', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
     <row r="306" spans="1:20" x14ac:dyDescent="0.3">
@@ -25750,7 +25750,7 @@
       </c>
       <c r="T306" t="str">
         <f t="shared" si="1037"/>
-        <v>INSERT INTO t_restaurante (id_restaurante,  ds_img_restaurante,  nm_restaurante,  nr_rating_restaurante,  ds_tipo_restaurante,  nr_dist_restaurante,  ds_prazo_restaurante,  ds_frete_restaurante,  ds_desc_restaurante,  ds_url_restaurante, nm_end_origem) VALUES (restaurante_seq.NEXTVAL,  "https://static-images.ifood.com.br/image/upload/t_high/logosgde/3e023145-d249-4a98-b043-d7ecb6b0bb1d/202109241758_lnGf_i.jpg", "Sushi Passion", "Novo!", "Japonesa", "2.1 km", "35-45 min", "R$ 2,00", "Sem desconto", "https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-passion-itanhanga/3e023145-d249-4a98-b043-d7ecb6b0bb1d", "Rua Desembarbador Roberto medeiros, 70");</v>
+        <v>INSERT INTO t_restaurante (id_rest,  ds_img_rest,  nm_rest,  nr_rat_rest,  ds_tipo_rest,  nr_dist_rest,  ds_prazo_rest,  ds_frete_rest,  ds_desc_rest,  ds_url_rest, nm_end_ori) VALUES (restaurante_seq.NEXTVAL,  'https://static-images.ifood.com.br/image/upload/t_high/logosgde/3e023145-d249-4a98-b043-d7ecb6b0bb1d/202109241758_lnGf_i.jpg', 'Sushi Passion', 'Novo!', 'Japonesa', '2.1 km', '35-45 min', 'R$ 2,00', 'Sem desconto', 'https://www.ifood.com.br/delivery/rio-de-janeiro-rj/sushi-passion-itanhanga/3e023145-d249-4a98-b043-d7ecb6b0bb1d', 'Rua Desembarbador Roberto medeiros, 70');</v>
       </c>
     </row>
   </sheetData>
